--- a/일정표_윤성주.xlsx
+++ b/일정표_윤성주.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021-2\네트워크 게임 프로그래밍\Term Project\2021NGP_VTM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A786AAF2-BEFC-4909-8263-8A5B1B4BD5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69F39A0-FEB8-4E8A-A072-A741D8E2D2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$6:$AF$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$6:$AF$86</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>기간</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,6 +224,14 @@
     <t>origin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>플레이어 사망 구현 및 서버에 전송 후 충돌처리x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망처리 및 부활</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -311,7 +319,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,8 +391,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="111">
+  <borders count="110">
     <border>
       <left/>
       <right/>
@@ -1850,23 +1864,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="1">
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
     <border>
       <left/>
       <right/>
@@ -1878,7 +1875,37 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="1">
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1889,45 +1916,11 @@
       <bottom style="hair">
         <color indexed="64"/>
       </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="1">
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
         <color indexed="64"/>
       </right>
       <top style="hair">
@@ -1962,7 +1955,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2150,9 +2143,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2206,9 +2196,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2225,27 +2212,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="8" borderId="29" xfId="3" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="3" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2284,9 +2250,6 @@
     <xf numFmtId="177" fontId="10" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="10" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2410,16 +2373,13 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="10" fillId="11" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="10" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2428,10 +2388,7 @@
     <xf numFmtId="14" fontId="10" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="10" fillId="11" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2443,6 +2400,84 @@
     <xf numFmtId="177" fontId="10" fillId="11" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="12" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="12" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="12" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="12" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="12" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="12" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="12" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="12" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="12" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="12" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2473,88 +2508,115 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="12" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="12" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="12" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="12" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="12" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="12" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="12" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="12" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="12" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="12" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="12" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="12" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="11" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="11" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="12" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="12" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="13" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2911,104 +2973,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU240"/>
+  <dimension ref="A1:AU242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="AH21" sqref="AH21"/>
+      <selection pane="bottomRight" activeCell="AI24" sqref="AI24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="31.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" customWidth="1"/>
-    <col min="3" max="32" width="2.77734375" style="1" customWidth="1"/>
+    <col min="3" max="26" width="2.77734375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="2.77734375" style="4" customWidth="1"/>
+    <col min="28" max="32" width="2.77734375" style="1" customWidth="1"/>
     <col min="33" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="163"/>
-      <c r="AA1" s="163"/>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="163"/>
-      <c r="AD1" s="163"/>
-      <c r="AE1" s="163"/>
-      <c r="AF1" s="164"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
+      <c r="N1" s="177"/>
+      <c r="O1" s="177"/>
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
+      <c r="R1" s="177"/>
+      <c r="S1" s="177"/>
+      <c r="T1" s="177"/>
+      <c r="U1" s="177"/>
+      <c r="V1" s="177"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
+      <c r="Y1" s="177"/>
+      <c r="Z1" s="177"/>
+      <c r="AA1" s="177"/>
+      <c r="AB1" s="177"/>
+      <c r="AC1" s="177"/>
+      <c r="AD1" s="177"/>
+      <c r="AE1" s="177"/>
+      <c r="AF1" s="178"/>
     </row>
     <row r="2" spans="1:33" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="168" t="s">
+      <c r="B2" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="165" t="s">
+      <c r="C2" s="179" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="160"/>
-      <c r="O2" s="160"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="160"/>
-      <c r="R2" s="160"/>
-      <c r="S2" s="160"/>
-      <c r="T2" s="160"/>
-      <c r="U2" s="160"/>
-      <c r="V2" s="160"/>
-      <c r="W2" s="160"/>
-      <c r="X2" s="160"/>
-      <c r="Y2" s="161"/>
-      <c r="Z2" s="160" t="s">
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="174"/>
+      <c r="O2" s="174"/>
+      <c r="P2" s="174"/>
+      <c r="Q2" s="174"/>
+      <c r="R2" s="174"/>
+      <c r="S2" s="174"/>
+      <c r="T2" s="174"/>
+      <c r="U2" s="174"/>
+      <c r="V2" s="174"/>
+      <c r="W2" s="174"/>
+      <c r="X2" s="174"/>
+      <c r="Y2" s="175"/>
+      <c r="Z2" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" s="160"/>
-      <c r="AB2" s="160"/>
-      <c r="AC2" s="160"/>
-      <c r="AD2" s="160"/>
-      <c r="AE2" s="160"/>
-      <c r="AF2" s="161"/>
+      <c r="AA2" s="174"/>
+      <c r="AB2" s="174"/>
+      <c r="AC2" s="174"/>
+      <c r="AD2" s="174"/>
+      <c r="AE2" s="174"/>
+      <c r="AF2" s="175"/>
     </row>
     <row r="3" spans="1:33" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="167"/>
-      <c r="B3" s="169"/>
+      <c r="A3" s="181"/>
+      <c r="B3" s="183"/>
       <c r="C3" s="13">
         <v>8</v>
       </c>
@@ -3101,1154 +3165,1154 @@
       </c>
     </row>
     <row r="4" spans="1:33" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="102"/>
-      <c r="O4" s="102"/>
-      <c r="P4" s="102"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="101"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="105"/>
-      <c r="U4" s="102"/>
-      <c r="V4" s="103"/>
-      <c r="W4" s="101"/>
-      <c r="X4" s="104"/>
-      <c r="Y4" s="106"/>
-      <c r="Z4" s="101"/>
-      <c r="AA4" s="107"/>
-      <c r="AB4" s="108"/>
-      <c r="AC4" s="101"/>
-      <c r="AD4" s="102"/>
-      <c r="AE4" s="102"/>
-      <c r="AF4" s="106"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="92"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="92"/>
+      <c r="X4" s="95"/>
+      <c r="Y4" s="97"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="98"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="93"/>
+      <c r="AE4" s="93"/>
+      <c r="AF4" s="97"/>
       <c r="AG4" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="117"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="118"/>
-      <c r="T5" s="119"/>
-      <c r="U5" s="114"/>
-      <c r="V5" s="117"/>
-      <c r="W5" s="116"/>
-      <c r="X5" s="118"/>
-      <c r="Y5" s="120"/>
-      <c r="Z5" s="116"/>
-      <c r="AA5" s="115"/>
-      <c r="AB5" s="121"/>
-      <c r="AC5" s="116"/>
-      <c r="AD5" s="114"/>
-      <c r="AE5" s="114"/>
-      <c r="AF5" s="120"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="109"/>
+      <c r="U5" s="104"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="106"/>
+      <c r="X5" s="108"/>
+      <c r="Y5" s="110"/>
+      <c r="Z5" s="106"/>
+      <c r="AA5" s="107"/>
+      <c r="AB5" s="111"/>
+      <c r="AC5" s="106"/>
+      <c r="AD5" s="104"/>
+      <c r="AE5" s="104"/>
+      <c r="AF5" s="110"/>
     </row>
     <row r="6" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="117"/>
-      <c r="M6" s="116"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114"/>
-      <c r="Q6" s="117"/>
-      <c r="R6" s="116"/>
-      <c r="S6" s="118"/>
-      <c r="T6" s="119"/>
-      <c r="U6" s="114"/>
-      <c r="V6" s="117"/>
-      <c r="W6" s="116"/>
-      <c r="X6" s="118"/>
-      <c r="Y6" s="120"/>
-      <c r="Z6" s="116"/>
-      <c r="AA6" s="115"/>
-      <c r="AB6" s="121"/>
-      <c r="AC6" s="116"/>
-      <c r="AD6" s="114"/>
-      <c r="AE6" s="114"/>
-      <c r="AF6" s="120"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="107"/>
+      <c r="R6" s="106"/>
+      <c r="S6" s="108"/>
+      <c r="T6" s="109"/>
+      <c r="U6" s="104"/>
+      <c r="V6" s="107"/>
+      <c r="W6" s="106"/>
+      <c r="X6" s="108"/>
+      <c r="Y6" s="110"/>
+      <c r="Z6" s="106"/>
+      <c r="AA6" s="107"/>
+      <c r="AB6" s="111"/>
+      <c r="AC6" s="106"/>
+      <c r="AD6" s="104"/>
+      <c r="AE6" s="104"/>
+      <c r="AF6" s="110"/>
     </row>
     <row r="7" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="117"/>
-      <c r="M7" s="116"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="117"/>
-      <c r="R7" s="116"/>
-      <c r="S7" s="118"/>
-      <c r="T7" s="119"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="117"/>
-      <c r="W7" s="116"/>
-      <c r="X7" s="118"/>
-      <c r="Y7" s="120"/>
-      <c r="Z7" s="116"/>
-      <c r="AA7" s="115"/>
-      <c r="AB7" s="121"/>
-      <c r="AC7" s="116"/>
-      <c r="AD7" s="114"/>
-      <c r="AE7" s="114"/>
-      <c r="AF7" s="120"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="104"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="108"/>
+      <c r="T7" s="109"/>
+      <c r="U7" s="104"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="108"/>
+      <c r="Y7" s="110"/>
+      <c r="Z7" s="106"/>
+      <c r="AA7" s="107"/>
+      <c r="AB7" s="111"/>
+      <c r="AC7" s="106"/>
+      <c r="AD7" s="104"/>
+      <c r="AE7" s="104"/>
+      <c r="AF7" s="110"/>
     </row>
     <row r="8" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="123" t="s">
+      <c r="A8" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="124" t="s">
+      <c r="B8" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="125"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="127"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="128"/>
-      <c r="K8" s="128"/>
-      <c r="L8" s="130"/>
-      <c r="M8" s="127"/>
-      <c r="N8" s="128"/>
-      <c r="O8" s="128"/>
-      <c r="P8" s="128"/>
-      <c r="Q8" s="130"/>
-      <c r="R8" s="127"/>
-      <c r="S8" s="131"/>
-      <c r="T8" s="132"/>
-      <c r="U8" s="128"/>
-      <c r="V8" s="130"/>
-      <c r="W8" s="127"/>
-      <c r="X8" s="131"/>
-      <c r="Y8" s="133"/>
-      <c r="Z8" s="127"/>
-      <c r="AA8" s="129"/>
-      <c r="AB8" s="134"/>
-      <c r="AC8" s="127"/>
-      <c r="AD8" s="128"/>
-      <c r="AE8" s="128"/>
-      <c r="AF8" s="133"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="118"/>
+      <c r="O8" s="118"/>
+      <c r="P8" s="118"/>
+      <c r="Q8" s="120"/>
+      <c r="R8" s="117"/>
+      <c r="S8" s="121"/>
+      <c r="T8" s="122"/>
+      <c r="U8" s="118"/>
+      <c r="V8" s="120"/>
+      <c r="W8" s="117"/>
+      <c r="X8" s="121"/>
+      <c r="Y8" s="123"/>
+      <c r="Z8" s="117"/>
+      <c r="AA8" s="120"/>
+      <c r="AB8" s="124"/>
+      <c r="AC8" s="117"/>
+      <c r="AD8" s="118"/>
+      <c r="AE8" s="118"/>
+      <c r="AF8" s="123"/>
     </row>
     <row r="9" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="135"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="114"/>
-      <c r="O9" s="114"/>
-      <c r="P9" s="114"/>
-      <c r="Q9" s="117"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="118"/>
-      <c r="T9" s="119"/>
-      <c r="U9" s="114"/>
-      <c r="V9" s="117"/>
-      <c r="W9" s="116"/>
-      <c r="X9" s="118"/>
-      <c r="Y9" s="120"/>
-      <c r="Z9" s="116"/>
-      <c r="AA9" s="115"/>
-      <c r="AB9" s="121"/>
-      <c r="AC9" s="116"/>
-      <c r="AD9" s="114"/>
-      <c r="AE9" s="114"/>
-      <c r="AF9" s="120"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="106"/>
+      <c r="S9" s="108"/>
+      <c r="T9" s="109"/>
+      <c r="U9" s="104"/>
+      <c r="V9" s="107"/>
+      <c r="W9" s="106"/>
+      <c r="X9" s="108"/>
+      <c r="Y9" s="110"/>
+      <c r="Z9" s="106"/>
+      <c r="AA9" s="107"/>
+      <c r="AB9" s="111"/>
+      <c r="AC9" s="106"/>
+      <c r="AD9" s="104"/>
+      <c r="AE9" s="104"/>
+      <c r="AF9" s="110"/>
     </row>
     <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="135"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="114"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="114"/>
-      <c r="Q10" s="117"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="118"/>
-      <c r="T10" s="119"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="117"/>
-      <c r="W10" s="116"/>
-      <c r="X10" s="118"/>
-      <c r="Y10" s="120"/>
-      <c r="Z10" s="116"/>
-      <c r="AA10" s="115"/>
-      <c r="AB10" s="121"/>
-      <c r="AC10" s="116"/>
-      <c r="AD10" s="114"/>
-      <c r="AE10" s="114"/>
-      <c r="AF10" s="120"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="106"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="107"/>
+      <c r="R10" s="106"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="109"/>
+      <c r="U10" s="104"/>
+      <c r="V10" s="107"/>
+      <c r="W10" s="106"/>
+      <c r="X10" s="108"/>
+      <c r="Y10" s="110"/>
+      <c r="Z10" s="106"/>
+      <c r="AA10" s="107"/>
+      <c r="AB10" s="111"/>
+      <c r="AC10" s="106"/>
+      <c r="AD10" s="104"/>
+      <c r="AE10" s="104"/>
+      <c r="AF10" s="110"/>
     </row>
     <row r="11" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="137"/>
-      <c r="C11" s="138"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="142"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="141"/>
-      <c r="J11" s="141"/>
-      <c r="K11" s="143"/>
-      <c r="L11" s="143"/>
-      <c r="M11" s="140"/>
-      <c r="N11" s="141"/>
-      <c r="O11" s="141"/>
-      <c r="P11" s="141"/>
-      <c r="Q11" s="144"/>
-      <c r="R11" s="140"/>
-      <c r="S11" s="138"/>
-      <c r="T11" s="145"/>
-      <c r="U11" s="141"/>
-      <c r="V11" s="144"/>
-      <c r="W11" s="140"/>
-      <c r="X11" s="138"/>
-      <c r="Y11" s="146"/>
-      <c r="Z11" s="140"/>
-      <c r="AA11" s="142"/>
-      <c r="AB11" s="147"/>
-      <c r="AC11" s="140"/>
-      <c r="AD11" s="141"/>
-      <c r="AE11" s="141"/>
-      <c r="AF11" s="146"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="131"/>
+      <c r="K11" s="133"/>
+      <c r="L11" s="133"/>
+      <c r="M11" s="130"/>
+      <c r="N11" s="131"/>
+      <c r="O11" s="131"/>
+      <c r="P11" s="131"/>
+      <c r="Q11" s="134"/>
+      <c r="R11" s="130"/>
+      <c r="S11" s="128"/>
+      <c r="T11" s="135"/>
+      <c r="U11" s="131"/>
+      <c r="V11" s="134"/>
+      <c r="W11" s="130"/>
+      <c r="X11" s="128"/>
+      <c r="Y11" s="136"/>
+      <c r="Z11" s="130"/>
+      <c r="AA11" s="134"/>
+      <c r="AB11" s="137"/>
+      <c r="AC11" s="130"/>
+      <c r="AD11" s="131"/>
+      <c r="AE11" s="131"/>
+      <c r="AF11" s="136"/>
     </row>
     <row r="12" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="123" t="s">
+      <c r="A12" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="124" t="s">
+      <c r="B12" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="131"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="128"/>
-      <c r="L12" s="130"/>
-      <c r="M12" s="127"/>
-      <c r="N12" s="128"/>
-      <c r="O12" s="128"/>
-      <c r="P12" s="128"/>
-      <c r="Q12" s="130"/>
-      <c r="R12" s="127"/>
-      <c r="S12" s="131"/>
-      <c r="T12" s="132"/>
-      <c r="U12" s="128"/>
-      <c r="V12" s="130"/>
-      <c r="W12" s="127"/>
-      <c r="X12" s="131"/>
-      <c r="Y12" s="133"/>
-      <c r="Z12" s="127"/>
-      <c r="AA12" s="129"/>
-      <c r="AB12" s="134"/>
-      <c r="AC12" s="127"/>
-      <c r="AD12" s="128"/>
-      <c r="AE12" s="128"/>
-      <c r="AF12" s="133"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="120"/>
+      <c r="M12" s="117"/>
+      <c r="N12" s="118"/>
+      <c r="O12" s="118"/>
+      <c r="P12" s="118"/>
+      <c r="Q12" s="120"/>
+      <c r="R12" s="117"/>
+      <c r="S12" s="121"/>
+      <c r="T12" s="122"/>
+      <c r="U12" s="118"/>
+      <c r="V12" s="120"/>
+      <c r="W12" s="117"/>
+      <c r="X12" s="121"/>
+      <c r="Y12" s="123"/>
+      <c r="Z12" s="117"/>
+      <c r="AA12" s="120"/>
+      <c r="AB12" s="124"/>
+      <c r="AC12" s="117"/>
+      <c r="AD12" s="118"/>
+      <c r="AE12" s="118"/>
+      <c r="AF12" s="123"/>
     </row>
     <row r="13" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="110"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="114"/>
-      <c r="O13" s="114"/>
-      <c r="P13" s="114"/>
-      <c r="Q13" s="117"/>
-      <c r="R13" s="116"/>
-      <c r="S13" s="118"/>
-      <c r="T13" s="119"/>
-      <c r="U13" s="114"/>
-      <c r="V13" s="117"/>
-      <c r="W13" s="116"/>
-      <c r="X13" s="118"/>
-      <c r="Y13" s="120"/>
-      <c r="Z13" s="116"/>
-      <c r="AA13" s="115"/>
-      <c r="AB13" s="121"/>
-      <c r="AC13" s="116"/>
-      <c r="AD13" s="114"/>
-      <c r="AE13" s="114"/>
-      <c r="AF13" s="120"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="101"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="104"/>
+      <c r="P13" s="104"/>
+      <c r="Q13" s="107"/>
+      <c r="R13" s="106"/>
+      <c r="S13" s="108"/>
+      <c r="T13" s="109"/>
+      <c r="U13" s="104"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="106"/>
+      <c r="X13" s="108"/>
+      <c r="Y13" s="110"/>
+      <c r="Z13" s="106"/>
+      <c r="AA13" s="107"/>
+      <c r="AB13" s="111"/>
+      <c r="AC13" s="106"/>
+      <c r="AD13" s="104"/>
+      <c r="AE13" s="104"/>
+      <c r="AF13" s="110"/>
     </row>
     <row r="14" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="148" t="s">
+      <c r="A14" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="110"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="116"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="116"/>
-      <c r="N14" s="111"/>
-      <c r="O14" s="114"/>
-      <c r="P14" s="114"/>
-      <c r="Q14" s="117"/>
-      <c r="R14" s="116"/>
-      <c r="S14" s="118"/>
-      <c r="T14" s="119"/>
-      <c r="U14" s="114"/>
-      <c r="V14" s="117"/>
-      <c r="W14" s="116"/>
-      <c r="X14" s="118"/>
-      <c r="Y14" s="120"/>
-      <c r="Z14" s="116"/>
-      <c r="AA14" s="115"/>
-      <c r="AB14" s="121"/>
-      <c r="AC14" s="116"/>
-      <c r="AD14" s="114"/>
-      <c r="AE14" s="114"/>
-      <c r="AF14" s="120"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="106"/>
+      <c r="N14" s="101"/>
+      <c r="O14" s="104"/>
+      <c r="P14" s="104"/>
+      <c r="Q14" s="107"/>
+      <c r="R14" s="106"/>
+      <c r="S14" s="108"/>
+      <c r="T14" s="109"/>
+      <c r="U14" s="104"/>
+      <c r="V14" s="107"/>
+      <c r="W14" s="106"/>
+      <c r="X14" s="108"/>
+      <c r="Y14" s="110"/>
+      <c r="Z14" s="106"/>
+      <c r="AA14" s="107"/>
+      <c r="AB14" s="111"/>
+      <c r="AC14" s="106"/>
+      <c r="AD14" s="104"/>
+      <c r="AE14" s="104"/>
+      <c r="AF14" s="110"/>
     </row>
     <row r="15" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="109" t="s">
+      <c r="A15" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="110"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="117"/>
-      <c r="M15" s="116"/>
-      <c r="N15" s="114"/>
-      <c r="O15" s="111"/>
-      <c r="P15" s="111"/>
-      <c r="Q15" s="117"/>
-      <c r="R15" s="116"/>
-      <c r="S15" s="118"/>
-      <c r="T15" s="119"/>
-      <c r="U15" s="114"/>
-      <c r="V15" s="117"/>
-      <c r="W15" s="116"/>
-      <c r="X15" s="118"/>
-      <c r="Y15" s="120"/>
-      <c r="Z15" s="116"/>
-      <c r="AA15" s="115"/>
-      <c r="AB15" s="121"/>
-      <c r="AC15" s="116"/>
-      <c r="AD15" s="114"/>
-      <c r="AE15" s="114"/>
-      <c r="AF15" s="120"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="106"/>
+      <c r="N15" s="104"/>
+      <c r="O15" s="101"/>
+      <c r="P15" s="101"/>
+      <c r="Q15" s="107"/>
+      <c r="R15" s="106"/>
+      <c r="S15" s="108"/>
+      <c r="T15" s="109"/>
+      <c r="U15" s="104"/>
+      <c r="V15" s="107"/>
+      <c r="W15" s="106"/>
+      <c r="X15" s="108"/>
+      <c r="Y15" s="110"/>
+      <c r="Z15" s="106"/>
+      <c r="AA15" s="107"/>
+      <c r="AB15" s="111"/>
+      <c r="AC15" s="106"/>
+      <c r="AD15" s="104"/>
+      <c r="AE15" s="104"/>
+      <c r="AF15" s="110"/>
     </row>
     <row r="16" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="109" t="s">
+      <c r="A16" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="110"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="117"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="114"/>
-      <c r="O16" s="114"/>
-      <c r="P16" s="114"/>
-      <c r="Q16" s="111"/>
-      <c r="R16" s="116"/>
-      <c r="S16" s="118"/>
-      <c r="T16" s="119"/>
-      <c r="U16" s="114"/>
-      <c r="V16" s="117"/>
-      <c r="W16" s="116"/>
-      <c r="X16" s="118"/>
-      <c r="Y16" s="120"/>
-      <c r="Z16" s="116"/>
-      <c r="AA16" s="115"/>
-      <c r="AB16" s="121"/>
-      <c r="AC16" s="116"/>
-      <c r="AD16" s="114"/>
-      <c r="AE16" s="114"/>
-      <c r="AF16" s="120"/>
-    </row>
-    <row r="17" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="109" t="s">
+      <c r="B16" s="100"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="106"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="104"/>
+      <c r="P16" s="104"/>
+      <c r="Q16" s="101"/>
+      <c r="R16" s="106"/>
+      <c r="S16" s="108"/>
+      <c r="T16" s="109"/>
+      <c r="U16" s="104"/>
+      <c r="V16" s="107"/>
+      <c r="W16" s="106"/>
+      <c r="X16" s="108"/>
+      <c r="Y16" s="110"/>
+      <c r="Z16" s="106"/>
+      <c r="AA16" s="107"/>
+      <c r="AB16" s="111"/>
+      <c r="AC16" s="106"/>
+      <c r="AD16" s="104"/>
+      <c r="AE16" s="104"/>
+      <c r="AF16" s="110"/>
+    </row>
+    <row r="17" spans="1:47" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="110"/>
-      <c r="C17" s="118"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="116"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="116"/>
-      <c r="N17" s="114"/>
-      <c r="O17" s="114"/>
-      <c r="P17" s="114"/>
-      <c r="Q17" s="117"/>
-      <c r="R17" s="149"/>
-      <c r="S17" s="118"/>
-      <c r="T17" s="119"/>
-      <c r="U17" s="114"/>
-      <c r="V17" s="117"/>
-      <c r="W17" s="116"/>
-      <c r="X17" s="118"/>
-      <c r="Y17" s="120"/>
-      <c r="Z17" s="116"/>
-      <c r="AA17" s="115"/>
-      <c r="AB17" s="121"/>
-      <c r="AC17" s="116"/>
-      <c r="AD17" s="114"/>
-      <c r="AE17" s="114"/>
-      <c r="AF17" s="120"/>
-    </row>
-    <row r="18" spans="1:47" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="62" t="s">
+      <c r="B17" s="100"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="106"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="104"/>
+      <c r="P17" s="104"/>
+      <c r="Q17" s="107"/>
+      <c r="R17" s="139"/>
+      <c r="S17" s="108"/>
+      <c r="T17" s="109"/>
+      <c r="U17" s="104"/>
+      <c r="V17" s="107"/>
+      <c r="W17" s="106"/>
+      <c r="X17" s="108"/>
+      <c r="Y17" s="110"/>
+      <c r="Z17" s="106"/>
+      <c r="AA17" s="107"/>
+      <c r="AB17" s="111"/>
+      <c r="AC17" s="106"/>
+      <c r="AD17" s="104"/>
+      <c r="AE17" s="104"/>
+      <c r="AF17" s="110"/>
+    </row>
+    <row r="18" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="140" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="114" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="121"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="117"/>
+      <c r="N18" s="118"/>
+      <c r="O18" s="118"/>
+      <c r="P18" s="118"/>
+      <c r="Q18" s="120"/>
+      <c r="R18" s="117"/>
+      <c r="S18" s="121"/>
+      <c r="T18" s="121"/>
+      <c r="U18" s="122"/>
+      <c r="V18" s="121"/>
+      <c r="W18" s="124"/>
+      <c r="X18" s="117"/>
+      <c r="Y18" s="121"/>
+      <c r="Z18" s="141"/>
+      <c r="AA18" s="207"/>
+      <c r="AB18" s="124"/>
+      <c r="AC18" s="117"/>
+      <c r="AD18" s="118"/>
+      <c r="AE18" s="118"/>
+      <c r="AF18" s="123"/>
+    </row>
+    <row r="19" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="143"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="104"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="106"/>
+      <c r="N19" s="104"/>
+      <c r="O19" s="104"/>
+      <c r="P19" s="104"/>
+      <c r="Q19" s="107"/>
+      <c r="R19" s="106"/>
+      <c r="S19" s="101"/>
+      <c r="T19" s="101"/>
+      <c r="U19" s="109"/>
+      <c r="V19" s="108"/>
+      <c r="W19" s="111"/>
+      <c r="X19" s="106"/>
+      <c r="Y19" s="108"/>
+      <c r="Z19" s="144"/>
+      <c r="AA19" s="208"/>
+      <c r="AB19" s="111"/>
+      <c r="AC19" s="106"/>
+      <c r="AD19" s="104"/>
+      <c r="AE19" s="104"/>
+      <c r="AF19" s="110"/>
+    </row>
+    <row r="20" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="145" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="143"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="106"/>
+      <c r="N20" s="104"/>
+      <c r="O20" s="104"/>
+      <c r="P20" s="104"/>
+      <c r="Q20" s="107"/>
+      <c r="R20" s="106"/>
+      <c r="S20" s="108"/>
+      <c r="T20" s="108"/>
+      <c r="U20" s="101"/>
+      <c r="V20" s="108"/>
+      <c r="W20" s="111"/>
+      <c r="X20" s="106"/>
+      <c r="Y20" s="108"/>
+      <c r="Z20" s="144"/>
+      <c r="AA20" s="208"/>
+      <c r="AB20" s="111"/>
+      <c r="AC20" s="106"/>
+      <c r="AD20" s="104"/>
+      <c r="AE20" s="104"/>
+      <c r="AF20" s="110"/>
+    </row>
+    <row r="21" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="146" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="114" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="121"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="118"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="117"/>
+      <c r="N21" s="118"/>
+      <c r="O21" s="118"/>
+      <c r="P21" s="118"/>
+      <c r="Q21" s="120"/>
+      <c r="R21" s="117"/>
+      <c r="S21" s="121"/>
+      <c r="T21" s="121"/>
+      <c r="U21" s="122"/>
+      <c r="V21" s="121"/>
+      <c r="W21" s="124"/>
+      <c r="X21" s="117"/>
+      <c r="Y21" s="121"/>
+      <c r="Z21" s="141"/>
+      <c r="AA21" s="207"/>
+      <c r="AB21" s="124"/>
+      <c r="AC21" s="117"/>
+      <c r="AD21" s="118"/>
+      <c r="AE21" s="118"/>
+      <c r="AF21" s="123"/>
+    </row>
+    <row r="22" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="142" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="143"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="107"/>
+      <c r="M22" s="106"/>
+      <c r="N22" s="104"/>
+      <c r="O22" s="104"/>
+      <c r="P22" s="104"/>
+      <c r="Q22" s="107"/>
+      <c r="R22" s="106"/>
+      <c r="S22" s="108"/>
+      <c r="T22" s="108"/>
+      <c r="U22" s="109"/>
+      <c r="V22" s="108"/>
+      <c r="W22" s="147"/>
+      <c r="X22" s="106"/>
+      <c r="Y22" s="108"/>
+      <c r="Z22" s="144"/>
+      <c r="AA22" s="208"/>
+      <c r="AB22" s="111"/>
+      <c r="AC22" s="106"/>
+      <c r="AD22" s="104"/>
+      <c r="AE22" s="104"/>
+      <c r="AF22" s="110"/>
+    </row>
+    <row r="23" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="145" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="100"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="104"/>
+      <c r="K23" s="104"/>
+      <c r="L23" s="107"/>
+      <c r="M23" s="106"/>
+      <c r="N23" s="104"/>
+      <c r="O23" s="104"/>
+      <c r="P23" s="104"/>
+      <c r="Q23" s="107"/>
+      <c r="R23" s="106"/>
+      <c r="S23" s="108"/>
+      <c r="T23" s="108"/>
+      <c r="U23" s="109"/>
+      <c r="V23" s="108"/>
+      <c r="W23" s="111"/>
+      <c r="X23" s="106"/>
+      <c r="Y23" s="108"/>
+      <c r="Z23" s="144"/>
+      <c r="AA23" s="208"/>
+      <c r="AB23" s="111"/>
+      <c r="AC23" s="106"/>
+      <c r="AD23" s="104"/>
+      <c r="AE23" s="104"/>
+      <c r="AF23" s="110"/>
+      <c r="AU23" s="160"/>
+    </row>
+    <row r="24" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="161" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="162" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="163"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="165"/>
+      <c r="F24" s="166"/>
+      <c r="G24" s="167"/>
+      <c r="H24" s="165"/>
+      <c r="I24" s="166"/>
+      <c r="J24" s="166"/>
+      <c r="K24" s="166"/>
+      <c r="L24" s="168"/>
+      <c r="M24" s="165"/>
+      <c r="N24" s="166"/>
+      <c r="O24" s="166"/>
+      <c r="P24" s="166"/>
+      <c r="Q24" s="168"/>
+      <c r="R24" s="165"/>
+      <c r="S24" s="163"/>
+      <c r="T24" s="163"/>
+      <c r="U24" s="169"/>
+      <c r="V24" s="163"/>
+      <c r="W24" s="170"/>
+      <c r="X24" s="165"/>
+      <c r="Y24" s="163"/>
+      <c r="Z24" s="171"/>
+      <c r="AA24" s="209"/>
+      <c r="AB24" s="170"/>
+      <c r="AC24" s="165"/>
+      <c r="AD24" s="166"/>
+      <c r="AE24" s="166"/>
+      <c r="AF24" s="172"/>
+      <c r="AG24" s="173" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:47" s="173" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="148" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="149"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="151"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="152"/>
+      <c r="I25" s="153"/>
+      <c r="J25" s="153"/>
+      <c r="K25" s="153"/>
+      <c r="L25" s="155"/>
+      <c r="M25" s="152"/>
+      <c r="N25" s="153"/>
+      <c r="O25" s="153"/>
+      <c r="P25" s="153"/>
+      <c r="Q25" s="155"/>
+      <c r="R25" s="152"/>
+      <c r="S25" s="150"/>
+      <c r="T25" s="150"/>
+      <c r="U25" s="156"/>
+      <c r="V25" s="150"/>
+      <c r="W25" s="157"/>
+      <c r="X25" s="152"/>
+      <c r="Y25" s="150"/>
+      <c r="Z25" s="158"/>
+      <c r="AA25" s="210"/>
+      <c r="AB25" s="157"/>
+      <c r="AC25" s="152"/>
+      <c r="AD25" s="153"/>
+      <c r="AE25" s="153"/>
+      <c r="AF25" s="159"/>
+    </row>
+    <row r="26" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="148" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="149"/>
+      <c r="C26" s="150"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="153"/>
+      <c r="J26" s="153"/>
+      <c r="K26" s="153"/>
+      <c r="L26" s="155"/>
+      <c r="M26" s="152"/>
+      <c r="N26" s="153"/>
+      <c r="O26" s="153"/>
+      <c r="P26" s="153"/>
+      <c r="Q26" s="155"/>
+      <c r="R26" s="152"/>
+      <c r="S26" s="150"/>
+      <c r="T26" s="150"/>
+      <c r="U26" s="156"/>
+      <c r="V26" s="150"/>
+      <c r="W26" s="157"/>
+      <c r="X26" s="152"/>
+      <c r="Y26" s="150"/>
+      <c r="Z26" s="158"/>
+      <c r="AA26" s="210"/>
+      <c r="AB26" s="157"/>
+      <c r="AC26" s="152"/>
+      <c r="AD26" s="153"/>
+      <c r="AE26" s="153"/>
+      <c r="AF26" s="159"/>
+    </row>
+    <row r="27" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="148" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="149"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="153"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="153"/>
+      <c r="J27" s="153"/>
+      <c r="K27" s="153"/>
+      <c r="L27" s="155"/>
+      <c r="M27" s="152"/>
+      <c r="N27" s="153"/>
+      <c r="O27" s="153"/>
+      <c r="P27" s="153"/>
+      <c r="Q27" s="155"/>
+      <c r="R27" s="152"/>
+      <c r="S27" s="150"/>
+      <c r="T27" s="150"/>
+      <c r="U27" s="156"/>
+      <c r="V27" s="150"/>
+      <c r="W27" s="157"/>
+      <c r="X27" s="152"/>
+      <c r="Y27" s="150"/>
+      <c r="Z27" s="158"/>
+      <c r="AA27" s="210"/>
+      <c r="AB27" s="157"/>
+      <c r="AC27" s="152"/>
+      <c r="AD27" s="153"/>
+      <c r="AE27" s="153"/>
+      <c r="AF27" s="159"/>
+    </row>
+    <row r="28" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="148" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="149"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="151"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="152"/>
+      <c r="I28" s="153"/>
+      <c r="J28" s="153"/>
+      <c r="K28" s="153"/>
+      <c r="L28" s="155"/>
+      <c r="M28" s="152"/>
+      <c r="N28" s="153"/>
+      <c r="O28" s="153"/>
+      <c r="P28" s="153"/>
+      <c r="Q28" s="155"/>
+      <c r="R28" s="152"/>
+      <c r="S28" s="150"/>
+      <c r="T28" s="150"/>
+      <c r="U28" s="156"/>
+      <c r="V28" s="150"/>
+      <c r="W28" s="157"/>
+      <c r="X28" s="152"/>
+      <c r="Y28" s="150"/>
+      <c r="Z28" s="158"/>
+      <c r="AA28" s="210"/>
+      <c r="AB28" s="157"/>
+      <c r="AC28" s="152"/>
+      <c r="AD28" s="153"/>
+      <c r="AE28" s="153"/>
+      <c r="AF28" s="159"/>
+    </row>
+    <row r="29" spans="1:47" s="173" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="215" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="196" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="197"/>
+      <c r="D29" s="198"/>
+      <c r="E29" s="199"/>
+      <c r="F29" s="200"/>
+      <c r="G29" s="201"/>
+      <c r="H29" s="199"/>
+      <c r="I29" s="200"/>
+      <c r="J29" s="200"/>
+      <c r="K29" s="200"/>
+      <c r="L29" s="202"/>
+      <c r="M29" s="199"/>
+      <c r="N29" s="200"/>
+      <c r="O29" s="200"/>
+      <c r="P29" s="200"/>
+      <c r="Q29" s="202"/>
+      <c r="R29" s="199"/>
+      <c r="S29" s="197"/>
+      <c r="T29" s="197"/>
+      <c r="U29" s="203"/>
+      <c r="V29" s="197"/>
+      <c r="W29" s="204"/>
+      <c r="X29" s="199"/>
+      <c r="Y29" s="197"/>
+      <c r="Z29" s="205"/>
+      <c r="AA29" s="216"/>
+      <c r="AB29" s="217"/>
+      <c r="AC29" s="199"/>
+      <c r="AD29" s="200"/>
+      <c r="AE29" s="200"/>
+      <c r="AF29" s="206"/>
+    </row>
+    <row r="30" spans="1:47" s="173" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="185" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="186"/>
+      <c r="C30" s="187"/>
+      <c r="D30" s="188"/>
+      <c r="E30" s="189"/>
+      <c r="F30" s="190"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="189"/>
+      <c r="I30" s="190"/>
+      <c r="J30" s="190"/>
+      <c r="K30" s="190"/>
+      <c r="L30" s="191"/>
+      <c r="M30" s="189"/>
+      <c r="N30" s="190"/>
+      <c r="O30" s="190"/>
+      <c r="P30" s="190"/>
+      <c r="Q30" s="191"/>
+      <c r="R30" s="189"/>
+      <c r="S30" s="187"/>
+      <c r="T30" s="187"/>
+      <c r="U30" s="192"/>
+      <c r="V30" s="187"/>
+      <c r="W30" s="193"/>
+      <c r="X30" s="189"/>
+      <c r="Y30" s="187"/>
+      <c r="Z30" s="194"/>
+      <c r="AA30" s="218"/>
+      <c r="AB30" s="193"/>
+      <c r="AC30" s="189"/>
+      <c r="AD30" s="190"/>
+      <c r="AE30" s="190"/>
+      <c r="AF30" s="195"/>
+    </row>
+    <row r="31" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="184" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="91"/>
-      <c r="S18" s="81"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="87"/>
-      <c r="AB18" s="75"/>
-      <c r="AC18" s="8"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="10"/>
-    </row>
-    <row r="19" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="150" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="124" t="s">
+      <c r="B31" s="186"/>
+      <c r="C31" s="187"/>
+      <c r="D31" s="188"/>
+      <c r="E31" s="189"/>
+      <c r="F31" s="190"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="189"/>
+      <c r="I31" s="190"/>
+      <c r="J31" s="190"/>
+      <c r="K31" s="190"/>
+      <c r="L31" s="191"/>
+      <c r="M31" s="189"/>
+      <c r="N31" s="190"/>
+      <c r="O31" s="190"/>
+      <c r="P31" s="190"/>
+      <c r="Q31" s="191"/>
+      <c r="R31" s="189"/>
+      <c r="S31" s="187"/>
+      <c r="T31" s="187"/>
+      <c r="U31" s="192"/>
+      <c r="V31" s="187"/>
+      <c r="W31" s="193"/>
+      <c r="X31" s="189"/>
+      <c r="Y31" s="187"/>
+      <c r="Z31" s="194"/>
+      <c r="AA31" s="220"/>
+      <c r="AB31" s="219"/>
+      <c r="AC31" s="189"/>
+      <c r="AD31" s="190"/>
+      <c r="AE31" s="190"/>
+      <c r="AF31" s="195"/>
+    </row>
+    <row r="32" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="74"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="194"/>
+      <c r="AA32" s="211"/>
+      <c r="AB32" s="219"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="6"/>
+      <c r="AF32" s="10"/>
+    </row>
+    <row r="33" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="131"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="130"/>
-      <c r="M19" s="127"/>
-      <c r="N19" s="128"/>
-      <c r="O19" s="128"/>
-      <c r="P19" s="128"/>
-      <c r="Q19" s="130"/>
-      <c r="R19" s="127"/>
-      <c r="S19" s="131"/>
-      <c r="T19" s="131"/>
-      <c r="U19" s="132"/>
-      <c r="V19" s="131"/>
-      <c r="W19" s="134"/>
-      <c r="X19" s="127"/>
-      <c r="Y19" s="131"/>
-      <c r="Z19" s="151"/>
-      <c r="AA19" s="152"/>
-      <c r="AB19" s="134"/>
-      <c r="AC19" s="127"/>
-      <c r="AD19" s="128"/>
-      <c r="AE19" s="128"/>
-      <c r="AF19" s="133"/>
-    </row>
-    <row r="20" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="153" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="154"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="114"/>
-      <c r="J20" s="114"/>
-      <c r="K20" s="114"/>
-      <c r="L20" s="117"/>
-      <c r="M20" s="116"/>
-      <c r="N20" s="114"/>
-      <c r="O20" s="114"/>
-      <c r="P20" s="114"/>
-      <c r="Q20" s="117"/>
-      <c r="R20" s="116"/>
-      <c r="S20" s="111"/>
-      <c r="T20" s="111"/>
-      <c r="U20" s="119"/>
-      <c r="V20" s="118"/>
-      <c r="W20" s="121"/>
-      <c r="X20" s="116"/>
-      <c r="Y20" s="118"/>
-      <c r="Z20" s="155"/>
-      <c r="AA20" s="156"/>
-      <c r="AB20" s="121"/>
-      <c r="AC20" s="116"/>
-      <c r="AD20" s="114"/>
-      <c r="AE20" s="114"/>
-      <c r="AF20" s="120"/>
-    </row>
-    <row r="21" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="157" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="154"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="114"/>
-      <c r="L21" s="117"/>
-      <c r="M21" s="116"/>
-      <c r="N21" s="114"/>
-      <c r="O21" s="114"/>
-      <c r="P21" s="114"/>
-      <c r="Q21" s="117"/>
-      <c r="R21" s="116"/>
-      <c r="S21" s="118"/>
-      <c r="T21" s="118"/>
-      <c r="U21" s="111"/>
-      <c r="V21" s="118"/>
-      <c r="W21" s="121"/>
-      <c r="X21" s="116"/>
-      <c r="Y21" s="118"/>
-      <c r="Z21" s="155"/>
-      <c r="AA21" s="156"/>
-      <c r="AB21" s="121"/>
-      <c r="AC21" s="116"/>
-      <c r="AD21" s="114"/>
-      <c r="AE21" s="114"/>
-      <c r="AF21" s="120"/>
-    </row>
-    <row r="22" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="158" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="124" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="131"/>
-      <c r="D22" s="126"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="128"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="127"/>
-      <c r="I22" s="128"/>
-      <c r="J22" s="128"/>
-      <c r="K22" s="128"/>
-      <c r="L22" s="130"/>
-      <c r="M22" s="127"/>
-      <c r="N22" s="128"/>
-      <c r="O22" s="128"/>
-      <c r="P22" s="128"/>
-      <c r="Q22" s="130"/>
-      <c r="R22" s="127"/>
-      <c r="S22" s="131"/>
-      <c r="T22" s="131"/>
-      <c r="U22" s="132"/>
-      <c r="V22" s="131"/>
-      <c r="W22" s="134"/>
-      <c r="X22" s="127"/>
-      <c r="Y22" s="131"/>
-      <c r="Z22" s="151"/>
-      <c r="AA22" s="152"/>
-      <c r="AB22" s="134"/>
-      <c r="AC22" s="127"/>
-      <c r="AD22" s="128"/>
-      <c r="AE22" s="128"/>
-      <c r="AF22" s="133"/>
-    </row>
-    <row r="23" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="153" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="154"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="114"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="114"/>
-      <c r="L23" s="117"/>
-      <c r="M23" s="116"/>
-      <c r="N23" s="114"/>
-      <c r="O23" s="114"/>
-      <c r="P23" s="114"/>
-      <c r="Q23" s="117"/>
-      <c r="R23" s="116"/>
-      <c r="S23" s="118"/>
-      <c r="T23" s="118"/>
-      <c r="U23" s="119"/>
-      <c r="V23" s="118"/>
-      <c r="W23" s="159"/>
-      <c r="X23" s="116"/>
-      <c r="Y23" s="118"/>
-      <c r="Z23" s="155"/>
-      <c r="AA23" s="156"/>
-      <c r="AB23" s="121"/>
-      <c r="AC23" s="116"/>
-      <c r="AD23" s="114"/>
-      <c r="AE23" s="114"/>
-      <c r="AF23" s="120"/>
-      <c r="AU23" s="183"/>
-    </row>
-    <row r="24" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="157" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="110"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="114"/>
-      <c r="K24" s="114"/>
-      <c r="L24" s="117"/>
-      <c r="M24" s="116"/>
-      <c r="N24" s="114"/>
-      <c r="O24" s="114"/>
-      <c r="P24" s="114"/>
-      <c r="Q24" s="117"/>
-      <c r="R24" s="116"/>
-      <c r="S24" s="118"/>
-      <c r="T24" s="118"/>
-      <c r="U24" s="119"/>
-      <c r="V24" s="118"/>
-      <c r="W24" s="121"/>
-      <c r="X24" s="116"/>
-      <c r="Y24" s="118"/>
-      <c r="Z24" s="155"/>
-      <c r="AA24" s="156"/>
-      <c r="AB24" s="121"/>
-      <c r="AC24" s="116"/>
-      <c r="AD24" s="114"/>
-      <c r="AE24" s="114"/>
-      <c r="AF24" s="120"/>
-    </row>
-    <row r="25" spans="1:47" s="197" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="184" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="185" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="186"/>
-      <c r="D25" s="187"/>
-      <c r="E25" s="188"/>
-      <c r="F25" s="189"/>
-      <c r="G25" s="190"/>
-      <c r="H25" s="188"/>
-      <c r="I25" s="189"/>
-      <c r="J25" s="189"/>
-      <c r="K25" s="189"/>
-      <c r="L25" s="191"/>
-      <c r="M25" s="188"/>
-      <c r="N25" s="189"/>
-      <c r="O25" s="189"/>
-      <c r="P25" s="189"/>
-      <c r="Q25" s="191"/>
-      <c r="R25" s="188"/>
-      <c r="S25" s="186"/>
-      <c r="T25" s="186"/>
-      <c r="U25" s="192"/>
-      <c r="V25" s="186"/>
-      <c r="W25" s="193"/>
-      <c r="X25" s="188"/>
-      <c r="Y25" s="186"/>
-      <c r="Z25" s="194"/>
-      <c r="AA25" s="195"/>
-      <c r="AB25" s="193"/>
-      <c r="AC25" s="188"/>
-      <c r="AD25" s="189"/>
-      <c r="AE25" s="189"/>
-      <c r="AF25" s="196"/>
-      <c r="AG25" s="197" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="170" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="171"/>
-      <c r="C26" s="172"/>
-      <c r="D26" s="173"/>
-      <c r="E26" s="174"/>
-      <c r="F26" s="175"/>
-      <c r="G26" s="176"/>
-      <c r="H26" s="174"/>
-      <c r="I26" s="175"/>
-      <c r="J26" s="175"/>
-      <c r="K26" s="175"/>
-      <c r="L26" s="177"/>
-      <c r="M26" s="174"/>
-      <c r="N26" s="175"/>
-      <c r="O26" s="175"/>
-      <c r="P26" s="175"/>
-      <c r="Q26" s="177"/>
-      <c r="R26" s="174"/>
-      <c r="S26" s="172"/>
-      <c r="T26" s="172"/>
-      <c r="U26" s="178"/>
-      <c r="V26" s="172"/>
-      <c r="W26" s="179"/>
-      <c r="X26" s="174"/>
-      <c r="Y26" s="172"/>
-      <c r="Z26" s="180"/>
-      <c r="AA26" s="181"/>
-      <c r="AB26" s="179"/>
-      <c r="AC26" s="174"/>
-      <c r="AD26" s="175"/>
-      <c r="AE26" s="175"/>
-      <c r="AF26" s="182"/>
-    </row>
-    <row r="27" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="170" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="171"/>
-      <c r="C27" s="172"/>
-      <c r="D27" s="173"/>
-      <c r="E27" s="174"/>
-      <c r="F27" s="175"/>
-      <c r="G27" s="176"/>
-      <c r="H27" s="174"/>
-      <c r="I27" s="175"/>
-      <c r="J27" s="175"/>
-      <c r="K27" s="175"/>
-      <c r="L27" s="177"/>
-      <c r="M27" s="174"/>
-      <c r="N27" s="175"/>
-      <c r="O27" s="175"/>
-      <c r="P27" s="175"/>
-      <c r="Q27" s="177"/>
-      <c r="R27" s="174"/>
-      <c r="S27" s="172"/>
-      <c r="T27" s="172"/>
-      <c r="U27" s="178"/>
-      <c r="V27" s="172"/>
-      <c r="W27" s="179"/>
-      <c r="X27" s="174"/>
-      <c r="Y27" s="172"/>
-      <c r="Z27" s="180"/>
-      <c r="AA27" s="181"/>
-      <c r="AB27" s="179"/>
-      <c r="AC27" s="174"/>
-      <c r="AD27" s="175"/>
-      <c r="AE27" s="175"/>
-      <c r="AF27" s="182"/>
-    </row>
-    <row r="28" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="170" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="171"/>
-      <c r="C28" s="172"/>
-      <c r="D28" s="173"/>
-      <c r="E28" s="174"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="176"/>
-      <c r="H28" s="174"/>
-      <c r="I28" s="175"/>
-      <c r="J28" s="175"/>
-      <c r="K28" s="175"/>
-      <c r="L28" s="177"/>
-      <c r="M28" s="174"/>
-      <c r="N28" s="175"/>
-      <c r="O28" s="175"/>
-      <c r="P28" s="175"/>
-      <c r="Q28" s="177"/>
-      <c r="R28" s="174"/>
-      <c r="S28" s="172"/>
-      <c r="T28" s="172"/>
-      <c r="U28" s="178"/>
-      <c r="V28" s="172"/>
-      <c r="W28" s="179"/>
-      <c r="X28" s="174"/>
-      <c r="Y28" s="172"/>
-      <c r="Z28" s="180"/>
-      <c r="AA28" s="181"/>
-      <c r="AB28" s="179"/>
-      <c r="AC28" s="174"/>
-      <c r="AD28" s="175"/>
-      <c r="AE28" s="175"/>
-      <c r="AF28" s="182"/>
-    </row>
-    <row r="29" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="170" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="171"/>
-      <c r="C29" s="172"/>
-      <c r="D29" s="173"/>
-      <c r="E29" s="174"/>
-      <c r="F29" s="175"/>
-      <c r="G29" s="176"/>
-      <c r="H29" s="174"/>
-      <c r="I29" s="175"/>
-      <c r="J29" s="175"/>
-      <c r="K29" s="175"/>
-      <c r="L29" s="177"/>
-      <c r="M29" s="174"/>
-      <c r="N29" s="175"/>
-      <c r="O29" s="175"/>
-      <c r="P29" s="175"/>
-      <c r="Q29" s="177"/>
-      <c r="R29" s="174"/>
-      <c r="S29" s="172"/>
-      <c r="T29" s="172"/>
-      <c r="U29" s="178"/>
-      <c r="V29" s="172"/>
-      <c r="W29" s="179"/>
-      <c r="X29" s="174"/>
-      <c r="Y29" s="172"/>
-      <c r="Z29" s="180"/>
-      <c r="AA29" s="181"/>
-      <c r="AB29" s="179"/>
-      <c r="AC29" s="174"/>
-      <c r="AD29" s="175"/>
-      <c r="AE29" s="175"/>
-      <c r="AF29" s="182"/>
-    </row>
-    <row r="30" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="16"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="75"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="93"/>
-      <c r="AA30" s="92"/>
-      <c r="AB30" s="94"/>
-      <c r="AC30" s="8"/>
-      <c r="AD30" s="6"/>
-      <c r="AE30" s="6"/>
-      <c r="AF30" s="10"/>
-    </row>
-    <row r="31" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="26"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="25"/>
-      <c r="W31" s="24"/>
-      <c r="X31" s="82"/>
-      <c r="Y31" s="84"/>
-      <c r="Z31" s="39"/>
-      <c r="AA31" s="88"/>
-      <c r="AB31" s="76"/>
-      <c r="AC31" s="36"/>
-      <c r="AD31" s="35"/>
-      <c r="AE31" s="22"/>
-      <c r="AF31" s="27"/>
-    </row>
-    <row r="32" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="65" t="s">
+      <c r="C33" s="20"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="24"/>
+      <c r="X33" s="80"/>
+      <c r="Y33" s="82"/>
+      <c r="Z33" s="39"/>
+      <c r="AA33" s="212"/>
+      <c r="AB33" s="75"/>
+      <c r="AC33" s="36"/>
+      <c r="AD33" s="35"/>
+      <c r="AE33" s="22"/>
+      <c r="AF33" s="27"/>
+    </row>
+    <row r="34" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="33"/>
-      <c r="W32" s="32"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="85"/>
-      <c r="Z32" s="30"/>
-      <c r="AA32" s="89"/>
-      <c r="AB32" s="77"/>
-      <c r="AC32" s="42"/>
-      <c r="AD32" s="30"/>
-      <c r="AE32" s="30"/>
-      <c r="AF32" s="66"/>
-    </row>
-    <row r="33" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="65" t="s">
+      <c r="B34" s="5"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="33"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="28"/>
+      <c r="Y34" s="83"/>
+      <c r="Z34" s="30"/>
+      <c r="AA34" s="213"/>
+      <c r="AB34" s="76"/>
+      <c r="AC34" s="42"/>
+      <c r="AD34" s="30"/>
+      <c r="AE34" s="30"/>
+      <c r="AF34" s="65"/>
+    </row>
+    <row r="35" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="34"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="28"/>
-      <c r="Y33" s="85"/>
-      <c r="Z33" s="30"/>
-      <c r="AA33" s="89"/>
-      <c r="AB33" s="78"/>
-      <c r="AC33" s="32"/>
-      <c r="AD33" s="43"/>
-      <c r="AE33" s="30"/>
-      <c r="AF33" s="66"/>
-    </row>
-    <row r="34" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="26"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="25"/>
-      <c r="W34" s="24"/>
-      <c r="X34" s="82"/>
-      <c r="Y34" s="84"/>
-      <c r="Z34" s="37"/>
-      <c r="AA34" s="88"/>
-      <c r="AB34" s="79"/>
-      <c r="AC34" s="38"/>
-      <c r="AD34" s="37"/>
-      <c r="AE34" s="40"/>
-      <c r="AF34" s="41"/>
-    </row>
-    <row r="35" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="5"/>
+      <c r="B35" s="19"/>
       <c r="C35" s="28"/>
       <c r="D35" s="29"/>
       <c r="E35" s="30"/>
       <c r="F35" s="31"/>
-      <c r="G35" s="73"/>
+      <c r="G35" s="72"/>
       <c r="H35" s="32"/>
       <c r="I35" s="31"/>
       <c r="J35" s="31"/>
@@ -4266,138 +4330,198 @@
       <c r="V35" s="33"/>
       <c r="W35" s="32"/>
       <c r="X35" s="28"/>
-      <c r="Y35" s="85"/>
+      <c r="Y35" s="83"/>
       <c r="Z35" s="30"/>
-      <c r="AA35" s="89"/>
-      <c r="AB35" s="78"/>
+      <c r="AA35" s="213"/>
+      <c r="AB35" s="77"/>
       <c r="AC35" s="32"/>
-      <c r="AD35" s="30"/>
-      <c r="AE35" s="43"/>
-      <c r="AF35" s="66"/>
+      <c r="AD35" s="43"/>
+      <c r="AE35" s="30"/>
+      <c r="AF35" s="65"/>
     </row>
     <row r="36" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="65" t="s">
+      <c r="A36" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="20"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="24"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="24"/>
+      <c r="X36" s="80"/>
+      <c r="Y36" s="82"/>
+      <c r="Z36" s="37"/>
+      <c r="AA36" s="212"/>
+      <c r="AB36" s="78"/>
+      <c r="AC36" s="38"/>
+      <c r="AD36" s="37"/>
+      <c r="AE36" s="40"/>
+      <c r="AF36" s="41"/>
+    </row>
+    <row r="37" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="31"/>
+      <c r="V37" s="33"/>
+      <c r="W37" s="32"/>
+      <c r="X37" s="28"/>
+      <c r="Y37" s="83"/>
+      <c r="Z37" s="30"/>
+      <c r="AA37" s="213"/>
+      <c r="AB37" s="77"/>
+      <c r="AC37" s="32"/>
+      <c r="AD37" s="30"/>
+      <c r="AE37" s="43"/>
+      <c r="AF37" s="65"/>
+    </row>
+    <row r="38" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="33"/>
-      <c r="W36" s="32"/>
-      <c r="X36" s="28"/>
-      <c r="Y36" s="85"/>
-      <c r="Z36" s="30"/>
-      <c r="AA36" s="89"/>
-      <c r="AB36" s="78"/>
-      <c r="AC36" s="32"/>
-      <c r="AD36" s="30"/>
-      <c r="AE36" s="30"/>
-      <c r="AF36" s="68"/>
-    </row>
-    <row r="37" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="69" t="s">
+      <c r="B38" s="5"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="33"/>
+      <c r="W38" s="32"/>
+      <c r="X38" s="28"/>
+      <c r="Y38" s="83"/>
+      <c r="Z38" s="30"/>
+      <c r="AA38" s="213"/>
+      <c r="AB38" s="77"/>
+      <c r="AC38" s="32"/>
+      <c r="AD38" s="30"/>
+      <c r="AE38" s="30"/>
+      <c r="AF38" s="67"/>
+    </row>
+    <row r="39" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="45"/>
-      <c r="Q37" s="52"/>
-      <c r="R37" s="50"/>
-      <c r="S37" s="45"/>
-      <c r="T37" s="45"/>
-      <c r="U37" s="45"/>
-      <c r="V37" s="51"/>
-      <c r="W37" s="49"/>
-      <c r="X37" s="52"/>
-      <c r="Y37" s="86"/>
-      <c r="Z37" s="83"/>
-      <c r="AA37" s="90"/>
-      <c r="AB37" s="80"/>
-      <c r="AC37" s="49"/>
-      <c r="AD37" s="45"/>
-      <c r="AE37" s="45"/>
-      <c r="AF37" s="47"/>
-    </row>
-    <row r="38" spans="1:32" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="70"/>
-      <c r="B38" s="61" t="s">
+      <c r="B39" s="48"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="52"/>
+      <c r="R39" s="50"/>
+      <c r="S39" s="45"/>
+      <c r="T39" s="45"/>
+      <c r="U39" s="45"/>
+      <c r="V39" s="51"/>
+      <c r="W39" s="49"/>
+      <c r="X39" s="52"/>
+      <c r="Y39" s="84"/>
+      <c r="Z39" s="81"/>
+      <c r="AA39" s="214"/>
+      <c r="AB39" s="79"/>
+      <c r="AC39" s="49"/>
+      <c r="AD39" s="45"/>
+      <c r="AE39" s="45"/>
+      <c r="AF39" s="47"/>
+    </row>
+    <row r="40" spans="1:32" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="69"/>
+      <c r="B40" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="53"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="57"/>
-      <c r="N38" s="58"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="55"/>
-      <c r="S38" s="56"/>
-      <c r="T38" s="53"/>
-      <c r="U38" s="53"/>
-      <c r="V38" s="53"/>
-      <c r="W38" s="57"/>
-      <c r="X38" s="58"/>
-      <c r="Y38" s="55"/>
-      <c r="Z38" s="59"/>
-      <c r="AA38" s="53"/>
-      <c r="AB38" s="57"/>
-      <c r="AC38" s="58"/>
-      <c r="AD38" s="53"/>
-      <c r="AE38" s="53"/>
-      <c r="AF38" s="60"/>
-    </row>
-    <row r="39" spans="1:32" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C40" s="53"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="57"/>
+      <c r="N40" s="58"/>
+      <c r="O40" s="53"/>
+      <c r="P40" s="53"/>
+      <c r="Q40" s="53"/>
+      <c r="R40" s="55"/>
+      <c r="S40" s="56"/>
+      <c r="T40" s="53"/>
+      <c r="U40" s="53"/>
+      <c r="V40" s="53"/>
+      <c r="W40" s="57"/>
+      <c r="X40" s="58"/>
+      <c r="Y40" s="55"/>
+      <c r="Z40" s="59"/>
+      <c r="AA40" s="53"/>
+      <c r="AB40" s="57"/>
+      <c r="AC40" s="58"/>
+      <c r="AD40" s="53"/>
+      <c r="AE40" s="53"/>
+      <c r="AF40" s="60"/>
+    </row>
+    <row r="41" spans="1:32" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -4453,85 +4577,33 @@
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
-      <c r="S51" s="4"/>
-      <c r="T51" s="4"/>
-      <c r="U51" s="4"/>
-      <c r="V51" s="4"/>
-      <c r="W51" s="4"/>
-      <c r="X51" s="4"/>
-      <c r="Y51" s="4"/>
-      <c r="Z51" s="4"/>
-      <c r="AA51" s="4"/>
-      <c r="AB51" s="4"/>
-      <c r="AC51" s="4"/>
-      <c r="AD51" s="4"/>
-      <c r="AE51" s="4"/>
-    </row>
-    <row r="52" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
-      <c r="T52" s="4"/>
-      <c r="U52" s="4"/>
-      <c r="V52" s="4"/>
-      <c r="W52" s="4"/>
-      <c r="X52" s="4"/>
-      <c r="Y52" s="4"/>
-      <c r="Z52" s="4"/>
-      <c r="AA52" s="4"/>
-      <c r="AB52" s="4"/>
-      <c r="AC52" s="4"/>
-      <c r="AD52" s="4"/>
-      <c r="AE52" s="4"/>
     </row>
     <row r="53" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
@@ -4560,12 +4632,10 @@
       <c r="X53" s="4"/>
       <c r="Y53" s="4"/>
       <c r="Z53" s="4"/>
-      <c r="AA53" s="4"/>
       <c r="AB53" s="4"/>
       <c r="AC53" s="4"/>
       <c r="AD53" s="4"/>
       <c r="AE53" s="4"/>
-      <c r="AF53" s="4"/>
     </row>
     <row r="54" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
@@ -4594,12 +4664,10 @@
       <c r="X54" s="4"/>
       <c r="Y54" s="4"/>
       <c r="Z54" s="4"/>
-      <c r="AA54" s="4"/>
       <c r="AB54" s="4"/>
       <c r="AC54" s="4"/>
       <c r="AD54" s="4"/>
       <c r="AE54" s="4"/>
-      <c r="AF54" s="4"/>
     </row>
     <row r="55" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
@@ -4628,7 +4696,6 @@
       <c r="X55" s="4"/>
       <c r="Y55" s="4"/>
       <c r="Z55" s="4"/>
-      <c r="AA55" s="4"/>
       <c r="AB55" s="4"/>
       <c r="AC55" s="4"/>
       <c r="AD55" s="4"/>
@@ -4662,7 +4729,6 @@
       <c r="X56" s="4"/>
       <c r="Y56" s="4"/>
       <c r="Z56" s="4"/>
-      <c r="AA56" s="4"/>
       <c r="AB56" s="4"/>
       <c r="AC56" s="4"/>
       <c r="AD56" s="4"/>
@@ -4696,7 +4762,6 @@
       <c r="X57" s="4"/>
       <c r="Y57" s="4"/>
       <c r="Z57" s="4"/>
-      <c r="AA57" s="4"/>
       <c r="AB57" s="4"/>
       <c r="AC57" s="4"/>
       <c r="AD57" s="4"/>
@@ -4707,32 +4772,86 @@
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="4"/>
+      <c r="AB58" s="4"/>
+      <c r="AC58" s="4"/>
+      <c r="AD58" s="4"/>
+      <c r="AE58" s="4"/>
       <c r="AF58" s="4"/>
     </row>
     <row r="59" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="4"/>
+      <c r="X59" s="4"/>
+      <c r="Y59" s="4"/>
+      <c r="Z59" s="4"/>
+      <c r="AB59" s="4"/>
+      <c r="AC59" s="4"/>
+      <c r="AD59" s="4"/>
+      <c r="AE59" s="4"/>
       <c r="AF59" s="4"/>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
-    </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AF60" s="4"/>
+    </row>
+    <row r="61" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-    </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AF61" s="4"/>
+    </row>
+    <row r="62" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-    </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -4769,70 +4888,16 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
-      <c r="O69" s="4"/>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="4"/>
-      <c r="R69" s="4"/>
-      <c r="S69" s="4"/>
-      <c r="T69" s="4"/>
-      <c r="U69" s="4"/>
-      <c r="V69" s="4"/>
-      <c r="W69" s="4"/>
-      <c r="X69" s="4"/>
-      <c r="Y69" s="4"/>
-      <c r="Z69" s="4"/>
-      <c r="AA69" s="4"/>
-      <c r="AB69" s="4"/>
-      <c r="AC69" s="4"/>
-      <c r="AD69" s="4"/>
-      <c r="AE69" s="4"/>
-      <c r="AF69" s="4"/>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
-      <c r="P70" s="4"/>
-      <c r="Q70" s="4"/>
-      <c r="R70" s="4"/>
-      <c r="S70" s="4"/>
-      <c r="T70" s="4"/>
-      <c r="U70" s="4"/>
-      <c r="V70" s="4"/>
-      <c r="W70" s="4"/>
-      <c r="X70" s="4"/>
-      <c r="Y70" s="4"/>
-      <c r="Z70" s="4"/>
-      <c r="AA70" s="4"/>
-      <c r="AB70" s="4"/>
-      <c r="AC70" s="4"/>
-      <c r="AD70" s="4"/>
-      <c r="AE70" s="4"/>
-      <c r="AF70" s="4"/>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B71" s="4"/>
@@ -4860,7 +4925,6 @@
       <c r="X71" s="4"/>
       <c r="Y71" s="4"/>
       <c r="Z71" s="4"/>
-      <c r="AA71" s="4"/>
       <c r="AB71" s="4"/>
       <c r="AC71" s="4"/>
       <c r="AD71" s="4"/>
@@ -4868,10 +4932,68 @@
       <c r="AF71" s="4"/>
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="C72" s="3"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4"/>
+      <c r="S72" s="4"/>
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="4"/>
+      <c r="X72" s="4"/>
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="4"/>
+      <c r="AB72" s="4"/>
+      <c r="AC72" s="4"/>
+      <c r="AD72" s="4"/>
+      <c r="AE72" s="4"/>
+      <c r="AF72" s="4"/>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="C73" s="3"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="4"/>
+      <c r="S73" s="4"/>
+      <c r="T73" s="4"/>
+      <c r="U73" s="4"/>
+      <c r="V73" s="4"/>
+      <c r="W73" s="4"/>
+      <c r="X73" s="4"/>
+      <c r="Y73" s="4"/>
+      <c r="Z73" s="4"/>
+      <c r="AB73" s="4"/>
+      <c r="AC73" s="4"/>
+      <c r="AD73" s="4"/>
+      <c r="AE73" s="4"/>
+      <c r="AF73" s="4"/>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.15">
       <c r="C74" s="3"/>
@@ -5373,6 +5495,12 @@
     </row>
     <row r="240" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C240" s="3"/>
+    </row>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C241" s="3"/>
+    </row>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C242" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/일정표_윤성주.xlsx
+++ b/일정표_윤성주.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021-2\네트워크 게임 프로그래밍\Term Project\2021NGP_VTM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69F39A0-FEB8-4E8A-A072-A741D8E2D2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D1420B-3BFA-457C-B55F-F86040D1C519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$6:$AF$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$6:$AF$85</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>기간</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,10 +225,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>플레이어 사망 구현 및 서버에 전송 후 충돌처리x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사망처리 및 부활</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,7 +237,7 @@
     <numFmt numFmtId="176" formatCode="##&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="m&quot;/&quot;d;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -314,6 +310,13 @@
     <font>
       <strike/>
       <sz val="9"/>
+      <name val="한컴 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="한컴 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1955,7 +1958,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2478,6 +2481,108 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="11" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="11" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="12" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="12" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="13" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2508,115 +2613,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="12" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="12" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="13" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="3" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="11" fillId="3" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2973,13 +2970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU242"/>
+  <dimension ref="A1:AU241"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="AI24" sqref="AI24"/>
+      <selection pane="bottomRight" activeCell="AH32" sqref="AH32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2993,86 +2990,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="210" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="177"/>
-      <c r="H1" s="177"/>
-      <c r="I1" s="177"/>
-      <c r="J1" s="177"/>
-      <c r="K1" s="177"/>
-      <c r="L1" s="177"/>
-      <c r="M1" s="177"/>
-      <c r="N1" s="177"/>
-      <c r="O1" s="177"/>
-      <c r="P1" s="177"/>
-      <c r="Q1" s="177"/>
-      <c r="R1" s="177"/>
-      <c r="S1" s="177"/>
-      <c r="T1" s="177"/>
-      <c r="U1" s="177"/>
-      <c r="V1" s="177"/>
-      <c r="W1" s="177"/>
-      <c r="X1" s="177"/>
-      <c r="Y1" s="177"/>
-      <c r="Z1" s="177"/>
-      <c r="AA1" s="177"/>
-      <c r="AB1" s="177"/>
-      <c r="AC1" s="177"/>
-      <c r="AD1" s="177"/>
-      <c r="AE1" s="177"/>
-      <c r="AF1" s="178"/>
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="211"/>
+      <c r="L1" s="211"/>
+      <c r="M1" s="211"/>
+      <c r="N1" s="211"/>
+      <c r="O1" s="211"/>
+      <c r="P1" s="211"/>
+      <c r="Q1" s="211"/>
+      <c r="R1" s="211"/>
+      <c r="S1" s="211"/>
+      <c r="T1" s="211"/>
+      <c r="U1" s="211"/>
+      <c r="V1" s="211"/>
+      <c r="W1" s="211"/>
+      <c r="X1" s="211"/>
+      <c r="Y1" s="211"/>
+      <c r="Z1" s="211"/>
+      <c r="AA1" s="211"/>
+      <c r="AB1" s="211"/>
+      <c r="AC1" s="211"/>
+      <c r="AD1" s="211"/>
+      <c r="AE1" s="211"/>
+      <c r="AF1" s="212"/>
     </row>
     <row r="2" spans="1:33" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="216" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="179" t="s">
+      <c r="C2" s="213" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="174"/>
-      <c r="M2" s="174"/>
-      <c r="N2" s="174"/>
-      <c r="O2" s="174"/>
-      <c r="P2" s="174"/>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="174"/>
-      <c r="S2" s="174"/>
-      <c r="T2" s="174"/>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
-      <c r="X2" s="174"/>
-      <c r="Y2" s="175"/>
-      <c r="Z2" s="174" t="s">
+      <c r="D2" s="208"/>
+      <c r="E2" s="208"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="208"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="208"/>
+      <c r="Q2" s="208"/>
+      <c r="R2" s="208"/>
+      <c r="S2" s="208"/>
+      <c r="T2" s="208"/>
+      <c r="U2" s="208"/>
+      <c r="V2" s="208"/>
+      <c r="W2" s="208"/>
+      <c r="X2" s="208"/>
+      <c r="Y2" s="209"/>
+      <c r="Z2" s="208" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" s="174"/>
-      <c r="AB2" s="174"/>
-      <c r="AC2" s="174"/>
-      <c r="AD2" s="174"/>
-      <c r="AE2" s="174"/>
-      <c r="AF2" s="175"/>
+      <c r="AA2" s="208"/>
+      <c r="AB2" s="208"/>
+      <c r="AC2" s="208"/>
+      <c r="AD2" s="208"/>
+      <c r="AE2" s="208"/>
+      <c r="AF2" s="209"/>
     </row>
     <row r="3" spans="1:33" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="181"/>
-      <c r="B3" s="183"/>
+      <c r="A3" s="215"/>
+      <c r="B3" s="217"/>
       <c r="C3" s="13">
         <v>8</v>
       </c>
@@ -3708,7 +3705,7 @@
       <c r="X18" s="117"/>
       <c r="Y18" s="121"/>
       <c r="Z18" s="141"/>
-      <c r="AA18" s="207"/>
+      <c r="AA18" s="196"/>
       <c r="AB18" s="124"/>
       <c r="AC18" s="117"/>
       <c r="AD18" s="118"/>
@@ -3744,7 +3741,7 @@
       <c r="X19" s="106"/>
       <c r="Y19" s="108"/>
       <c r="Z19" s="144"/>
-      <c r="AA19" s="208"/>
+      <c r="AA19" s="197"/>
       <c r="AB19" s="111"/>
       <c r="AC19" s="106"/>
       <c r="AD19" s="104"/>
@@ -3780,7 +3777,7 @@
       <c r="X20" s="106"/>
       <c r="Y20" s="108"/>
       <c r="Z20" s="144"/>
-      <c r="AA20" s="208"/>
+      <c r="AA20" s="197"/>
       <c r="AB20" s="111"/>
       <c r="AC20" s="106"/>
       <c r="AD20" s="104"/>
@@ -3818,7 +3815,7 @@
       <c r="X21" s="117"/>
       <c r="Y21" s="121"/>
       <c r="Z21" s="141"/>
-      <c r="AA21" s="207"/>
+      <c r="AA21" s="196"/>
       <c r="AB21" s="124"/>
       <c r="AC21" s="117"/>
       <c r="AD21" s="118"/>
@@ -3854,7 +3851,7 @@
       <c r="X22" s="106"/>
       <c r="Y22" s="108"/>
       <c r="Z22" s="144"/>
-      <c r="AA22" s="208"/>
+      <c r="AA22" s="197"/>
       <c r="AB22" s="111"/>
       <c r="AC22" s="106"/>
       <c r="AD22" s="104"/>
@@ -3890,7 +3887,7 @@
       <c r="X23" s="106"/>
       <c r="Y23" s="108"/>
       <c r="Z23" s="144"/>
-      <c r="AA23" s="208"/>
+      <c r="AA23" s="197"/>
       <c r="AB23" s="111"/>
       <c r="AC23" s="106"/>
       <c r="AD23" s="104"/>
@@ -3929,7 +3926,7 @@
       <c r="X24" s="165"/>
       <c r="Y24" s="163"/>
       <c r="Z24" s="171"/>
-      <c r="AA24" s="209"/>
+      <c r="AA24" s="198"/>
       <c r="AB24" s="170"/>
       <c r="AC24" s="165"/>
       <c r="AD24" s="166"/>
@@ -3968,7 +3965,7 @@
       <c r="X25" s="152"/>
       <c r="Y25" s="150"/>
       <c r="Z25" s="158"/>
-      <c r="AA25" s="210"/>
+      <c r="AA25" s="199"/>
       <c r="AB25" s="157"/>
       <c r="AC25" s="152"/>
       <c r="AD25" s="153"/>
@@ -4004,7 +4001,7 @@
       <c r="X26" s="152"/>
       <c r="Y26" s="150"/>
       <c r="Z26" s="158"/>
-      <c r="AA26" s="210"/>
+      <c r="AA26" s="199"/>
       <c r="AB26" s="157"/>
       <c r="AC26" s="152"/>
       <c r="AD26" s="153"/>
@@ -4040,7 +4037,7 @@
       <c r="X27" s="152"/>
       <c r="Y27" s="150"/>
       <c r="Z27" s="158"/>
-      <c r="AA27" s="210"/>
+      <c r="AA27" s="199"/>
       <c r="AB27" s="157"/>
       <c r="AC27" s="152"/>
       <c r="AD27" s="153"/>
@@ -4076,7 +4073,7 @@
       <c r="X28" s="152"/>
       <c r="Y28" s="150"/>
       <c r="Z28" s="158"/>
-      <c r="AA28" s="210"/>
+      <c r="AA28" s="199"/>
       <c r="AB28" s="157"/>
       <c r="AC28" s="152"/>
       <c r="AD28" s="153"/>
@@ -4084,194 +4081,194 @@
       <c r="AF28" s="159"/>
     </row>
     <row r="29" spans="1:47" s="173" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="215" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="196" t="s">
+      <c r="A29" s="204" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="197"/>
-      <c r="D29" s="198"/>
-      <c r="E29" s="199"/>
-      <c r="F29" s="200"/>
-      <c r="G29" s="201"/>
-      <c r="H29" s="199"/>
-      <c r="I29" s="200"/>
-      <c r="J29" s="200"/>
-      <c r="K29" s="200"/>
-      <c r="L29" s="202"/>
-      <c r="M29" s="199"/>
-      <c r="N29" s="200"/>
-      <c r="O29" s="200"/>
-      <c r="P29" s="200"/>
-      <c r="Q29" s="202"/>
-      <c r="R29" s="199"/>
-      <c r="S29" s="197"/>
-      <c r="T29" s="197"/>
-      <c r="U29" s="203"/>
-      <c r="V29" s="197"/>
-      <c r="W29" s="204"/>
-      <c r="X29" s="199"/>
-      <c r="Y29" s="197"/>
-      <c r="Z29" s="205"/>
-      <c r="AA29" s="216"/>
-      <c r="AB29" s="217"/>
-      <c r="AC29" s="199"/>
-      <c r="AD29" s="200"/>
-      <c r="AE29" s="200"/>
-      <c r="AF29" s="206"/>
+      <c r="C29" s="186"/>
+      <c r="D29" s="187"/>
+      <c r="E29" s="188"/>
+      <c r="F29" s="189"/>
+      <c r="G29" s="190"/>
+      <c r="H29" s="188"/>
+      <c r="I29" s="189"/>
+      <c r="J29" s="189"/>
+      <c r="K29" s="189"/>
+      <c r="L29" s="191"/>
+      <c r="M29" s="188"/>
+      <c r="N29" s="189"/>
+      <c r="O29" s="189"/>
+      <c r="P29" s="189"/>
+      <c r="Q29" s="191"/>
+      <c r="R29" s="188"/>
+      <c r="S29" s="186"/>
+      <c r="T29" s="186"/>
+      <c r="U29" s="192"/>
+      <c r="V29" s="186"/>
+      <c r="W29" s="193"/>
+      <c r="X29" s="188"/>
+      <c r="Y29" s="186"/>
+      <c r="Z29" s="194"/>
+      <c r="AA29" s="205"/>
+      <c r="AB29" s="206"/>
+      <c r="AC29" s="188"/>
+      <c r="AD29" s="189"/>
+      <c r="AE29" s="189"/>
+      <c r="AF29" s="195"/>
     </row>
     <row r="30" spans="1:47" s="173" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="185" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="186"/>
-      <c r="C30" s="187"/>
-      <c r="D30" s="188"/>
-      <c r="E30" s="189"/>
-      <c r="F30" s="190"/>
+      <c r="A30" s="174" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="175"/>
+      <c r="C30" s="176"/>
+      <c r="D30" s="177"/>
+      <c r="E30" s="178"/>
+      <c r="F30" s="179"/>
       <c r="G30" s="85"/>
-      <c r="H30" s="189"/>
-      <c r="I30" s="190"/>
-      <c r="J30" s="190"/>
-      <c r="K30" s="190"/>
-      <c r="L30" s="191"/>
-      <c r="M30" s="189"/>
-      <c r="N30" s="190"/>
-      <c r="O30" s="190"/>
-      <c r="P30" s="190"/>
-      <c r="Q30" s="191"/>
-      <c r="R30" s="189"/>
-      <c r="S30" s="187"/>
-      <c r="T30" s="187"/>
-      <c r="U30" s="192"/>
-      <c r="V30" s="187"/>
-      <c r="W30" s="193"/>
-      <c r="X30" s="189"/>
-      <c r="Y30" s="187"/>
-      <c r="Z30" s="194"/>
+      <c r="H30" s="178"/>
+      <c r="I30" s="179"/>
+      <c r="J30" s="179"/>
+      <c r="K30" s="179"/>
+      <c r="L30" s="180"/>
+      <c r="M30" s="178"/>
+      <c r="N30" s="179"/>
+      <c r="O30" s="179"/>
+      <c r="P30" s="179"/>
+      <c r="Q30" s="180"/>
+      <c r="R30" s="178"/>
+      <c r="S30" s="176"/>
+      <c r="T30" s="176"/>
+      <c r="U30" s="181"/>
+      <c r="V30" s="176"/>
+      <c r="W30" s="182"/>
+      <c r="X30" s="178"/>
+      <c r="Y30" s="176"/>
+      <c r="Z30" s="183"/>
       <c r="AA30" s="218"/>
-      <c r="AB30" s="193"/>
-      <c r="AC30" s="189"/>
-      <c r="AD30" s="190"/>
-      <c r="AE30" s="190"/>
-      <c r="AF30" s="195"/>
+      <c r="AB30" s="182"/>
+      <c r="AC30" s="178"/>
+      <c r="AD30" s="179"/>
+      <c r="AE30" s="179"/>
+      <c r="AF30" s="184"/>
     </row>
     <row r="31" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="184" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="186"/>
-      <c r="C31" s="187"/>
-      <c r="D31" s="188"/>
-      <c r="E31" s="189"/>
-      <c r="F31" s="190"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="189"/>
-      <c r="I31" s="190"/>
-      <c r="J31" s="190"/>
-      <c r="K31" s="190"/>
-      <c r="L31" s="191"/>
-      <c r="M31" s="189"/>
-      <c r="N31" s="190"/>
-      <c r="O31" s="190"/>
-      <c r="P31" s="190"/>
-      <c r="Q31" s="191"/>
-      <c r="R31" s="189"/>
-      <c r="S31" s="187"/>
-      <c r="T31" s="187"/>
-      <c r="U31" s="192"/>
-      <c r="V31" s="187"/>
-      <c r="W31" s="193"/>
-      <c r="X31" s="189"/>
-      <c r="Y31" s="187"/>
-      <c r="Z31" s="194"/>
-      <c r="AA31" s="220"/>
-      <c r="AB31" s="219"/>
-      <c r="AC31" s="189"/>
-      <c r="AD31" s="190"/>
-      <c r="AE31" s="190"/>
-      <c r="AF31" s="195"/>
+      <c r="A31" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="74"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="183"/>
+      <c r="AA31" s="200"/>
+      <c r="AB31" s="207"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="10"/>
     </row>
     <row r="32" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="74"/>
-      <c r="X32" s="8"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="194"/>
-      <c r="AA32" s="211"/>
-      <c r="AB32" s="219"/>
-      <c r="AC32" s="8"/>
-      <c r="AD32" s="6"/>
-      <c r="AE32" s="6"/>
-      <c r="AF32" s="10"/>
+      <c r="A32" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="24"/>
+      <c r="X32" s="80"/>
+      <c r="Y32" s="82"/>
+      <c r="Z32" s="39"/>
+      <c r="AA32" s="201"/>
+      <c r="AB32" s="75"/>
+      <c r="AC32" s="36"/>
+      <c r="AD32" s="35"/>
+      <c r="AE32" s="22"/>
+      <c r="AF32" s="27"/>
     </row>
     <row r="33" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="23"/>
-      <c r="V33" s="25"/>
-      <c r="W33" s="24"/>
-      <c r="X33" s="80"/>
-      <c r="Y33" s="82"/>
-      <c r="Z33" s="39"/>
-      <c r="AA33" s="212"/>
-      <c r="AB33" s="75"/>
-      <c r="AC33" s="36"/>
-      <c r="AD33" s="35"/>
-      <c r="AE33" s="22"/>
-      <c r="AF33" s="27"/>
+      <c r="A33" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="33"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="28"/>
+      <c r="Y33" s="83"/>
+      <c r="Z33" s="30"/>
+      <c r="AA33" s="202"/>
+      <c r="AB33" s="76"/>
+      <c r="AC33" s="42"/>
+      <c r="AD33" s="30"/>
+      <c r="AE33" s="30"/>
+      <c r="AF33" s="65"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="B34" s="19"/>
       <c r="C34" s="28"/>
       <c r="D34" s="29"/>
       <c r="E34" s="30"/>
@@ -4296,90 +4293,90 @@
       <c r="X34" s="28"/>
       <c r="Y34" s="83"/>
       <c r="Z34" s="30"/>
-      <c r="AA34" s="213"/>
-      <c r="AB34" s="76"/>
-      <c r="AC34" s="42"/>
-      <c r="AD34" s="30"/>
+      <c r="AA34" s="202"/>
+      <c r="AB34" s="77"/>
+      <c r="AC34" s="32"/>
+      <c r="AD34" s="43"/>
       <c r="AE34" s="30"/>
       <c r="AF34" s="65"/>
     </row>
     <row r="35" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="34"/>
-      <c r="T35" s="18"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="33"/>
-      <c r="W35" s="32"/>
-      <c r="X35" s="28"/>
-      <c r="Y35" s="83"/>
-      <c r="Z35" s="30"/>
-      <c r="AA35" s="213"/>
-      <c r="AB35" s="77"/>
-      <c r="AC35" s="32"/>
-      <c r="AD35" s="43"/>
-      <c r="AE35" s="30"/>
-      <c r="AF35" s="65"/>
+      <c r="A35" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="24"/>
+      <c r="X35" s="80"/>
+      <c r="Y35" s="82"/>
+      <c r="Z35" s="37"/>
+      <c r="AA35" s="201"/>
+      <c r="AB35" s="78"/>
+      <c r="AC35" s="38"/>
+      <c r="AD35" s="37"/>
+      <c r="AE35" s="40"/>
+      <c r="AF35" s="41"/>
     </row>
     <row r="36" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="24"/>
-      <c r="S36" s="26"/>
-      <c r="T36" s="17"/>
-      <c r="U36" s="23"/>
-      <c r="V36" s="25"/>
-      <c r="W36" s="24"/>
-      <c r="X36" s="80"/>
-      <c r="Y36" s="82"/>
-      <c r="Z36" s="37"/>
-      <c r="AA36" s="212"/>
-      <c r="AB36" s="78"/>
-      <c r="AC36" s="38"/>
-      <c r="AD36" s="37"/>
-      <c r="AE36" s="40"/>
-      <c r="AF36" s="41"/>
+      <c r="A36" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="34"/>
+      <c r="T36" s="18"/>
+      <c r="U36" s="31"/>
+      <c r="V36" s="33"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="83"/>
+      <c r="Z36" s="30"/>
+      <c r="AA36" s="202"/>
+      <c r="AB36" s="77"/>
+      <c r="AC36" s="32"/>
+      <c r="AD36" s="30"/>
+      <c r="AE36" s="43"/>
+      <c r="AF36" s="65"/>
     </row>
     <row r="37" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="64" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="28"/>
@@ -4406,122 +4403,93 @@
       <c r="X37" s="28"/>
       <c r="Y37" s="83"/>
       <c r="Z37" s="30"/>
-      <c r="AA37" s="213"/>
+      <c r="AA37" s="202"/>
       <c r="AB37" s="77"/>
       <c r="AC37" s="32"/>
       <c r="AD37" s="30"/>
-      <c r="AE37" s="43"/>
-      <c r="AF37" s="65"/>
+      <c r="AE37" s="30"/>
+      <c r="AF37" s="67"/>
     </row>
     <row r="38" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="32"/>
-      <c r="S38" s="34"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="33"/>
-      <c r="W38" s="32"/>
-      <c r="X38" s="28"/>
-      <c r="Y38" s="83"/>
-      <c r="Z38" s="30"/>
-      <c r="AA38" s="213"/>
-      <c r="AB38" s="77"/>
-      <c r="AC38" s="32"/>
-      <c r="AD38" s="30"/>
-      <c r="AE38" s="30"/>
-      <c r="AF38" s="67"/>
-    </row>
-    <row r="39" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="68" t="s">
+      <c r="A38" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="48"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="45"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="45"/>
-      <c r="Q39" s="52"/>
-      <c r="R39" s="50"/>
-      <c r="S39" s="45"/>
-      <c r="T39" s="45"/>
-      <c r="U39" s="45"/>
-      <c r="V39" s="51"/>
-      <c r="W39" s="49"/>
-      <c r="X39" s="52"/>
-      <c r="Y39" s="84"/>
-      <c r="Z39" s="81"/>
-      <c r="AA39" s="214"/>
-      <c r="AB39" s="79"/>
-      <c r="AC39" s="49"/>
-      <c r="AD39" s="45"/>
-      <c r="AE39" s="45"/>
-      <c r="AF39" s="47"/>
-    </row>
-    <row r="40" spans="1:32" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="69"/>
-      <c r="B40" s="61" t="s">
+      <c r="B38" s="48"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="45"/>
+      <c r="Q38" s="52"/>
+      <c r="R38" s="50"/>
+      <c r="S38" s="45"/>
+      <c r="T38" s="45"/>
+      <c r="U38" s="45"/>
+      <c r="V38" s="51"/>
+      <c r="W38" s="49"/>
+      <c r="X38" s="52"/>
+      <c r="Y38" s="84"/>
+      <c r="Z38" s="81"/>
+      <c r="AA38" s="203"/>
+      <c r="AB38" s="79"/>
+      <c r="AC38" s="49"/>
+      <c r="AD38" s="45"/>
+      <c r="AE38" s="45"/>
+      <c r="AF38" s="47"/>
+    </row>
+    <row r="39" spans="1:32" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="69"/>
+      <c r="B39" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="53"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="57"/>
-      <c r="N40" s="58"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="53"/>
-      <c r="Q40" s="53"/>
-      <c r="R40" s="55"/>
-      <c r="S40" s="56"/>
-      <c r="T40" s="53"/>
-      <c r="U40" s="53"/>
-      <c r="V40" s="53"/>
-      <c r="W40" s="57"/>
-      <c r="X40" s="58"/>
-      <c r="Y40" s="55"/>
-      <c r="Z40" s="59"/>
-      <c r="AA40" s="53"/>
-      <c r="AB40" s="57"/>
-      <c r="AC40" s="58"/>
-      <c r="AD40" s="53"/>
-      <c r="AE40" s="53"/>
-      <c r="AF40" s="60"/>
-    </row>
-    <row r="41" spans="1:32" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="C39" s="53"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="57"/>
+      <c r="N39" s="58"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="53"/>
+      <c r="Q39" s="53"/>
+      <c r="R39" s="55"/>
+      <c r="S39" s="56"/>
+      <c r="T39" s="53"/>
+      <c r="U39" s="53"/>
+      <c r="V39" s="53"/>
+      <c r="W39" s="57"/>
+      <c r="X39" s="58"/>
+      <c r="Y39" s="55"/>
+      <c r="Z39" s="59"/>
+      <c r="AA39" s="53"/>
+      <c r="AB39" s="57"/>
+      <c r="AC39" s="58"/>
+      <c r="AD39" s="53"/>
+      <c r="AE39" s="53"/>
+      <c r="AF39" s="60"/>
+    </row>
+    <row r="40" spans="1:32" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -4604,6 +4572,31 @@
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
+      <c r="AB52" s="4"/>
+      <c r="AC52" s="4"/>
+      <c r="AD52" s="4"/>
+      <c r="AE52" s="4"/>
     </row>
     <row r="53" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
@@ -4668,6 +4661,7 @@
       <c r="AC54" s="4"/>
       <c r="AD54" s="4"/>
       <c r="AE54" s="4"/>
+      <c r="AF54" s="4"/>
     </row>
     <row r="55" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
@@ -4805,33 +4799,6 @@
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
-      <c r="S59" s="4"/>
-      <c r="T59" s="4"/>
-      <c r="U59" s="4"/>
-      <c r="V59" s="4"/>
-      <c r="W59" s="4"/>
-      <c r="X59" s="4"/>
-      <c r="Y59" s="4"/>
-      <c r="Z59" s="4"/>
-      <c r="AB59" s="4"/>
-      <c r="AC59" s="4"/>
-      <c r="AD59" s="4"/>
-      <c r="AE59" s="4"/>
       <c r="AF59" s="4"/>
     </row>
     <row r="60" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4844,12 +4811,12 @@
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
-      <c r="AF61" s="4"/>
     </row>
     <row r="62" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
@@ -4894,10 +4861,36 @@
       <c r="D69" s="4"/>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
+      <c r="S70" s="4"/>
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="4"/>
+      <c r="X70" s="4"/>
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="4"/>
+      <c r="AB70" s="4"/>
+      <c r="AC70" s="4"/>
+      <c r="AD70" s="4"/>
+      <c r="AE70" s="4"/>
+      <c r="AF70" s="4"/>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B71" s="4"/>
@@ -4964,36 +4957,7 @@
       <c r="AF72" s="4"/>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4"/>
-      <c r="O73" s="4"/>
-      <c r="P73" s="4"/>
-      <c r="Q73" s="4"/>
-      <c r="R73" s="4"/>
-      <c r="S73" s="4"/>
-      <c r="T73" s="4"/>
-      <c r="U73" s="4"/>
-      <c r="V73" s="4"/>
-      <c r="W73" s="4"/>
-      <c r="X73" s="4"/>
-      <c r="Y73" s="4"/>
-      <c r="Z73" s="4"/>
-      <c r="AB73" s="4"/>
-      <c r="AC73" s="4"/>
-      <c r="AD73" s="4"/>
-      <c r="AE73" s="4"/>
-      <c r="AF73" s="4"/>
+      <c r="C73" s="3"/>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.15">
       <c r="C74" s="3"/>
@@ -5498,9 +5462,6 @@
     </row>
     <row r="241" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C241" s="3"/>
-    </row>
-    <row r="242" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C242" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/일정표_윤성주.xlsx
+++ b/일정표_윤성주.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021-2\네트워크 게임 프로그래밍\Term Project\2021NGP_VTM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D1420B-3BFA-457C-B55F-F86040D1C519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE18A9CF-CA8A-42B2-B35B-201159E3F454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$6:$AF$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$6:$AF$86</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>기간</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,6 +228,10 @@
     <t>사망처리 및 부활</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>게임 승패 판정 및 게임 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -322,7 +326,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -394,12 +398,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="110">
     <border>
@@ -1958,7 +1956,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1977,27 +1975,9 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2007,9 +1987,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2145,9 +2122,6 @@
     <xf numFmtId="14" fontId="8" fillId="11" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2169,9 +2143,6 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="8" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2181,9 +2152,6 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2212,9 +2180,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2481,72 +2446,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="10" fillId="11" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2559,9 +2458,6 @@
     <xf numFmtId="177" fontId="10" fillId="12" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2569,18 +2465,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="13" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2613,7 +2497,88 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="3" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="11" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="11" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="11" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="11" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="11" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="11" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="11" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="11" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="11" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="11" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2970,13 +2935,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU241"/>
+  <dimension ref="A1:AU242"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="12" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="AH32" sqref="AH32"/>
+      <selection pane="bottomRight" activeCell="AJ32" sqref="AJ32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2990,1506 +2955,1535 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="172" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
-      <c r="H1" s="211"/>
-      <c r="I1" s="211"/>
-      <c r="J1" s="211"/>
-      <c r="K1" s="211"/>
-      <c r="L1" s="211"/>
-      <c r="M1" s="211"/>
-      <c r="N1" s="211"/>
-      <c r="O1" s="211"/>
-      <c r="P1" s="211"/>
-      <c r="Q1" s="211"/>
-      <c r="R1" s="211"/>
-      <c r="S1" s="211"/>
-      <c r="T1" s="211"/>
-      <c r="U1" s="211"/>
-      <c r="V1" s="211"/>
-      <c r="W1" s="211"/>
-      <c r="X1" s="211"/>
-      <c r="Y1" s="211"/>
-      <c r="Z1" s="211"/>
-      <c r="AA1" s="211"/>
-      <c r="AB1" s="211"/>
-      <c r="AC1" s="211"/>
-      <c r="AD1" s="211"/>
-      <c r="AE1" s="211"/>
-      <c r="AF1" s="212"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="173"/>
+      <c r="K1" s="173"/>
+      <c r="L1" s="173"/>
+      <c r="M1" s="173"/>
+      <c r="N1" s="173"/>
+      <c r="O1" s="173"/>
+      <c r="P1" s="173"/>
+      <c r="Q1" s="173"/>
+      <c r="R1" s="173"/>
+      <c r="S1" s="173"/>
+      <c r="T1" s="173"/>
+      <c r="U1" s="173"/>
+      <c r="V1" s="173"/>
+      <c r="W1" s="173"/>
+      <c r="X1" s="173"/>
+      <c r="Y1" s="173"/>
+      <c r="Z1" s="173"/>
+      <c r="AA1" s="173"/>
+      <c r="AB1" s="173"/>
+      <c r="AC1" s="173"/>
+      <c r="AD1" s="173"/>
+      <c r="AE1" s="173"/>
+      <c r="AF1" s="174"/>
     </row>
     <row r="2" spans="1:33" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="214" t="s">
+      <c r="A2" s="176" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="178" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="213" t="s">
+      <c r="C2" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="208"/>
-      <c r="K2" s="208"/>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="208"/>
-      <c r="Q2" s="208"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="208"/>
-      <c r="T2" s="208"/>
-      <c r="U2" s="208"/>
-      <c r="V2" s="208"/>
-      <c r="W2" s="208"/>
-      <c r="X2" s="208"/>
-      <c r="Y2" s="209"/>
-      <c r="Z2" s="208" t="s">
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
+      <c r="M2" s="170"/>
+      <c r="N2" s="170"/>
+      <c r="O2" s="170"/>
+      <c r="P2" s="170"/>
+      <c r="Q2" s="170"/>
+      <c r="R2" s="170"/>
+      <c r="S2" s="170"/>
+      <c r="T2" s="170"/>
+      <c r="U2" s="170"/>
+      <c r="V2" s="170"/>
+      <c r="W2" s="170"/>
+      <c r="X2" s="170"/>
+      <c r="Y2" s="171"/>
+      <c r="Z2" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" s="208"/>
-      <c r="AB2" s="208"/>
-      <c r="AC2" s="208"/>
-      <c r="AD2" s="208"/>
-      <c r="AE2" s="208"/>
-      <c r="AF2" s="209"/>
+      <c r="AA2" s="170"/>
+      <c r="AB2" s="170"/>
+      <c r="AC2" s="170"/>
+      <c r="AD2" s="170"/>
+      <c r="AE2" s="170"/>
+      <c r="AF2" s="171"/>
     </row>
     <row r="3" spans="1:33" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="215"/>
-      <c r="B3" s="217"/>
-      <c r="C3" s="13">
+      <c r="A3" s="177"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="7">
         <v>8</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="7">
         <v>9</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="7">
         <v>10</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="7">
         <v>11</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="7">
         <v>12</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="9">
         <v>13</v>
       </c>
-      <c r="I3" s="44">
+      <c r="I3" s="37">
         <v>14</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="7">
         <v>15</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="7">
         <v>16</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="7">
         <v>17</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="7">
         <v>18</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="7">
         <v>19</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O3" s="7">
         <v>20</v>
       </c>
-      <c r="P3" s="44">
+      <c r="P3" s="37">
         <v>21</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="Q3" s="7">
         <v>22</v>
       </c>
-      <c r="R3" s="13">
+      <c r="R3" s="7">
         <v>23</v>
       </c>
-      <c r="S3" s="13">
+      <c r="S3" s="7">
         <v>24</v>
       </c>
-      <c r="T3" s="13">
+      <c r="T3" s="7">
         <v>25</v>
       </c>
-      <c r="U3" s="13">
+      <c r="U3" s="7">
         <v>26</v>
       </c>
-      <c r="V3" s="13">
+      <c r="V3" s="7">
         <v>27</v>
       </c>
-      <c r="W3" s="44">
+      <c r="W3" s="37">
         <v>28</v>
       </c>
-      <c r="X3" s="13">
+      <c r="X3" s="7">
         <v>29</v>
       </c>
-      <c r="Y3" s="14">
+      <c r="Y3" s="8">
         <v>30</v>
       </c>
-      <c r="Z3" s="15">
+      <c r="Z3" s="9">
         <v>1</v>
       </c>
-      <c r="AA3" s="13">
+      <c r="AA3" s="7">
         <v>2</v>
       </c>
-      <c r="AB3" s="13">
+      <c r="AB3" s="7">
         <v>3</v>
       </c>
-      <c r="AC3" s="13">
+      <c r="AC3" s="7">
         <v>4</v>
       </c>
-      <c r="AD3" s="44">
+      <c r="AD3" s="37">
         <v>5</v>
       </c>
-      <c r="AE3" s="13">
+      <c r="AE3" s="7">
         <v>6</v>
       </c>
-      <c r="AF3" s="14">
+      <c r="AF3" s="8">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="93"/>
-      <c r="V4" s="94"/>
-      <c r="W4" s="92"/>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="97"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="98"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="93"/>
-      <c r="AE4" s="93"/>
-      <c r="AF4" s="97"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="84"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="82"/>
+      <c r="V4" s="83"/>
+      <c r="W4" s="81"/>
+      <c r="X4" s="84"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="81"/>
+      <c r="AA4" s="83"/>
+      <c r="AB4" s="87"/>
+      <c r="AC4" s="81"/>
+      <c r="AD4" s="82"/>
+      <c r="AE4" s="82"/>
+      <c r="AF4" s="86"/>
       <c r="AG4" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="109"/>
-      <c r="U5" s="104"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="106"/>
-      <c r="X5" s="108"/>
-      <c r="Y5" s="110"/>
-      <c r="Z5" s="106"/>
-      <c r="AA5" s="107"/>
-      <c r="AB5" s="111"/>
-      <c r="AC5" s="106"/>
-      <c r="AD5" s="104"/>
-      <c r="AE5" s="104"/>
-      <c r="AF5" s="110"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="98"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="96"/>
+      <c r="W5" s="95"/>
+      <c r="X5" s="97"/>
+      <c r="Y5" s="99"/>
+      <c r="Z5" s="95"/>
+      <c r="AA5" s="96"/>
+      <c r="AB5" s="100"/>
+      <c r="AC5" s="95"/>
+      <c r="AD5" s="93"/>
+      <c r="AE5" s="93"/>
+      <c r="AF5" s="99"/>
     </row>
     <row r="6" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="106"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="107"/>
-      <c r="R6" s="106"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="109"/>
-      <c r="U6" s="104"/>
-      <c r="V6" s="107"/>
-      <c r="W6" s="106"/>
-      <c r="X6" s="108"/>
-      <c r="Y6" s="110"/>
-      <c r="Z6" s="106"/>
-      <c r="AA6" s="107"/>
-      <c r="AB6" s="111"/>
-      <c r="AC6" s="106"/>
-      <c r="AD6" s="104"/>
-      <c r="AE6" s="104"/>
-      <c r="AF6" s="110"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="97"/>
+      <c r="T6" s="98"/>
+      <c r="U6" s="93"/>
+      <c r="V6" s="96"/>
+      <c r="W6" s="95"/>
+      <c r="X6" s="97"/>
+      <c r="Y6" s="99"/>
+      <c r="Z6" s="95"/>
+      <c r="AA6" s="96"/>
+      <c r="AB6" s="100"/>
+      <c r="AC6" s="95"/>
+      <c r="AD6" s="93"/>
+      <c r="AE6" s="93"/>
+      <c r="AF6" s="99"/>
     </row>
     <row r="7" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="106"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="106"/>
-      <c r="S7" s="108"/>
-      <c r="T7" s="109"/>
-      <c r="U7" s="104"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="106"/>
-      <c r="X7" s="108"/>
-      <c r="Y7" s="110"/>
-      <c r="Z7" s="106"/>
-      <c r="AA7" s="107"/>
-      <c r="AB7" s="111"/>
-      <c r="AC7" s="106"/>
-      <c r="AD7" s="104"/>
-      <c r="AE7" s="104"/>
-      <c r="AF7" s="110"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="96"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="97"/>
+      <c r="T7" s="98"/>
+      <c r="U7" s="93"/>
+      <c r="V7" s="96"/>
+      <c r="W7" s="95"/>
+      <c r="X7" s="97"/>
+      <c r="Y7" s="99"/>
+      <c r="Z7" s="95"/>
+      <c r="AA7" s="96"/>
+      <c r="AB7" s="100"/>
+      <c r="AC7" s="95"/>
+      <c r="AD7" s="93"/>
+      <c r="AE7" s="93"/>
+      <c r="AF7" s="99"/>
     </row>
     <row r="8" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="113" t="s">
+      <c r="A8" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="115"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="120"/>
-      <c r="M8" s="117"/>
-      <c r="N8" s="118"/>
-      <c r="O8" s="118"/>
-      <c r="P8" s="118"/>
-      <c r="Q8" s="120"/>
-      <c r="R8" s="117"/>
-      <c r="S8" s="121"/>
-      <c r="T8" s="122"/>
-      <c r="U8" s="118"/>
-      <c r="V8" s="120"/>
-      <c r="W8" s="117"/>
-      <c r="X8" s="121"/>
-      <c r="Y8" s="123"/>
-      <c r="Z8" s="117"/>
-      <c r="AA8" s="120"/>
-      <c r="AB8" s="124"/>
-      <c r="AC8" s="117"/>
-      <c r="AD8" s="118"/>
-      <c r="AE8" s="118"/>
-      <c r="AF8" s="123"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="109"/>
+      <c r="R8" s="106"/>
+      <c r="S8" s="110"/>
+      <c r="T8" s="111"/>
+      <c r="U8" s="107"/>
+      <c r="V8" s="109"/>
+      <c r="W8" s="106"/>
+      <c r="X8" s="110"/>
+      <c r="Y8" s="112"/>
+      <c r="Z8" s="106"/>
+      <c r="AA8" s="109"/>
+      <c r="AB8" s="113"/>
+      <c r="AC8" s="106"/>
+      <c r="AD8" s="107"/>
+      <c r="AE8" s="107"/>
+      <c r="AF8" s="112"/>
     </row>
     <row r="9" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="125"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="107"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="108"/>
-      <c r="T9" s="109"/>
-      <c r="U9" s="104"/>
-      <c r="V9" s="107"/>
-      <c r="W9" s="106"/>
-      <c r="X9" s="108"/>
-      <c r="Y9" s="110"/>
-      <c r="Z9" s="106"/>
-      <c r="AA9" s="107"/>
-      <c r="AB9" s="111"/>
-      <c r="AC9" s="106"/>
-      <c r="AD9" s="104"/>
-      <c r="AE9" s="104"/>
-      <c r="AF9" s="110"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="96"/>
+      <c r="R9" s="95"/>
+      <c r="S9" s="97"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="96"/>
+      <c r="W9" s="95"/>
+      <c r="X9" s="97"/>
+      <c r="Y9" s="99"/>
+      <c r="Z9" s="95"/>
+      <c r="AA9" s="96"/>
+      <c r="AB9" s="100"/>
+      <c r="AC9" s="95"/>
+      <c r="AD9" s="93"/>
+      <c r="AE9" s="93"/>
+      <c r="AF9" s="99"/>
     </row>
     <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="125"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="107"/>
-      <c r="M10" s="106"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="107"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="108"/>
-      <c r="T10" s="109"/>
-      <c r="U10" s="104"/>
-      <c r="V10" s="107"/>
-      <c r="W10" s="106"/>
-      <c r="X10" s="108"/>
-      <c r="Y10" s="110"/>
-      <c r="Z10" s="106"/>
-      <c r="AA10" s="107"/>
-      <c r="AB10" s="111"/>
-      <c r="AC10" s="106"/>
-      <c r="AD10" s="104"/>
-      <c r="AE10" s="104"/>
-      <c r="AF10" s="110"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="96"/>
+      <c r="R10" s="95"/>
+      <c r="S10" s="97"/>
+      <c r="T10" s="98"/>
+      <c r="U10" s="93"/>
+      <c r="V10" s="96"/>
+      <c r="W10" s="95"/>
+      <c r="X10" s="97"/>
+      <c r="Y10" s="99"/>
+      <c r="Z10" s="95"/>
+      <c r="AA10" s="96"/>
+      <c r="AB10" s="100"/>
+      <c r="AC10" s="95"/>
+      <c r="AD10" s="93"/>
+      <c r="AE10" s="93"/>
+      <c r="AF10" s="99"/>
     </row>
     <row r="11" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="99" t="s">
+      <c r="A11" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="127"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="131"/>
-      <c r="K11" s="133"/>
-      <c r="L11" s="133"/>
-      <c r="M11" s="130"/>
-      <c r="N11" s="131"/>
-      <c r="O11" s="131"/>
-      <c r="P11" s="131"/>
-      <c r="Q11" s="134"/>
-      <c r="R11" s="130"/>
-      <c r="S11" s="128"/>
-      <c r="T11" s="135"/>
-      <c r="U11" s="131"/>
-      <c r="V11" s="134"/>
-      <c r="W11" s="130"/>
-      <c r="X11" s="128"/>
-      <c r="Y11" s="136"/>
-      <c r="Z11" s="130"/>
-      <c r="AA11" s="134"/>
-      <c r="AB11" s="137"/>
-      <c r="AC11" s="130"/>
-      <c r="AD11" s="131"/>
-      <c r="AE11" s="131"/>
-      <c r="AF11" s="136"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="122"/>
+      <c r="M11" s="119"/>
+      <c r="N11" s="120"/>
+      <c r="O11" s="120"/>
+      <c r="P11" s="120"/>
+      <c r="Q11" s="123"/>
+      <c r="R11" s="119"/>
+      <c r="S11" s="117"/>
+      <c r="T11" s="124"/>
+      <c r="U11" s="120"/>
+      <c r="V11" s="123"/>
+      <c r="W11" s="119"/>
+      <c r="X11" s="117"/>
+      <c r="Y11" s="125"/>
+      <c r="Z11" s="119"/>
+      <c r="AA11" s="123"/>
+      <c r="AB11" s="126"/>
+      <c r="AC11" s="119"/>
+      <c r="AD11" s="120"/>
+      <c r="AE11" s="120"/>
+      <c r="AF11" s="125"/>
     </row>
     <row r="12" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="113" t="s">
+      <c r="A12" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="114" t="s">
+      <c r="B12" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="121"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="117"/>
-      <c r="N12" s="118"/>
-      <c r="O12" s="118"/>
-      <c r="P12" s="118"/>
-      <c r="Q12" s="120"/>
-      <c r="R12" s="117"/>
-      <c r="S12" s="121"/>
-      <c r="T12" s="122"/>
-      <c r="U12" s="118"/>
-      <c r="V12" s="120"/>
-      <c r="W12" s="117"/>
-      <c r="X12" s="121"/>
-      <c r="Y12" s="123"/>
-      <c r="Z12" s="117"/>
-      <c r="AA12" s="120"/>
-      <c r="AB12" s="124"/>
-      <c r="AC12" s="117"/>
-      <c r="AD12" s="118"/>
-      <c r="AE12" s="118"/>
-      <c r="AF12" s="123"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="106"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="107"/>
+      <c r="Q12" s="109"/>
+      <c r="R12" s="106"/>
+      <c r="S12" s="110"/>
+      <c r="T12" s="111"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="109"/>
+      <c r="W12" s="106"/>
+      <c r="X12" s="110"/>
+      <c r="Y12" s="112"/>
+      <c r="Z12" s="106"/>
+      <c r="AA12" s="109"/>
+      <c r="AB12" s="113"/>
+      <c r="AC12" s="106"/>
+      <c r="AD12" s="107"/>
+      <c r="AE12" s="107"/>
+      <c r="AF12" s="112"/>
     </row>
     <row r="13" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="99" t="s">
+      <c r="A13" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="100"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="107"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="104"/>
-      <c r="O13" s="104"/>
-      <c r="P13" s="104"/>
-      <c r="Q13" s="107"/>
-      <c r="R13" s="106"/>
-      <c r="S13" s="108"/>
-      <c r="T13" s="109"/>
-      <c r="U13" s="104"/>
-      <c r="V13" s="107"/>
-      <c r="W13" s="106"/>
-      <c r="X13" s="108"/>
-      <c r="Y13" s="110"/>
-      <c r="Z13" s="106"/>
-      <c r="AA13" s="107"/>
-      <c r="AB13" s="111"/>
-      <c r="AC13" s="106"/>
-      <c r="AD13" s="104"/>
-      <c r="AE13" s="104"/>
-      <c r="AF13" s="110"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="96"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="97"/>
+      <c r="T13" s="98"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="96"/>
+      <c r="W13" s="95"/>
+      <c r="X13" s="97"/>
+      <c r="Y13" s="99"/>
+      <c r="Z13" s="95"/>
+      <c r="AA13" s="96"/>
+      <c r="AB13" s="100"/>
+      <c r="AC13" s="95"/>
+      <c r="AD13" s="93"/>
+      <c r="AE13" s="93"/>
+      <c r="AF13" s="99"/>
     </row>
     <row r="14" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="138" t="s">
+      <c r="A14" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="100"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="106"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="104"/>
-      <c r="P14" s="104"/>
-      <c r="Q14" s="107"/>
-      <c r="R14" s="106"/>
-      <c r="S14" s="108"/>
-      <c r="T14" s="109"/>
-      <c r="U14" s="104"/>
-      <c r="V14" s="107"/>
-      <c r="W14" s="106"/>
-      <c r="X14" s="108"/>
-      <c r="Y14" s="110"/>
-      <c r="Z14" s="106"/>
-      <c r="AA14" s="107"/>
-      <c r="AB14" s="111"/>
-      <c r="AC14" s="106"/>
-      <c r="AD14" s="104"/>
-      <c r="AE14" s="104"/>
-      <c r="AF14" s="110"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="96"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="97"/>
+      <c r="T14" s="98"/>
+      <c r="U14" s="93"/>
+      <c r="V14" s="96"/>
+      <c r="W14" s="95"/>
+      <c r="X14" s="97"/>
+      <c r="Y14" s="99"/>
+      <c r="Z14" s="95"/>
+      <c r="AA14" s="96"/>
+      <c r="AB14" s="100"/>
+      <c r="AC14" s="95"/>
+      <c r="AD14" s="93"/>
+      <c r="AE14" s="93"/>
+      <c r="AF14" s="99"/>
     </row>
     <row r="15" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="100"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="106"/>
-      <c r="N15" s="104"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="107"/>
-      <c r="R15" s="106"/>
-      <c r="S15" s="108"/>
-      <c r="T15" s="109"/>
-      <c r="U15" s="104"/>
-      <c r="V15" s="107"/>
-      <c r="W15" s="106"/>
-      <c r="X15" s="108"/>
-      <c r="Y15" s="110"/>
-      <c r="Z15" s="106"/>
-      <c r="AA15" s="107"/>
-      <c r="AB15" s="111"/>
-      <c r="AC15" s="106"/>
-      <c r="AD15" s="104"/>
-      <c r="AE15" s="104"/>
-      <c r="AF15" s="110"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="90"/>
+      <c r="Q15" s="96"/>
+      <c r="R15" s="95"/>
+      <c r="S15" s="97"/>
+      <c r="T15" s="98"/>
+      <c r="U15" s="93"/>
+      <c r="V15" s="96"/>
+      <c r="W15" s="95"/>
+      <c r="X15" s="97"/>
+      <c r="Y15" s="99"/>
+      <c r="Z15" s="95"/>
+      <c r="AA15" s="96"/>
+      <c r="AB15" s="100"/>
+      <c r="AC15" s="95"/>
+      <c r="AD15" s="93"/>
+      <c r="AE15" s="93"/>
+      <c r="AF15" s="99"/>
     </row>
     <row r="16" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="99" t="s">
+      <c r="A16" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="100"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="104"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="106"/>
-      <c r="N16" s="104"/>
-      <c r="O16" s="104"/>
-      <c r="P16" s="104"/>
-      <c r="Q16" s="101"/>
-      <c r="R16" s="106"/>
-      <c r="S16" s="108"/>
-      <c r="T16" s="109"/>
-      <c r="U16" s="104"/>
-      <c r="V16" s="107"/>
-      <c r="W16" s="106"/>
-      <c r="X16" s="108"/>
-      <c r="Y16" s="110"/>
-      <c r="Z16" s="106"/>
-      <c r="AA16" s="107"/>
-      <c r="AB16" s="111"/>
-      <c r="AC16" s="106"/>
-      <c r="AD16" s="104"/>
-      <c r="AE16" s="104"/>
-      <c r="AF16" s="110"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="90"/>
+      <c r="R16" s="95"/>
+      <c r="S16" s="97"/>
+      <c r="T16" s="98"/>
+      <c r="U16" s="93"/>
+      <c r="V16" s="96"/>
+      <c r="W16" s="95"/>
+      <c r="X16" s="97"/>
+      <c r="Y16" s="99"/>
+      <c r="Z16" s="95"/>
+      <c r="AA16" s="96"/>
+      <c r="AB16" s="100"/>
+      <c r="AC16" s="95"/>
+      <c r="AD16" s="93"/>
+      <c r="AE16" s="93"/>
+      <c r="AF16" s="99"/>
     </row>
     <row r="17" spans="1:47" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="99" t="s">
+      <c r="A17" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="100"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="104"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="107"/>
-      <c r="M17" s="106"/>
-      <c r="N17" s="104"/>
-      <c r="O17" s="104"/>
-      <c r="P17" s="104"/>
-      <c r="Q17" s="107"/>
-      <c r="R17" s="139"/>
-      <c r="S17" s="108"/>
-      <c r="T17" s="109"/>
-      <c r="U17" s="104"/>
-      <c r="V17" s="107"/>
-      <c r="W17" s="106"/>
-      <c r="X17" s="108"/>
-      <c r="Y17" s="110"/>
-      <c r="Z17" s="106"/>
-      <c r="AA17" s="107"/>
-      <c r="AB17" s="111"/>
-      <c r="AC17" s="106"/>
-      <c r="AD17" s="104"/>
-      <c r="AE17" s="104"/>
-      <c r="AF17" s="110"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="93"/>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="96"/>
+      <c r="R17" s="128"/>
+      <c r="S17" s="97"/>
+      <c r="T17" s="98"/>
+      <c r="U17" s="93"/>
+      <c r="V17" s="96"/>
+      <c r="W17" s="95"/>
+      <c r="X17" s="97"/>
+      <c r="Y17" s="99"/>
+      <c r="Z17" s="95"/>
+      <c r="AA17" s="96"/>
+      <c r="AB17" s="100"/>
+      <c r="AC17" s="95"/>
+      <c r="AD17" s="93"/>
+      <c r="AE17" s="93"/>
+      <c r="AF17" s="99"/>
     </row>
     <row r="18" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="140" t="s">
+      <c r="A18" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="114" t="s">
+      <c r="B18" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="121"/>
-      <c r="D18" s="116"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="118"/>
-      <c r="K18" s="118"/>
-      <c r="L18" s="120"/>
-      <c r="M18" s="117"/>
-      <c r="N18" s="118"/>
-      <c r="O18" s="118"/>
-      <c r="P18" s="118"/>
-      <c r="Q18" s="120"/>
-      <c r="R18" s="117"/>
-      <c r="S18" s="121"/>
-      <c r="T18" s="121"/>
-      <c r="U18" s="122"/>
-      <c r="V18" s="121"/>
-      <c r="W18" s="124"/>
-      <c r="X18" s="117"/>
-      <c r="Y18" s="121"/>
-      <c r="Z18" s="141"/>
-      <c r="AA18" s="196"/>
-      <c r="AB18" s="124"/>
-      <c r="AC18" s="117"/>
-      <c r="AD18" s="118"/>
-      <c r="AE18" s="118"/>
-      <c r="AF18" s="123"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="109"/>
+      <c r="M18" s="106"/>
+      <c r="N18" s="107"/>
+      <c r="O18" s="107"/>
+      <c r="P18" s="107"/>
+      <c r="Q18" s="109"/>
+      <c r="R18" s="106"/>
+      <c r="S18" s="110"/>
+      <c r="T18" s="110"/>
+      <c r="U18" s="111"/>
+      <c r="V18" s="110"/>
+      <c r="W18" s="113"/>
+      <c r="X18" s="106"/>
+      <c r="Y18" s="110"/>
+      <c r="Z18" s="130"/>
+      <c r="AA18" s="163"/>
+      <c r="AB18" s="113"/>
+      <c r="AC18" s="106"/>
+      <c r="AD18" s="107"/>
+      <c r="AE18" s="107"/>
+      <c r="AF18" s="112"/>
     </row>
     <row r="19" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="142" t="s">
+      <c r="A19" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="143"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="104"/>
-      <c r="K19" s="104"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="106"/>
-      <c r="N19" s="104"/>
-      <c r="O19" s="104"/>
-      <c r="P19" s="104"/>
-      <c r="Q19" s="107"/>
-      <c r="R19" s="106"/>
-      <c r="S19" s="101"/>
-      <c r="T19" s="101"/>
-      <c r="U19" s="109"/>
-      <c r="V19" s="108"/>
-      <c r="W19" s="111"/>
-      <c r="X19" s="106"/>
-      <c r="Y19" s="108"/>
-      <c r="Z19" s="144"/>
-      <c r="AA19" s="197"/>
-      <c r="AB19" s="111"/>
-      <c r="AC19" s="106"/>
-      <c r="AD19" s="104"/>
-      <c r="AE19" s="104"/>
-      <c r="AF19" s="110"/>
+      <c r="B19" s="132"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="93"/>
+      <c r="P19" s="93"/>
+      <c r="Q19" s="96"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="90"/>
+      <c r="T19" s="90"/>
+      <c r="U19" s="98"/>
+      <c r="V19" s="97"/>
+      <c r="W19" s="100"/>
+      <c r="X19" s="95"/>
+      <c r="Y19" s="97"/>
+      <c r="Z19" s="133"/>
+      <c r="AA19" s="164"/>
+      <c r="AB19" s="100"/>
+      <c r="AC19" s="95"/>
+      <c r="AD19" s="93"/>
+      <c r="AE19" s="93"/>
+      <c r="AF19" s="99"/>
     </row>
     <row r="20" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="145" t="s">
+      <c r="A20" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="143"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="104"/>
-      <c r="K20" s="104"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="106"/>
-      <c r="N20" s="104"/>
-      <c r="O20" s="104"/>
-      <c r="P20" s="104"/>
-      <c r="Q20" s="107"/>
-      <c r="R20" s="106"/>
-      <c r="S20" s="108"/>
-      <c r="T20" s="108"/>
-      <c r="U20" s="101"/>
-      <c r="V20" s="108"/>
-      <c r="W20" s="111"/>
-      <c r="X20" s="106"/>
-      <c r="Y20" s="108"/>
-      <c r="Z20" s="144"/>
-      <c r="AA20" s="197"/>
-      <c r="AB20" s="111"/>
-      <c r="AC20" s="106"/>
-      <c r="AD20" s="104"/>
-      <c r="AE20" s="104"/>
-      <c r="AF20" s="110"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="93"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="96"/>
+      <c r="R20" s="95"/>
+      <c r="S20" s="97"/>
+      <c r="T20" s="97"/>
+      <c r="U20" s="90"/>
+      <c r="V20" s="97"/>
+      <c r="W20" s="100"/>
+      <c r="X20" s="95"/>
+      <c r="Y20" s="97"/>
+      <c r="Z20" s="133"/>
+      <c r="AA20" s="164"/>
+      <c r="AB20" s="100"/>
+      <c r="AC20" s="95"/>
+      <c r="AD20" s="93"/>
+      <c r="AE20" s="93"/>
+      <c r="AF20" s="99"/>
     </row>
     <row r="21" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="146" t="s">
+      <c r="A21" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="114" t="s">
+      <c r="B21" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="121"/>
-      <c r="D21" s="116"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="118"/>
-      <c r="K21" s="118"/>
-      <c r="L21" s="120"/>
-      <c r="M21" s="117"/>
-      <c r="N21" s="118"/>
-      <c r="O21" s="118"/>
-      <c r="P21" s="118"/>
-      <c r="Q21" s="120"/>
-      <c r="R21" s="117"/>
-      <c r="S21" s="121"/>
-      <c r="T21" s="121"/>
-      <c r="U21" s="122"/>
-      <c r="V21" s="121"/>
-      <c r="W21" s="124"/>
-      <c r="X21" s="117"/>
-      <c r="Y21" s="121"/>
-      <c r="Z21" s="141"/>
-      <c r="AA21" s="196"/>
-      <c r="AB21" s="124"/>
-      <c r="AC21" s="117"/>
-      <c r="AD21" s="118"/>
-      <c r="AE21" s="118"/>
-      <c r="AF21" s="123"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="109"/>
+      <c r="M21" s="106"/>
+      <c r="N21" s="107"/>
+      <c r="O21" s="107"/>
+      <c r="P21" s="107"/>
+      <c r="Q21" s="109"/>
+      <c r="R21" s="106"/>
+      <c r="S21" s="110"/>
+      <c r="T21" s="110"/>
+      <c r="U21" s="111"/>
+      <c r="V21" s="110"/>
+      <c r="W21" s="113"/>
+      <c r="X21" s="106"/>
+      <c r="Y21" s="110"/>
+      <c r="Z21" s="130"/>
+      <c r="AA21" s="163"/>
+      <c r="AB21" s="113"/>
+      <c r="AC21" s="106"/>
+      <c r="AD21" s="107"/>
+      <c r="AE21" s="107"/>
+      <c r="AF21" s="112"/>
     </row>
     <row r="22" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="142" t="s">
+      <c r="A22" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="143"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="104"/>
-      <c r="L22" s="107"/>
-      <c r="M22" s="106"/>
-      <c r="N22" s="104"/>
-      <c r="O22" s="104"/>
-      <c r="P22" s="104"/>
-      <c r="Q22" s="107"/>
-      <c r="R22" s="106"/>
-      <c r="S22" s="108"/>
-      <c r="T22" s="108"/>
-      <c r="U22" s="109"/>
-      <c r="V22" s="108"/>
-      <c r="W22" s="147"/>
-      <c r="X22" s="106"/>
-      <c r="Y22" s="108"/>
-      <c r="Z22" s="144"/>
-      <c r="AA22" s="197"/>
-      <c r="AB22" s="111"/>
-      <c r="AC22" s="106"/>
-      <c r="AD22" s="104"/>
-      <c r="AE22" s="104"/>
-      <c r="AF22" s="110"/>
+      <c r="B22" s="132"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="93"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="96"/>
+      <c r="R22" s="95"/>
+      <c r="S22" s="97"/>
+      <c r="T22" s="97"/>
+      <c r="U22" s="98"/>
+      <c r="V22" s="97"/>
+      <c r="W22" s="136"/>
+      <c r="X22" s="95"/>
+      <c r="Y22" s="97"/>
+      <c r="Z22" s="133"/>
+      <c r="AA22" s="164"/>
+      <c r="AB22" s="100"/>
+      <c r="AC22" s="95"/>
+      <c r="AD22" s="93"/>
+      <c r="AE22" s="93"/>
+      <c r="AF22" s="99"/>
     </row>
     <row r="23" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="145" t="s">
+      <c r="A23" s="134" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="100"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="104"/>
-      <c r="K23" s="104"/>
-      <c r="L23" s="107"/>
-      <c r="M23" s="106"/>
-      <c r="N23" s="104"/>
-      <c r="O23" s="104"/>
-      <c r="P23" s="104"/>
-      <c r="Q23" s="107"/>
-      <c r="R23" s="106"/>
-      <c r="S23" s="108"/>
-      <c r="T23" s="108"/>
-      <c r="U23" s="109"/>
-      <c r="V23" s="108"/>
-      <c r="W23" s="111"/>
-      <c r="X23" s="106"/>
-      <c r="Y23" s="108"/>
-      <c r="Z23" s="144"/>
-      <c r="AA23" s="197"/>
-      <c r="AB23" s="111"/>
-      <c r="AC23" s="106"/>
-      <c r="AD23" s="104"/>
-      <c r="AE23" s="104"/>
-      <c r="AF23" s="110"/>
-      <c r="AU23" s="160"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="93"/>
+      <c r="K23" s="93"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="93"/>
+      <c r="O23" s="93"/>
+      <c r="P23" s="93"/>
+      <c r="Q23" s="96"/>
+      <c r="R23" s="95"/>
+      <c r="S23" s="97"/>
+      <c r="T23" s="97"/>
+      <c r="U23" s="98"/>
+      <c r="V23" s="97"/>
+      <c r="W23" s="100"/>
+      <c r="X23" s="95"/>
+      <c r="Y23" s="97"/>
+      <c r="Z23" s="133"/>
+      <c r="AA23" s="164"/>
+      <c r="AB23" s="100"/>
+      <c r="AC23" s="95"/>
+      <c r="AD23" s="93"/>
+      <c r="AE23" s="93"/>
+      <c r="AF23" s="99"/>
+      <c r="AU23" s="149"/>
     </row>
     <row r="24" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="161" t="s">
+      <c r="A24" s="150" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="162" t="s">
+      <c r="B24" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="163"/>
-      <c r="D24" s="164"/>
-      <c r="E24" s="165"/>
-      <c r="F24" s="166"/>
-      <c r="G24" s="167"/>
-      <c r="H24" s="165"/>
-      <c r="I24" s="166"/>
-      <c r="J24" s="166"/>
-      <c r="K24" s="166"/>
-      <c r="L24" s="168"/>
-      <c r="M24" s="165"/>
-      <c r="N24" s="166"/>
-      <c r="O24" s="166"/>
-      <c r="P24" s="166"/>
-      <c r="Q24" s="168"/>
-      <c r="R24" s="165"/>
-      <c r="S24" s="163"/>
-      <c r="T24" s="163"/>
-      <c r="U24" s="169"/>
-      <c r="V24" s="163"/>
-      <c r="W24" s="170"/>
-      <c r="X24" s="165"/>
-      <c r="Y24" s="163"/>
-      <c r="Z24" s="171"/>
-      <c r="AA24" s="198"/>
-      <c r="AB24" s="170"/>
-      <c r="AC24" s="165"/>
-      <c r="AD24" s="166"/>
-      <c r="AE24" s="166"/>
-      <c r="AF24" s="172"/>
-      <c r="AG24" s="173" t="s">
+      <c r="C24" s="152"/>
+      <c r="D24" s="153"/>
+      <c r="E24" s="154"/>
+      <c r="F24" s="155"/>
+      <c r="G24" s="156"/>
+      <c r="H24" s="154"/>
+      <c r="I24" s="155"/>
+      <c r="J24" s="155"/>
+      <c r="K24" s="155"/>
+      <c r="L24" s="157"/>
+      <c r="M24" s="154"/>
+      <c r="N24" s="155"/>
+      <c r="O24" s="155"/>
+      <c r="P24" s="155"/>
+      <c r="Q24" s="157"/>
+      <c r="R24" s="154"/>
+      <c r="S24" s="152"/>
+      <c r="T24" s="152"/>
+      <c r="U24" s="158"/>
+      <c r="V24" s="152"/>
+      <c r="W24" s="159"/>
+      <c r="X24" s="154"/>
+      <c r="Y24" s="152"/>
+      <c r="Z24" s="160"/>
+      <c r="AA24" s="165"/>
+      <c r="AB24" s="159"/>
+      <c r="AC24" s="154"/>
+      <c r="AD24" s="155"/>
+      <c r="AE24" s="155"/>
+      <c r="AF24" s="161"/>
+      <c r="AG24" s="162" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:47" s="173" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="148" t="s">
+    <row r="25" spans="1:47" s="162" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="149"/>
-      <c r="C25" s="150"/>
-      <c r="D25" s="151"/>
-      <c r="E25" s="152"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="154"/>
-      <c r="H25" s="152"/>
-      <c r="I25" s="153"/>
-      <c r="J25" s="153"/>
-      <c r="K25" s="153"/>
-      <c r="L25" s="155"/>
-      <c r="M25" s="152"/>
-      <c r="N25" s="153"/>
-      <c r="O25" s="153"/>
-      <c r="P25" s="153"/>
-      <c r="Q25" s="155"/>
-      <c r="R25" s="152"/>
-      <c r="S25" s="150"/>
-      <c r="T25" s="150"/>
-      <c r="U25" s="156"/>
-      <c r="V25" s="150"/>
-      <c r="W25" s="157"/>
-      <c r="X25" s="152"/>
-      <c r="Y25" s="150"/>
-      <c r="Z25" s="158"/>
-      <c r="AA25" s="199"/>
-      <c r="AB25" s="157"/>
-      <c r="AC25" s="152"/>
-      <c r="AD25" s="153"/>
-      <c r="AE25" s="153"/>
-      <c r="AF25" s="159"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="139"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="141"/>
+      <c r="I25" s="142"/>
+      <c r="J25" s="142"/>
+      <c r="K25" s="142"/>
+      <c r="L25" s="144"/>
+      <c r="M25" s="141"/>
+      <c r="N25" s="142"/>
+      <c r="O25" s="142"/>
+      <c r="P25" s="142"/>
+      <c r="Q25" s="144"/>
+      <c r="R25" s="141"/>
+      <c r="S25" s="139"/>
+      <c r="T25" s="139"/>
+      <c r="U25" s="145"/>
+      <c r="V25" s="139"/>
+      <c r="W25" s="146"/>
+      <c r="X25" s="141"/>
+      <c r="Y25" s="139"/>
+      <c r="Z25" s="147"/>
+      <c r="AA25" s="166"/>
+      <c r="AB25" s="146"/>
+      <c r="AC25" s="141"/>
+      <c r="AD25" s="142"/>
+      <c r="AE25" s="142"/>
+      <c r="AF25" s="148"/>
     </row>
     <row r="26" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="148" t="s">
+      <c r="A26" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="149"/>
-      <c r="C26" s="150"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="152"/>
-      <c r="F26" s="153"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="152"/>
-      <c r="I26" s="153"/>
-      <c r="J26" s="153"/>
-      <c r="K26" s="153"/>
-      <c r="L26" s="155"/>
-      <c r="M26" s="152"/>
-      <c r="N26" s="153"/>
-      <c r="O26" s="153"/>
-      <c r="P26" s="153"/>
-      <c r="Q26" s="155"/>
-      <c r="R26" s="152"/>
-      <c r="S26" s="150"/>
-      <c r="T26" s="150"/>
-      <c r="U26" s="156"/>
-      <c r="V26" s="150"/>
-      <c r="W26" s="157"/>
-      <c r="X26" s="152"/>
-      <c r="Y26" s="150"/>
-      <c r="Z26" s="158"/>
-      <c r="AA26" s="199"/>
-      <c r="AB26" s="157"/>
-      <c r="AC26" s="152"/>
-      <c r="AD26" s="153"/>
-      <c r="AE26" s="153"/>
-      <c r="AF26" s="159"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="141"/>
+      <c r="I26" s="142"/>
+      <c r="J26" s="142"/>
+      <c r="K26" s="142"/>
+      <c r="L26" s="144"/>
+      <c r="M26" s="141"/>
+      <c r="N26" s="142"/>
+      <c r="O26" s="142"/>
+      <c r="P26" s="142"/>
+      <c r="Q26" s="144"/>
+      <c r="R26" s="141"/>
+      <c r="S26" s="139"/>
+      <c r="T26" s="139"/>
+      <c r="U26" s="145"/>
+      <c r="V26" s="139"/>
+      <c r="W26" s="146"/>
+      <c r="X26" s="141"/>
+      <c r="Y26" s="139"/>
+      <c r="Z26" s="147"/>
+      <c r="AA26" s="166"/>
+      <c r="AB26" s="146"/>
+      <c r="AC26" s="141"/>
+      <c r="AD26" s="142"/>
+      <c r="AE26" s="142"/>
+      <c r="AF26" s="148"/>
     </row>
     <row r="27" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="148" t="s">
+      <c r="A27" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="149"/>
-      <c r="C27" s="150"/>
-      <c r="D27" s="151"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="153"/>
-      <c r="G27" s="154"/>
-      <c r="H27" s="152"/>
-      <c r="I27" s="153"/>
-      <c r="J27" s="153"/>
-      <c r="K27" s="153"/>
-      <c r="L27" s="155"/>
-      <c r="M27" s="152"/>
-      <c r="N27" s="153"/>
-      <c r="O27" s="153"/>
-      <c r="P27" s="153"/>
-      <c r="Q27" s="155"/>
-      <c r="R27" s="152"/>
-      <c r="S27" s="150"/>
-      <c r="T27" s="150"/>
-      <c r="U27" s="156"/>
-      <c r="V27" s="150"/>
-      <c r="W27" s="157"/>
-      <c r="X27" s="152"/>
-      <c r="Y27" s="150"/>
-      <c r="Z27" s="158"/>
-      <c r="AA27" s="199"/>
-      <c r="AB27" s="157"/>
-      <c r="AC27" s="152"/>
-      <c r="AD27" s="153"/>
-      <c r="AE27" s="153"/>
-      <c r="AF27" s="159"/>
+      <c r="B27" s="138"/>
+      <c r="C27" s="139"/>
+      <c r="D27" s="140"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="142"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="141"/>
+      <c r="I27" s="142"/>
+      <c r="J27" s="142"/>
+      <c r="K27" s="142"/>
+      <c r="L27" s="144"/>
+      <c r="M27" s="141"/>
+      <c r="N27" s="142"/>
+      <c r="O27" s="142"/>
+      <c r="P27" s="142"/>
+      <c r="Q27" s="144"/>
+      <c r="R27" s="141"/>
+      <c r="S27" s="139"/>
+      <c r="T27" s="139"/>
+      <c r="U27" s="145"/>
+      <c r="V27" s="139"/>
+      <c r="W27" s="146"/>
+      <c r="X27" s="141"/>
+      <c r="Y27" s="139"/>
+      <c r="Z27" s="147"/>
+      <c r="AA27" s="166"/>
+      <c r="AB27" s="146"/>
+      <c r="AC27" s="141"/>
+      <c r="AD27" s="142"/>
+      <c r="AE27" s="142"/>
+      <c r="AF27" s="148"/>
     </row>
     <row r="28" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="148" t="s">
+      <c r="A28" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="149"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="152"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="152"/>
-      <c r="I28" s="153"/>
-      <c r="J28" s="153"/>
-      <c r="K28" s="153"/>
-      <c r="L28" s="155"/>
-      <c r="M28" s="152"/>
-      <c r="N28" s="153"/>
-      <c r="O28" s="153"/>
-      <c r="P28" s="153"/>
-      <c r="Q28" s="155"/>
-      <c r="R28" s="152"/>
-      <c r="S28" s="150"/>
-      <c r="T28" s="150"/>
-      <c r="U28" s="156"/>
-      <c r="V28" s="150"/>
-      <c r="W28" s="157"/>
-      <c r="X28" s="152"/>
-      <c r="Y28" s="150"/>
-      <c r="Z28" s="158"/>
-      <c r="AA28" s="199"/>
-      <c r="AB28" s="157"/>
-      <c r="AC28" s="152"/>
-      <c r="AD28" s="153"/>
-      <c r="AE28" s="153"/>
-      <c r="AF28" s="159"/>
-    </row>
-    <row r="29" spans="1:47" s="173" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="204" t="s">
+      <c r="B28" s="138"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="142"/>
+      <c r="G28" s="143"/>
+      <c r="H28" s="141"/>
+      <c r="I28" s="142"/>
+      <c r="J28" s="142"/>
+      <c r="K28" s="142"/>
+      <c r="L28" s="144"/>
+      <c r="M28" s="141"/>
+      <c r="N28" s="142"/>
+      <c r="O28" s="142"/>
+      <c r="P28" s="142"/>
+      <c r="Q28" s="144"/>
+      <c r="R28" s="141"/>
+      <c r="S28" s="139"/>
+      <c r="T28" s="139"/>
+      <c r="U28" s="145"/>
+      <c r="V28" s="139"/>
+      <c r="W28" s="146"/>
+      <c r="X28" s="141"/>
+      <c r="Y28" s="139"/>
+      <c r="Z28" s="147"/>
+      <c r="AA28" s="166"/>
+      <c r="AB28" s="146"/>
+      <c r="AC28" s="141"/>
+      <c r="AD28" s="142"/>
+      <c r="AE28" s="142"/>
+      <c r="AF28" s="148"/>
+    </row>
+    <row r="29" spans="1:47" s="162" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="185" t="s">
+      <c r="B29" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="186"/>
-      <c r="D29" s="187"/>
-      <c r="E29" s="188"/>
-      <c r="F29" s="189"/>
-      <c r="G29" s="190"/>
-      <c r="H29" s="188"/>
-      <c r="I29" s="189"/>
-      <c r="J29" s="189"/>
-      <c r="K29" s="189"/>
-      <c r="L29" s="191"/>
-      <c r="M29" s="188"/>
-      <c r="N29" s="189"/>
-      <c r="O29" s="189"/>
-      <c r="P29" s="189"/>
-      <c r="Q29" s="191"/>
-      <c r="R29" s="188"/>
-      <c r="S29" s="186"/>
-      <c r="T29" s="186"/>
-      <c r="U29" s="192"/>
-      <c r="V29" s="186"/>
-      <c r="W29" s="193"/>
-      <c r="X29" s="188"/>
-      <c r="Y29" s="186"/>
-      <c r="Z29" s="194"/>
-      <c r="AA29" s="205"/>
-      <c r="AB29" s="206"/>
-      <c r="AC29" s="188"/>
-      <c r="AD29" s="189"/>
-      <c r="AE29" s="189"/>
-      <c r="AF29" s="195"/>
-    </row>
-    <row r="30" spans="1:47" s="173" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="174" t="s">
+      <c r="C29" s="182"/>
+      <c r="D29" s="183"/>
+      <c r="E29" s="184"/>
+      <c r="F29" s="185"/>
+      <c r="G29" s="186"/>
+      <c r="H29" s="184"/>
+      <c r="I29" s="185"/>
+      <c r="J29" s="185"/>
+      <c r="K29" s="185"/>
+      <c r="L29" s="187"/>
+      <c r="M29" s="184"/>
+      <c r="N29" s="185"/>
+      <c r="O29" s="185"/>
+      <c r="P29" s="185"/>
+      <c r="Q29" s="187"/>
+      <c r="R29" s="184"/>
+      <c r="S29" s="182"/>
+      <c r="T29" s="182"/>
+      <c r="U29" s="188"/>
+      <c r="V29" s="182"/>
+      <c r="W29" s="189"/>
+      <c r="X29" s="184"/>
+      <c r="Y29" s="182"/>
+      <c r="Z29" s="190"/>
+      <c r="AA29" s="191"/>
+      <c r="AB29" s="189"/>
+      <c r="AC29" s="184"/>
+      <c r="AD29" s="185"/>
+      <c r="AE29" s="185"/>
+      <c r="AF29" s="192"/>
+    </row>
+    <row r="30" spans="1:47" s="162" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="193" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="175"/>
-      <c r="C30" s="176"/>
-      <c r="D30" s="177"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="179"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="178"/>
-      <c r="I30" s="179"/>
-      <c r="J30" s="179"/>
-      <c r="K30" s="179"/>
-      <c r="L30" s="180"/>
-      <c r="M30" s="178"/>
-      <c r="N30" s="179"/>
-      <c r="O30" s="179"/>
-      <c r="P30" s="179"/>
-      <c r="Q30" s="180"/>
-      <c r="R30" s="178"/>
-      <c r="S30" s="176"/>
-      <c r="T30" s="176"/>
-      <c r="U30" s="181"/>
-      <c r="V30" s="176"/>
-      <c r="W30" s="182"/>
-      <c r="X30" s="178"/>
-      <c r="Y30" s="176"/>
-      <c r="Z30" s="183"/>
-      <c r="AA30" s="218"/>
-      <c r="AB30" s="182"/>
-      <c r="AC30" s="178"/>
-      <c r="AD30" s="179"/>
-      <c r="AE30" s="179"/>
-      <c r="AF30" s="184"/>
-    </row>
-    <row r="31" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="62" t="s">
+      <c r="B30" s="194"/>
+      <c r="C30" s="195"/>
+      <c r="D30" s="196"/>
+      <c r="E30" s="197"/>
+      <c r="F30" s="198"/>
+      <c r="G30" s="199"/>
+      <c r="H30" s="197"/>
+      <c r="I30" s="198"/>
+      <c r="J30" s="198"/>
+      <c r="K30" s="198"/>
+      <c r="L30" s="200"/>
+      <c r="M30" s="197"/>
+      <c r="N30" s="198"/>
+      <c r="O30" s="198"/>
+      <c r="P30" s="198"/>
+      <c r="Q30" s="200"/>
+      <c r="R30" s="197"/>
+      <c r="S30" s="195"/>
+      <c r="T30" s="195"/>
+      <c r="U30" s="201"/>
+      <c r="V30" s="195"/>
+      <c r="W30" s="202"/>
+      <c r="X30" s="197"/>
+      <c r="Y30" s="195"/>
+      <c r="Z30" s="203"/>
+      <c r="AA30" s="204"/>
+      <c r="AB30" s="202"/>
+      <c r="AC30" s="197"/>
+      <c r="AD30" s="198"/>
+      <c r="AE30" s="198"/>
+      <c r="AF30" s="205"/>
+    </row>
+    <row r="31" spans="1:47" s="162" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="193" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="194"/>
+      <c r="C31" s="195"/>
+      <c r="D31" s="196"/>
+      <c r="E31" s="197"/>
+      <c r="F31" s="198"/>
+      <c r="G31" s="199"/>
+      <c r="H31" s="197"/>
+      <c r="I31" s="198"/>
+      <c r="J31" s="198"/>
+      <c r="K31" s="198"/>
+      <c r="L31" s="200"/>
+      <c r="M31" s="197"/>
+      <c r="N31" s="198"/>
+      <c r="O31" s="198"/>
+      <c r="P31" s="198"/>
+      <c r="Q31" s="200"/>
+      <c r="R31" s="197"/>
+      <c r="S31" s="195"/>
+      <c r="T31" s="195"/>
+      <c r="U31" s="201"/>
+      <c r="V31" s="195"/>
+      <c r="W31" s="202"/>
+      <c r="X31" s="197"/>
+      <c r="Y31" s="195"/>
+      <c r="Z31" s="203"/>
+      <c r="AA31" s="204"/>
+      <c r="AB31" s="202"/>
+      <c r="AC31" s="197"/>
+      <c r="AD31" s="198"/>
+      <c r="AE31" s="198"/>
+      <c r="AF31" s="205"/>
+    </row>
+    <row r="32" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="206" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="74"/>
-      <c r="X31" s="8"/>
-      <c r="Y31" s="9"/>
-      <c r="Z31" s="183"/>
-      <c r="AA31" s="200"/>
-      <c r="AB31" s="207"/>
-      <c r="AC31" s="8"/>
-      <c r="AD31" s="6"/>
-      <c r="AE31" s="6"/>
-      <c r="AF31" s="10"/>
-    </row>
-    <row r="32" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="63" t="s">
+      <c r="B32" s="194"/>
+      <c r="C32" s="195"/>
+      <c r="D32" s="196"/>
+      <c r="E32" s="197"/>
+      <c r="F32" s="198"/>
+      <c r="G32" s="199"/>
+      <c r="H32" s="197"/>
+      <c r="I32" s="198"/>
+      <c r="J32" s="198"/>
+      <c r="K32" s="198"/>
+      <c r="L32" s="200"/>
+      <c r="M32" s="197"/>
+      <c r="N32" s="198"/>
+      <c r="O32" s="198"/>
+      <c r="P32" s="198"/>
+      <c r="Q32" s="200"/>
+      <c r="R32" s="197"/>
+      <c r="S32" s="195"/>
+      <c r="T32" s="195"/>
+      <c r="U32" s="201"/>
+      <c r="V32" s="195"/>
+      <c r="W32" s="202"/>
+      <c r="X32" s="197"/>
+      <c r="Y32" s="195"/>
+      <c r="Z32" s="203"/>
+      <c r="AA32" s="207"/>
+      <c r="AB32" s="202"/>
+      <c r="AC32" s="197"/>
+      <c r="AD32" s="198"/>
+      <c r="AE32" s="198"/>
+      <c r="AF32" s="205"/>
+    </row>
+    <row r="33" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B33" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="25"/>
-      <c r="W32" s="24"/>
-      <c r="X32" s="80"/>
-      <c r="Y32" s="82"/>
-      <c r="Z32" s="39"/>
-      <c r="AA32" s="201"/>
-      <c r="AB32" s="75"/>
-      <c r="AC32" s="36"/>
-      <c r="AD32" s="35"/>
-      <c r="AE32" s="22"/>
-      <c r="AF32" s="27"/>
-    </row>
-    <row r="33" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="64" t="s">
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="18"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="70"/>
+      <c r="Y33" s="72"/>
+      <c r="Z33" s="32"/>
+      <c r="AA33" s="167"/>
+      <c r="AB33" s="65"/>
+      <c r="AC33" s="29"/>
+      <c r="AD33" s="28"/>
+      <c r="AE33" s="15"/>
+      <c r="AF33" s="20"/>
+    </row>
+    <row r="34" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="34"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="28"/>
-      <c r="Y33" s="83"/>
-      <c r="Z33" s="30"/>
-      <c r="AA33" s="202"/>
-      <c r="AB33" s="76"/>
-      <c r="AC33" s="42"/>
-      <c r="AD33" s="30"/>
-      <c r="AE33" s="30"/>
-      <c r="AF33" s="65"/>
-    </row>
-    <row r="34" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="64" t="s">
+      <c r="B34" s="5"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="24"/>
+      <c r="V34" s="26"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="73"/>
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="168"/>
+      <c r="AB34" s="66"/>
+      <c r="AC34" s="35"/>
+      <c r="AD34" s="23"/>
+      <c r="AE34" s="23"/>
+      <c r="AF34" s="57"/>
+    </row>
+    <row r="35" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="34"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="33"/>
-      <c r="W34" s="32"/>
-      <c r="X34" s="28"/>
-      <c r="Y34" s="83"/>
-      <c r="Z34" s="30"/>
-      <c r="AA34" s="202"/>
-      <c r="AB34" s="77"/>
-      <c r="AC34" s="32"/>
-      <c r="AD34" s="43"/>
-      <c r="AE34" s="30"/>
-      <c r="AF34" s="65"/>
-    </row>
-    <row r="35" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="66" t="s">
+      <c r="B35" s="12"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="24"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="25"/>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="73"/>
+      <c r="Z35" s="23"/>
+      <c r="AA35" s="168"/>
+      <c r="AB35" s="67"/>
+      <c r="AC35" s="25"/>
+      <c r="AD35" s="36"/>
+      <c r="AE35" s="23"/>
+      <c r="AF35" s="57"/>
+    </row>
+    <row r="36" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B36" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="24"/>
-      <c r="S35" s="26"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="25"/>
-      <c r="W35" s="24"/>
-      <c r="X35" s="80"/>
-      <c r="Y35" s="82"/>
-      <c r="Z35" s="37"/>
-      <c r="AA35" s="201"/>
-      <c r="AB35" s="78"/>
-      <c r="AC35" s="38"/>
-      <c r="AD35" s="37"/>
-      <c r="AE35" s="40"/>
-      <c r="AF35" s="41"/>
-    </row>
-    <row r="36" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="64" t="s">
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="18"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="70"/>
+      <c r="Y36" s="72"/>
+      <c r="Z36" s="30"/>
+      <c r="AA36" s="167"/>
+      <c r="AB36" s="68"/>
+      <c r="AC36" s="31"/>
+      <c r="AD36" s="30"/>
+      <c r="AE36" s="33"/>
+      <c r="AF36" s="34"/>
+    </row>
+    <row r="37" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="33"/>
-      <c r="W36" s="32"/>
-      <c r="X36" s="28"/>
-      <c r="Y36" s="83"/>
-      <c r="Z36" s="30"/>
-      <c r="AA36" s="202"/>
-      <c r="AB36" s="77"/>
-      <c r="AC36" s="32"/>
-      <c r="AD36" s="30"/>
-      <c r="AE36" s="43"/>
-      <c r="AF36" s="65"/>
-    </row>
-    <row r="37" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="64" t="s">
+      <c r="B37" s="5"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="24"/>
+      <c r="V37" s="26"/>
+      <c r="W37" s="25"/>
+      <c r="X37" s="21"/>
+      <c r="Y37" s="73"/>
+      <c r="Z37" s="23"/>
+      <c r="AA37" s="168"/>
+      <c r="AB37" s="67"/>
+      <c r="AC37" s="25"/>
+      <c r="AD37" s="23"/>
+      <c r="AE37" s="36"/>
+      <c r="AF37" s="57"/>
+    </row>
+    <row r="38" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="32"/>
-      <c r="S37" s="34"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="31"/>
-      <c r="V37" s="33"/>
-      <c r="W37" s="32"/>
-      <c r="X37" s="28"/>
-      <c r="Y37" s="83"/>
-      <c r="Z37" s="30"/>
-      <c r="AA37" s="202"/>
-      <c r="AB37" s="77"/>
-      <c r="AC37" s="32"/>
-      <c r="AD37" s="30"/>
-      <c r="AE37" s="30"/>
-      <c r="AF37" s="67"/>
-    </row>
-    <row r="38" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="68" t="s">
+      <c r="B38" s="5"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="27"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="24"/>
+      <c r="V38" s="26"/>
+      <c r="W38" s="25"/>
+      <c r="X38" s="21"/>
+      <c r="Y38" s="73"/>
+      <c r="Z38" s="23"/>
+      <c r="AA38" s="168"/>
+      <c r="AB38" s="67"/>
+      <c r="AC38" s="25"/>
+      <c r="AD38" s="23"/>
+      <c r="AE38" s="23"/>
+      <c r="AF38" s="59"/>
+    </row>
+    <row r="39" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="48"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="45"/>
-      <c r="O38" s="45"/>
-      <c r="P38" s="45"/>
-      <c r="Q38" s="52"/>
-      <c r="R38" s="50"/>
-      <c r="S38" s="45"/>
-      <c r="T38" s="45"/>
-      <c r="U38" s="45"/>
-      <c r="V38" s="51"/>
-      <c r="W38" s="49"/>
-      <c r="X38" s="52"/>
-      <c r="Y38" s="84"/>
-      <c r="Z38" s="81"/>
-      <c r="AA38" s="203"/>
-      <c r="AB38" s="79"/>
-      <c r="AC38" s="49"/>
-      <c r="AD38" s="45"/>
-      <c r="AE38" s="45"/>
-      <c r="AF38" s="47"/>
-    </row>
-    <row r="39" spans="1:32" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="69"/>
-      <c r="B39" s="61" t="s">
+      <c r="B39" s="41"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="38"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="38"/>
+      <c r="T39" s="38"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="44"/>
+      <c r="W39" s="42"/>
+      <c r="X39" s="45"/>
+      <c r="Y39" s="74"/>
+      <c r="Z39" s="71"/>
+      <c r="AA39" s="169"/>
+      <c r="AB39" s="69"/>
+      <c r="AC39" s="42"/>
+      <c r="AD39" s="38"/>
+      <c r="AE39" s="38"/>
+      <c r="AF39" s="40"/>
+    </row>
+    <row r="40" spans="1:32" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="61"/>
+      <c r="B40" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="53"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="57"/>
-      <c r="N39" s="58"/>
-      <c r="O39" s="53"/>
-      <c r="P39" s="53"/>
-      <c r="Q39" s="53"/>
-      <c r="R39" s="55"/>
-      <c r="S39" s="56"/>
-      <c r="T39" s="53"/>
-      <c r="U39" s="53"/>
-      <c r="V39" s="53"/>
-      <c r="W39" s="57"/>
-      <c r="X39" s="58"/>
-      <c r="Y39" s="55"/>
-      <c r="Z39" s="59"/>
-      <c r="AA39" s="53"/>
-      <c r="AB39" s="57"/>
-      <c r="AC39" s="58"/>
-      <c r="AD39" s="53"/>
-      <c r="AE39" s="53"/>
-      <c r="AF39" s="60"/>
-    </row>
-    <row r="40" spans="1:32" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C40" s="46"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="46"/>
+      <c r="P40" s="46"/>
+      <c r="Q40" s="46"/>
+      <c r="R40" s="48"/>
+      <c r="S40" s="49"/>
+      <c r="T40" s="46"/>
+      <c r="U40" s="46"/>
+      <c r="V40" s="46"/>
+      <c r="W40" s="50"/>
+      <c r="X40" s="51"/>
+      <c r="Y40" s="48"/>
+      <c r="Z40" s="52"/>
+      <c r="AA40" s="46"/>
+      <c r="AB40" s="50"/>
+      <c r="AC40" s="51"/>
+      <c r="AD40" s="46"/>
+      <c r="AE40" s="46"/>
+      <c r="AF40" s="53"/>
+    </row>
+    <row r="41" spans="1:32" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -4572,33 +4566,8 @@
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
-      <c r="T52" s="4"/>
-      <c r="U52" s="4"/>
-      <c r="V52" s="4"/>
-      <c r="W52" s="4"/>
-      <c r="X52" s="4"/>
-      <c r="Y52" s="4"/>
-      <c r="Z52" s="4"/>
-      <c r="AB52" s="4"/>
-      <c r="AC52" s="4"/>
-      <c r="AD52" s="4"/>
-      <c r="AE52" s="4"/>
-    </row>
-    <row r="53" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -4661,7 +4630,6 @@
       <c r="AC54" s="4"/>
       <c r="AD54" s="4"/>
       <c r="AE54" s="4"/>
-      <c r="AF54" s="4"/>
     </row>
     <row r="55" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
@@ -4799,6 +4767,33 @@
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="4"/>
+      <c r="X59" s="4"/>
+      <c r="Y59" s="4"/>
+      <c r="Z59" s="4"/>
+      <c r="AB59" s="4"/>
+      <c r="AC59" s="4"/>
+      <c r="AD59" s="4"/>
+      <c r="AE59" s="4"/>
       <c r="AF59" s="4"/>
     </row>
     <row r="60" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4811,12 +4806,12 @@
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
+      <c r="AF61" s="4"/>
     </row>
     <row r="62" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
@@ -4824,7 +4819,7 @@
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -4861,36 +4856,10 @@
       <c r="D69" s="4"/>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
-      <c r="P70" s="4"/>
-      <c r="Q70" s="4"/>
-      <c r="R70" s="4"/>
-      <c r="S70" s="4"/>
-      <c r="T70" s="4"/>
-      <c r="U70" s="4"/>
-      <c r="V70" s="4"/>
-      <c r="W70" s="4"/>
-      <c r="X70" s="4"/>
-      <c r="Y70" s="4"/>
-      <c r="Z70" s="4"/>
-      <c r="AB70" s="4"/>
-      <c r="AC70" s="4"/>
-      <c r="AD70" s="4"/>
-      <c r="AE70" s="4"/>
-      <c r="AF70" s="4"/>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B71" s="4"/>
@@ -4957,7 +4926,36 @@
       <c r="AF72" s="4"/>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="C73" s="3"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="4"/>
+      <c r="S73" s="4"/>
+      <c r="T73" s="4"/>
+      <c r="U73" s="4"/>
+      <c r="V73" s="4"/>
+      <c r="W73" s="4"/>
+      <c r="X73" s="4"/>
+      <c r="Y73" s="4"/>
+      <c r="Z73" s="4"/>
+      <c r="AB73" s="4"/>
+      <c r="AC73" s="4"/>
+      <c r="AD73" s="4"/>
+      <c r="AE73" s="4"/>
+      <c r="AF73" s="4"/>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.15">
       <c r="C74" s="3"/>
@@ -5462,6 +5460,9 @@
     </row>
     <row r="241" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C241" s="3"/>
+    </row>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C242" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/일정표_윤성주.xlsx
+++ b/일정표_윤성주.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021-2\네트워크 게임 프로그래밍\Term Project\2021NGP_VTM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysj\Desktop\2021-2\NGP_TERM\2021NGP_VTM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE18A9CF-CA8A-42B2-B35B-201159E3F454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A08509-3E77-4582-8566-D0D38EB075D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -241,7 +241,7 @@
     <numFmt numFmtId="176" formatCode="##&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="m&quot;/&quot;d;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -284,60 +284,95 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="한컴 고딕"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
-      <name val="한컴 고딕"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="한컴 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <scheme val="major"/>
     </font>
     <font>
       <b/>
       <strike/>
       <sz val="9"/>
-      <name val="한컴 고딕"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="major"/>
     </font>
     <font>
       <strike/>
       <sz val="9"/>
-      <name val="한컴 고딕"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="major"/>
     </font>
     <font>
+      <strike/>
       <sz val="9"/>
       <color theme="0" tint="-0.249977111117893"/>
-      <name val="한컴 고딕"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -398,6 +433,78 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3EFBD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="110">
     <border>
@@ -1937,26 +2044,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="25">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="7" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="7" borderId="29">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="8" borderId="45">
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="25">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="6" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="6" borderId="29">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="7" borderId="45">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="236">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1972,505 +2079,529 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="11" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="11" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="11" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="11" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="51" xfId="6" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="12" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="6" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="95" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="10" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="10" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="10" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="10" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="10" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="10" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="12" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="10" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="10" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="10" borderId="61" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="10" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="10" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="10" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="10" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="10" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="10" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="10" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="10" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="10" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="10" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="10" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="10" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="15" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="10" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="10" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="16" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="10" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="10" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="10" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="10" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="18" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="10" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="20" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="20" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="20" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="10" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="10" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="12" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="12" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="12" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="12" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="12" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="51" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="95" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="21" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="21" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="21" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="21" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="22" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="23" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="18" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="20" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="61" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="12" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="12" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="12" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="12" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="12" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="12" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="12" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="12" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="12" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="12" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="11" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="12" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="12" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2482,7 +2613,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2497,88 +2628,148 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="11" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="11" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="11" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="11" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="11" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="19" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="11" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="11" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="11" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="19" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="19" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="19" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="19" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="11" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="11" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="11" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="11" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="11" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="11" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="11" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="11" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="11" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="11" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="11" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="2" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="10" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="10" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="10" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="11" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="15" fillId="10" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="2" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2596,9 +2787,9 @@
   <colors>
     <mruColors>
       <color rgb="FFBAC1F8"/>
+      <color rgb="FFF6BCE5"/>
+      <color rgb="FFF3EFBD"/>
       <color rgb="FFF8BABA"/>
-      <color rgb="FFF3EFBD"/>
-      <color rgb="FFF6BCE5"/>
       <color rgb="FFEBE193"/>
       <color rgb="FFEEB0B0"/>
     </mruColors>
@@ -2937,14 +3128,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="AJ32" sqref="AJ32"/>
+      <selection pane="bottomRight" activeCell="AK18" sqref="AK18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="31.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" customWidth="1"/>
@@ -2954,1620 +3145,1658 @@
     <col min="33" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="172" t="s">
+    <row r="1" spans="1:33" ht="20.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A1" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="173"/>
-      <c r="M1" s="173"/>
-      <c r="N1" s="173"/>
-      <c r="O1" s="173"/>
-      <c r="P1" s="173"/>
-      <c r="Q1" s="173"/>
-      <c r="R1" s="173"/>
-      <c r="S1" s="173"/>
-      <c r="T1" s="173"/>
-      <c r="U1" s="173"/>
-      <c r="V1" s="173"/>
-      <c r="W1" s="173"/>
-      <c r="X1" s="173"/>
-      <c r="Y1" s="173"/>
-      <c r="Z1" s="173"/>
-      <c r="AA1" s="173"/>
-      <c r="AB1" s="173"/>
-      <c r="AC1" s="173"/>
-      <c r="AD1" s="173"/>
-      <c r="AE1" s="173"/>
-      <c r="AF1" s="174"/>
-    </row>
-    <row r="2" spans="1:33" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="181"/>
+      <c r="L1" s="181"/>
+      <c r="M1" s="181"/>
+      <c r="N1" s="181"/>
+      <c r="O1" s="181"/>
+      <c r="P1" s="181"/>
+      <c r="Q1" s="181"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="181"/>
+      <c r="T1" s="181"/>
+      <c r="U1" s="181"/>
+      <c r="V1" s="181"/>
+      <c r="W1" s="181"/>
+      <c r="X1" s="181"/>
+      <c r="Y1" s="181"/>
+      <c r="Z1" s="181"/>
+      <c r="AA1" s="181"/>
+      <c r="AB1" s="181"/>
+      <c r="AC1" s="181"/>
+      <c r="AD1" s="181"/>
+      <c r="AE1" s="181"/>
+      <c r="AF1" s="182"/>
+      <c r="AG1" s="7"/>
+    </row>
+    <row r="2" spans="1:33" ht="12" customHeight="1" thickTop="1">
+      <c r="A2" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="175" t="s">
+      <c r="C2" s="183" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="170"/>
-      <c r="O2" s="170"/>
-      <c r="P2" s="170"/>
-      <c r="Q2" s="170"/>
-      <c r="R2" s="170"/>
-      <c r="S2" s="170"/>
-      <c r="T2" s="170"/>
-      <c r="U2" s="170"/>
-      <c r="V2" s="170"/>
-      <c r="W2" s="170"/>
-      <c r="X2" s="170"/>
-      <c r="Y2" s="171"/>
-      <c r="Z2" s="170" t="s">
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
+      <c r="L2" s="178"/>
+      <c r="M2" s="178"/>
+      <c r="N2" s="178"/>
+      <c r="O2" s="178"/>
+      <c r="P2" s="178"/>
+      <c r="Q2" s="178"/>
+      <c r="R2" s="178"/>
+      <c r="S2" s="178"/>
+      <c r="T2" s="178"/>
+      <c r="U2" s="178"/>
+      <c r="V2" s="178"/>
+      <c r="W2" s="178"/>
+      <c r="X2" s="178"/>
+      <c r="Y2" s="179"/>
+      <c r="Z2" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" s="170"/>
-      <c r="AB2" s="170"/>
-      <c r="AC2" s="170"/>
-      <c r="AD2" s="170"/>
-      <c r="AE2" s="170"/>
-      <c r="AF2" s="171"/>
-    </row>
-    <row r="3" spans="1:33" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="177"/>
-      <c r="B3" s="179"/>
-      <c r="C3" s="7">
+      <c r="AA2" s="178"/>
+      <c r="AB2" s="178"/>
+      <c r="AC2" s="178"/>
+      <c r="AD2" s="178"/>
+      <c r="AE2" s="178"/>
+      <c r="AF2" s="179"/>
+      <c r="AG2" s="7"/>
+    </row>
+    <row r="3" spans="1:33" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A3" s="185"/>
+      <c r="B3" s="187"/>
+      <c r="C3" s="8">
         <v>8</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <v>9</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>10</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="8">
         <v>11</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="8">
         <v>12</v>
       </c>
       <c r="H3" s="9">
         <v>13</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="10">
         <v>14</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="8">
         <v>15</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="8">
         <v>16</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="8">
         <v>17</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="8">
         <v>18</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="8">
         <v>19</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="8">
         <v>20</v>
       </c>
-      <c r="P3" s="37">
+      <c r="P3" s="10">
         <v>21</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q3" s="8">
         <v>22</v>
       </c>
-      <c r="R3" s="7">
+      <c r="R3" s="8">
         <v>23</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="8">
         <v>24</v>
       </c>
-      <c r="T3" s="7">
+      <c r="T3" s="8">
         <v>25</v>
       </c>
-      <c r="U3" s="7">
+      <c r="U3" s="8">
         <v>26</v>
       </c>
-      <c r="V3" s="7">
+      <c r="V3" s="8">
         <v>27</v>
       </c>
-      <c r="W3" s="37">
+      <c r="W3" s="10">
         <v>28</v>
       </c>
-      <c r="X3" s="7">
+      <c r="X3" s="8">
         <v>29</v>
       </c>
-      <c r="Y3" s="8">
+      <c r="Y3" s="11">
         <v>30</v>
       </c>
       <c r="Z3" s="9">
         <v>1</v>
       </c>
-      <c r="AA3" s="7">
+      <c r="AA3" s="8">
         <v>2</v>
       </c>
-      <c r="AB3" s="7">
+      <c r="AB3" s="8">
         <v>3</v>
       </c>
-      <c r="AC3" s="7">
+      <c r="AC3" s="8">
         <v>4</v>
       </c>
-      <c r="AD3" s="37">
+      <c r="AD3" s="10">
         <v>5</v>
       </c>
-      <c r="AE3" s="7">
+      <c r="AE3" s="8">
         <v>6</v>
       </c>
-      <c r="AF3" s="8">
+      <c r="AF3" s="11">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="75" t="s">
+      <c r="AG3" s="7"/>
+    </row>
+    <row r="4" spans="1:33" ht="15" customHeight="1" thickTop="1">
+      <c r="A4" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="84"/>
-      <c r="T4" s="85"/>
-      <c r="U4" s="82"/>
-      <c r="V4" s="83"/>
-      <c r="W4" s="81"/>
-      <c r="X4" s="84"/>
-      <c r="Y4" s="86"/>
-      <c r="Z4" s="81"/>
-      <c r="AA4" s="83"/>
-      <c r="AB4" s="87"/>
-      <c r="AC4" s="81"/>
-      <c r="AD4" s="82"/>
-      <c r="AE4" s="82"/>
-      <c r="AF4" s="86"/>
-      <c r="AG4" s="1" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="88" t="s">
+    <row r="5" spans="1:33" ht="15" customHeight="1">
+      <c r="A5" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="97"/>
-      <c r="T5" s="98"/>
-      <c r="U5" s="93"/>
-      <c r="V5" s="96"/>
-      <c r="W5" s="95"/>
-      <c r="X5" s="97"/>
-      <c r="Y5" s="99"/>
-      <c r="Z5" s="95"/>
-      <c r="AA5" s="96"/>
-      <c r="AB5" s="100"/>
-      <c r="AC5" s="95"/>
-      <c r="AD5" s="93"/>
-      <c r="AE5" s="93"/>
-      <c r="AF5" s="99"/>
-    </row>
-    <row r="6" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="88" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="28"/>
+      <c r="AE5" s="28"/>
+      <c r="AF5" s="34"/>
+      <c r="AG5" s="7"/>
+    </row>
+    <row r="6" spans="1:33" ht="15" customHeight="1">
+      <c r="A6" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="93"/>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="95"/>
-      <c r="S6" s="97"/>
-      <c r="T6" s="98"/>
-      <c r="U6" s="93"/>
-      <c r="V6" s="96"/>
-      <c r="W6" s="95"/>
-      <c r="X6" s="97"/>
-      <c r="Y6" s="99"/>
-      <c r="Z6" s="95"/>
-      <c r="AA6" s="96"/>
-      <c r="AB6" s="100"/>
-      <c r="AC6" s="95"/>
-      <c r="AD6" s="93"/>
-      <c r="AE6" s="93"/>
-      <c r="AF6" s="99"/>
-    </row>
-    <row r="7" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="88" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="7"/>
+    </row>
+    <row r="7" spans="1:33" ht="15" customHeight="1">
+      <c r="A7" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="95"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="95"/>
-      <c r="S7" s="97"/>
-      <c r="T7" s="98"/>
-      <c r="U7" s="93"/>
-      <c r="V7" s="96"/>
-      <c r="W7" s="95"/>
-      <c r="X7" s="97"/>
-      <c r="Y7" s="99"/>
-      <c r="Z7" s="95"/>
-      <c r="AA7" s="96"/>
-      <c r="AB7" s="100"/>
-      <c r="AC7" s="95"/>
-      <c r="AD7" s="93"/>
-      <c r="AE7" s="93"/>
-      <c r="AF7" s="99"/>
-    </row>
-    <row r="8" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="102" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="31"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="34"/>
+      <c r="AG7" s="7"/>
+    </row>
+    <row r="8" spans="1:33" ht="15" customHeight="1">
+      <c r="A8" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="109"/>
-      <c r="R8" s="106"/>
-      <c r="S8" s="110"/>
-      <c r="T8" s="111"/>
-      <c r="U8" s="107"/>
-      <c r="V8" s="109"/>
-      <c r="W8" s="106"/>
-      <c r="X8" s="110"/>
-      <c r="Y8" s="112"/>
-      <c r="Z8" s="106"/>
-      <c r="AA8" s="109"/>
-      <c r="AB8" s="113"/>
-      <c r="AC8" s="106"/>
-      <c r="AD8" s="107"/>
-      <c r="AE8" s="107"/>
-      <c r="AF8" s="112"/>
-    </row>
-    <row r="9" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="88" t="s">
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="48"/>
+      <c r="AG8" s="7"/>
+    </row>
+    <row r="9" spans="1:33" ht="15" customHeight="1">
+      <c r="A9" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="96"/>
-      <c r="R9" s="95"/>
-      <c r="S9" s="97"/>
-      <c r="T9" s="98"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="96"/>
-      <c r="W9" s="95"/>
-      <c r="X9" s="97"/>
-      <c r="Y9" s="99"/>
-      <c r="Z9" s="95"/>
-      <c r="AA9" s="96"/>
-      <c r="AB9" s="100"/>
-      <c r="AC9" s="95"/>
-      <c r="AD9" s="93"/>
-      <c r="AE9" s="93"/>
-      <c r="AF9" s="99"/>
-    </row>
-    <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="88" t="s">
+      <c r="B9" s="50"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="31"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="28"/>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="7"/>
+    </row>
+    <row r="10" spans="1:33" ht="15" customHeight="1">
+      <c r="A10" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="96"/>
-      <c r="R10" s="95"/>
-      <c r="S10" s="97"/>
-      <c r="T10" s="98"/>
-      <c r="U10" s="93"/>
-      <c r="V10" s="96"/>
-      <c r="W10" s="95"/>
-      <c r="X10" s="97"/>
-      <c r="Y10" s="99"/>
-      <c r="Z10" s="95"/>
-      <c r="AA10" s="96"/>
-      <c r="AB10" s="100"/>
-      <c r="AC10" s="95"/>
-      <c r="AD10" s="93"/>
-      <c r="AE10" s="93"/>
-      <c r="AF10" s="99"/>
-    </row>
-    <row r="11" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="88" t="s">
+      <c r="B10" s="50"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="35"/>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="7"/>
+    </row>
+    <row r="11" spans="1:33" ht="15" customHeight="1">
+      <c r="A11" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="116"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="122"/>
-      <c r="M11" s="119"/>
-      <c r="N11" s="120"/>
-      <c r="O11" s="120"/>
-      <c r="P11" s="120"/>
-      <c r="Q11" s="123"/>
-      <c r="R11" s="119"/>
-      <c r="S11" s="117"/>
-      <c r="T11" s="124"/>
-      <c r="U11" s="120"/>
-      <c r="V11" s="123"/>
-      <c r="W11" s="119"/>
-      <c r="X11" s="117"/>
-      <c r="Y11" s="125"/>
-      <c r="Z11" s="119"/>
-      <c r="AA11" s="123"/>
-      <c r="AB11" s="126"/>
-      <c r="AC11" s="119"/>
-      <c r="AD11" s="120"/>
-      <c r="AE11" s="120"/>
-      <c r="AF11" s="125"/>
-    </row>
-    <row r="12" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="102" t="s">
+      <c r="B11" s="52"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="55"/>
+      <c r="X11" s="53"/>
+      <c r="Y11" s="61"/>
+      <c r="Z11" s="55"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="62"/>
+      <c r="AC11" s="55"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="56"/>
+      <c r="AF11" s="61"/>
+      <c r="AG11" s="7"/>
+    </row>
+    <row r="12" spans="1:33" ht="15" customHeight="1">
+      <c r="A12" s="166" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="103" t="s">
+      <c r="B12" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="110"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="106"/>
-      <c r="N12" s="107"/>
-      <c r="O12" s="107"/>
-      <c r="P12" s="107"/>
-      <c r="Q12" s="109"/>
-      <c r="R12" s="106"/>
-      <c r="S12" s="110"/>
-      <c r="T12" s="111"/>
-      <c r="U12" s="107"/>
-      <c r="V12" s="109"/>
-      <c r="W12" s="106"/>
-      <c r="X12" s="110"/>
-      <c r="Y12" s="112"/>
-      <c r="Z12" s="106"/>
-      <c r="AA12" s="109"/>
-      <c r="AB12" s="113"/>
-      <c r="AC12" s="106"/>
-      <c r="AD12" s="107"/>
-      <c r="AE12" s="107"/>
-      <c r="AF12" s="112"/>
-    </row>
-    <row r="13" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="88" t="s">
+      <c r="C12" s="46"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="48"/>
+      <c r="AG12" s="7"/>
+    </row>
+    <row r="13" spans="1:33" ht="15" customHeight="1">
+      <c r="A13" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="89"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="96"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="97"/>
-      <c r="T13" s="98"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="96"/>
-      <c r="W13" s="95"/>
-      <c r="X13" s="97"/>
-      <c r="Y13" s="99"/>
-      <c r="Z13" s="95"/>
-      <c r="AA13" s="96"/>
-      <c r="AB13" s="100"/>
-      <c r="AC13" s="95"/>
-      <c r="AD13" s="93"/>
-      <c r="AE13" s="93"/>
-      <c r="AF13" s="99"/>
-    </row>
-    <row r="14" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="127" t="s">
+      <c r="B13" s="24"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="31"/>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="28"/>
+      <c r="AE13" s="28"/>
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="7"/>
+    </row>
+    <row r="14" spans="1:33" ht="15" customHeight="1">
+      <c r="A14" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="96"/>
-      <c r="R14" s="95"/>
-      <c r="S14" s="97"/>
-      <c r="T14" s="98"/>
-      <c r="U14" s="93"/>
-      <c r="V14" s="96"/>
-      <c r="W14" s="95"/>
-      <c r="X14" s="97"/>
-      <c r="Y14" s="99"/>
-      <c r="Z14" s="95"/>
-      <c r="AA14" s="96"/>
-      <c r="AB14" s="100"/>
-      <c r="AC14" s="95"/>
-      <c r="AD14" s="93"/>
-      <c r="AE14" s="93"/>
-      <c r="AF14" s="99"/>
-    </row>
-    <row r="15" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="88" t="s">
+      <c r="B14" s="24"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="34"/>
+      <c r="AG14" s="7"/>
+    </row>
+    <row r="15" spans="1:33" ht="15" customHeight="1">
+      <c r="A15" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="89"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="95"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="90"/>
-      <c r="Q15" s="96"/>
-      <c r="R15" s="95"/>
-      <c r="S15" s="97"/>
-      <c r="T15" s="98"/>
-      <c r="U15" s="93"/>
-      <c r="V15" s="96"/>
-      <c r="W15" s="95"/>
-      <c r="X15" s="97"/>
-      <c r="Y15" s="99"/>
-      <c r="Z15" s="95"/>
-      <c r="AA15" s="96"/>
-      <c r="AB15" s="100"/>
-      <c r="AC15" s="95"/>
-      <c r="AD15" s="93"/>
-      <c r="AE15" s="93"/>
-      <c r="AF15" s="99"/>
-    </row>
-    <row r="16" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="88" t="s">
+      <c r="B15" s="24"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="34"/>
+      <c r="AG15" s="7"/>
+    </row>
+    <row r="16" spans="1:33" ht="15" customHeight="1">
+      <c r="A16" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="89"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="90"/>
-      <c r="R16" s="95"/>
-      <c r="S16" s="97"/>
-      <c r="T16" s="98"/>
-      <c r="U16" s="93"/>
-      <c r="V16" s="96"/>
-      <c r="W16" s="95"/>
-      <c r="X16" s="97"/>
-      <c r="Y16" s="99"/>
-      <c r="Z16" s="95"/>
-      <c r="AA16" s="96"/>
-      <c r="AB16" s="100"/>
-      <c r="AC16" s="95"/>
-      <c r="AD16" s="93"/>
-      <c r="AE16" s="93"/>
-      <c r="AF16" s="99"/>
-    </row>
-    <row r="17" spans="1:47" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="88" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="31"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="34"/>
+      <c r="AG16" s="7"/>
+    </row>
+    <row r="17" spans="1:47" ht="15" customHeight="1" thickBot="1">
+      <c r="A17" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="89"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="96"/>
-      <c r="R17" s="128"/>
-      <c r="S17" s="97"/>
-      <c r="T17" s="98"/>
-      <c r="U17" s="93"/>
-      <c r="V17" s="96"/>
-      <c r="W17" s="95"/>
-      <c r="X17" s="97"/>
-      <c r="Y17" s="99"/>
-      <c r="Z17" s="95"/>
-      <c r="AA17" s="96"/>
-      <c r="AB17" s="100"/>
-      <c r="AC17" s="95"/>
-      <c r="AD17" s="93"/>
-      <c r="AE17" s="93"/>
-      <c r="AF17" s="99"/>
-    </row>
-    <row r="18" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="129" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="31"/>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="28"/>
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="34"/>
+      <c r="AG17" s="7"/>
+    </row>
+    <row r="18" spans="1:47" ht="15" customHeight="1">
+      <c r="A18" s="168" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="103" t="s">
+      <c r="B18" s="169" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="110"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="109"/>
-      <c r="M18" s="106"/>
-      <c r="N18" s="107"/>
-      <c r="O18" s="107"/>
-      <c r="P18" s="107"/>
-      <c r="Q18" s="109"/>
-      <c r="R18" s="106"/>
-      <c r="S18" s="110"/>
-      <c r="T18" s="110"/>
-      <c r="U18" s="111"/>
-      <c r="V18" s="110"/>
-      <c r="W18" s="113"/>
-      <c r="X18" s="106"/>
-      <c r="Y18" s="110"/>
-      <c r="Z18" s="130"/>
-      <c r="AA18" s="163"/>
-      <c r="AB18" s="113"/>
-      <c r="AC18" s="106"/>
-      <c r="AD18" s="107"/>
-      <c r="AE18" s="107"/>
-      <c r="AF18" s="112"/>
-    </row>
-    <row r="19" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="131" t="s">
+      <c r="C18" s="46"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="73"/>
+      <c r="U18" s="74"/>
+      <c r="V18" s="75"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="39"/>
+      <c r="Y18" s="46"/>
+      <c r="Z18" s="76"/>
+      <c r="AA18" s="77"/>
+      <c r="AB18" s="49"/>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="40"/>
+      <c r="AE18" s="40"/>
+      <c r="AF18" s="48"/>
+      <c r="AG18" s="7"/>
+    </row>
+    <row r="19" spans="1:47" ht="15" customHeight="1">
+      <c r="A19" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="132"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="96"/>
-      <c r="R19" s="95"/>
-      <c r="S19" s="90"/>
-      <c r="T19" s="90"/>
-      <c r="U19" s="98"/>
-      <c r="V19" s="97"/>
-      <c r="W19" s="100"/>
-      <c r="X19" s="95"/>
-      <c r="Y19" s="97"/>
-      <c r="Z19" s="133"/>
-      <c r="AA19" s="164"/>
-      <c r="AB19" s="100"/>
-      <c r="AC19" s="95"/>
-      <c r="AD19" s="93"/>
-      <c r="AE19" s="93"/>
-      <c r="AF19" s="99"/>
-    </row>
-    <row r="20" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="134" t="s">
+      <c r="B19" s="79"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="69"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="80"/>
+      <c r="AA19" s="81"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="28"/>
+      <c r="AE19" s="28"/>
+      <c r="AF19" s="34"/>
+      <c r="AG19" s="7"/>
+    </row>
+    <row r="20" spans="1:47" ht="15" customHeight="1">
+      <c r="A20" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="132"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="96"/>
-      <c r="R20" s="95"/>
-      <c r="S20" s="97"/>
-      <c r="T20" s="97"/>
-      <c r="U20" s="90"/>
-      <c r="V20" s="97"/>
-      <c r="W20" s="100"/>
-      <c r="X20" s="95"/>
-      <c r="Y20" s="97"/>
-      <c r="Z20" s="133"/>
-      <c r="AA20" s="164"/>
-      <c r="AB20" s="100"/>
-      <c r="AC20" s="95"/>
-      <c r="AD20" s="93"/>
-      <c r="AE20" s="93"/>
-      <c r="AF20" s="99"/>
-    </row>
-    <row r="21" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="135" t="s">
+      <c r="B20" s="79"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="72"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="80"/>
+      <c r="AA20" s="81"/>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="28"/>
+      <c r="AE20" s="28"/>
+      <c r="AF20" s="34"/>
+      <c r="AG20" s="7"/>
+    </row>
+    <row r="21" spans="1:47" ht="15" customHeight="1">
+      <c r="A21" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="103" t="s">
+      <c r="B21" s="171" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="109"/>
-      <c r="M21" s="106"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="107"/>
-      <c r="Q21" s="109"/>
-      <c r="R21" s="106"/>
-      <c r="S21" s="110"/>
-      <c r="T21" s="110"/>
-      <c r="U21" s="111"/>
-      <c r="V21" s="110"/>
-      <c r="W21" s="113"/>
-      <c r="X21" s="106"/>
-      <c r="Y21" s="110"/>
-      <c r="Z21" s="130"/>
-      <c r="AA21" s="163"/>
-      <c r="AB21" s="113"/>
-      <c r="AC21" s="106"/>
-      <c r="AD21" s="107"/>
-      <c r="AE21" s="107"/>
-      <c r="AF21" s="112"/>
-    </row>
-    <row r="22" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="131" t="s">
+      <c r="C21" s="46"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="83"/>
+      <c r="U21" s="83"/>
+      <c r="V21" s="83"/>
+      <c r="W21" s="83"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="76"/>
+      <c r="AA21" s="77"/>
+      <c r="AB21" s="49"/>
+      <c r="AC21" s="39"/>
+      <c r="AD21" s="40"/>
+      <c r="AE21" s="40"/>
+      <c r="AF21" s="48"/>
+      <c r="AG21" s="7"/>
+    </row>
+    <row r="22" spans="1:47" ht="15" customHeight="1">
+      <c r="A22" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="132"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="96"/>
-      <c r="R22" s="95"/>
-      <c r="S22" s="97"/>
-      <c r="T22" s="97"/>
-      <c r="U22" s="98"/>
-      <c r="V22" s="97"/>
-      <c r="W22" s="136"/>
-      <c r="X22" s="95"/>
-      <c r="Y22" s="97"/>
-      <c r="Z22" s="133"/>
-      <c r="AA22" s="164"/>
-      <c r="AB22" s="100"/>
-      <c r="AC22" s="95"/>
-      <c r="AD22" s="93"/>
-      <c r="AE22" s="93"/>
-      <c r="AF22" s="99"/>
-    </row>
-    <row r="23" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="134" t="s">
+      <c r="B22" s="79"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="72"/>
+      <c r="U22" s="84"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="85"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="80"/>
+      <c r="AA22" s="81"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="28"/>
+      <c r="AE22" s="28"/>
+      <c r="AF22" s="34"/>
+      <c r="AG22" s="7"/>
+    </row>
+    <row r="23" spans="1:47" ht="15" customHeight="1">
+      <c r="A23" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="89"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="93"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="93"/>
-      <c r="O23" s="93"/>
-      <c r="P23" s="93"/>
-      <c r="Q23" s="96"/>
-      <c r="R23" s="95"/>
-      <c r="S23" s="97"/>
-      <c r="T23" s="97"/>
-      <c r="U23" s="98"/>
-      <c r="V23" s="97"/>
-      <c r="W23" s="100"/>
-      <c r="X23" s="95"/>
-      <c r="Y23" s="97"/>
-      <c r="Z23" s="133"/>
-      <c r="AA23" s="164"/>
-      <c r="AB23" s="100"/>
-      <c r="AC23" s="95"/>
-      <c r="AD23" s="93"/>
-      <c r="AE23" s="93"/>
-      <c r="AF23" s="99"/>
-      <c r="AU23" s="149"/>
-    </row>
-    <row r="24" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="150" t="s">
+      <c r="B23" s="24"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="72"/>
+      <c r="W23" s="86"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="80"/>
+      <c r="AA23" s="81"/>
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="28"/>
+      <c r="AE23" s="28"/>
+      <c r="AF23" s="34"/>
+      <c r="AG23" s="7"/>
+      <c r="AU23" s="5"/>
+    </row>
+    <row r="24" spans="1:47" ht="15" customHeight="1">
+      <c r="A24" s="188" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="151" t="s">
+      <c r="B24" s="189" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="152"/>
-      <c r="D24" s="153"/>
-      <c r="E24" s="154"/>
-      <c r="F24" s="155"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="154"/>
-      <c r="I24" s="155"/>
-      <c r="J24" s="155"/>
-      <c r="K24" s="155"/>
-      <c r="L24" s="157"/>
-      <c r="M24" s="154"/>
-      <c r="N24" s="155"/>
-      <c r="O24" s="155"/>
-      <c r="P24" s="155"/>
-      <c r="Q24" s="157"/>
-      <c r="R24" s="154"/>
-      <c r="S24" s="152"/>
-      <c r="T24" s="152"/>
-      <c r="U24" s="158"/>
-      <c r="V24" s="152"/>
-      <c r="W24" s="159"/>
-      <c r="X24" s="154"/>
-      <c r="Y24" s="152"/>
-      <c r="Z24" s="160"/>
-      <c r="AA24" s="165"/>
-      <c r="AB24" s="159"/>
-      <c r="AC24" s="154"/>
-      <c r="AD24" s="155"/>
-      <c r="AE24" s="155"/>
-      <c r="AF24" s="161"/>
-      <c r="AG24" s="162" t="s">
+      <c r="C24" s="190"/>
+      <c r="D24" s="191"/>
+      <c r="E24" s="192"/>
+      <c r="F24" s="193"/>
+      <c r="G24" s="194"/>
+      <c r="H24" s="192"/>
+      <c r="I24" s="193"/>
+      <c r="J24" s="193"/>
+      <c r="K24" s="193"/>
+      <c r="L24" s="195"/>
+      <c r="M24" s="192"/>
+      <c r="N24" s="193"/>
+      <c r="O24" s="193"/>
+      <c r="P24" s="193"/>
+      <c r="Q24" s="195"/>
+      <c r="R24" s="192"/>
+      <c r="S24" s="190"/>
+      <c r="T24" s="190"/>
+      <c r="U24" s="196"/>
+      <c r="V24" s="190"/>
+      <c r="W24" s="197"/>
+      <c r="X24" s="198"/>
+      <c r="Y24" s="199"/>
+      <c r="Z24" s="200"/>
+      <c r="AA24" s="201"/>
+      <c r="AB24" s="202"/>
+      <c r="AC24" s="192"/>
+      <c r="AD24" s="193"/>
+      <c r="AE24" s="193"/>
+      <c r="AF24" s="203"/>
+      <c r="AG24" s="87" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:47" s="162" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="137" t="s">
+    <row r="25" spans="1:47" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A25" s="204" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="138"/>
-      <c r="C25" s="139"/>
-      <c r="D25" s="140"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="143"/>
-      <c r="H25" s="141"/>
-      <c r="I25" s="142"/>
-      <c r="J25" s="142"/>
-      <c r="K25" s="142"/>
-      <c r="L25" s="144"/>
-      <c r="M25" s="141"/>
-      <c r="N25" s="142"/>
-      <c r="O25" s="142"/>
-      <c r="P25" s="142"/>
-      <c r="Q25" s="144"/>
-      <c r="R25" s="141"/>
-      <c r="S25" s="139"/>
-      <c r="T25" s="139"/>
-      <c r="U25" s="145"/>
-      <c r="V25" s="139"/>
-      <c r="W25" s="146"/>
-      <c r="X25" s="141"/>
-      <c r="Y25" s="139"/>
-      <c r="Z25" s="147"/>
-      <c r="AA25" s="166"/>
-      <c r="AB25" s="146"/>
-      <c r="AC25" s="141"/>
-      <c r="AD25" s="142"/>
-      <c r="AE25" s="142"/>
-      <c r="AF25" s="148"/>
-    </row>
-    <row r="26" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="137" t="s">
+      <c r="B25" s="205"/>
+      <c r="C25" s="206"/>
+      <c r="D25" s="207"/>
+      <c r="E25" s="208"/>
+      <c r="F25" s="209"/>
+      <c r="G25" s="210"/>
+      <c r="H25" s="208"/>
+      <c r="I25" s="209"/>
+      <c r="J25" s="209"/>
+      <c r="K25" s="209"/>
+      <c r="L25" s="211"/>
+      <c r="M25" s="208"/>
+      <c r="N25" s="209"/>
+      <c r="O25" s="209"/>
+      <c r="P25" s="209"/>
+      <c r="Q25" s="211"/>
+      <c r="R25" s="208"/>
+      <c r="S25" s="206"/>
+      <c r="T25" s="206"/>
+      <c r="U25" s="212"/>
+      <c r="V25" s="206"/>
+      <c r="W25" s="213"/>
+      <c r="X25" s="208"/>
+      <c r="Y25" s="206"/>
+      <c r="Z25" s="214"/>
+      <c r="AA25" s="215"/>
+      <c r="AB25" s="216"/>
+      <c r="AC25" s="208"/>
+      <c r="AD25" s="209"/>
+      <c r="AE25" s="209"/>
+      <c r="AF25" s="217"/>
+      <c r="AG25" s="87"/>
+    </row>
+    <row r="26" spans="1:47" ht="15" customHeight="1">
+      <c r="A26" s="204" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="138"/>
-      <c r="C26" s="139"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="141"/>
-      <c r="I26" s="142"/>
-      <c r="J26" s="142"/>
-      <c r="K26" s="142"/>
-      <c r="L26" s="144"/>
-      <c r="M26" s="141"/>
-      <c r="N26" s="142"/>
-      <c r="O26" s="142"/>
-      <c r="P26" s="142"/>
-      <c r="Q26" s="144"/>
-      <c r="R26" s="141"/>
-      <c r="S26" s="139"/>
-      <c r="T26" s="139"/>
-      <c r="U26" s="145"/>
-      <c r="V26" s="139"/>
-      <c r="W26" s="146"/>
-      <c r="X26" s="141"/>
-      <c r="Y26" s="139"/>
-      <c r="Z26" s="147"/>
-      <c r="AA26" s="166"/>
-      <c r="AB26" s="146"/>
-      <c r="AC26" s="141"/>
-      <c r="AD26" s="142"/>
-      <c r="AE26" s="142"/>
-      <c r="AF26" s="148"/>
-    </row>
-    <row r="27" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="137" t="s">
+      <c r="B26" s="205"/>
+      <c r="C26" s="206"/>
+      <c r="D26" s="207"/>
+      <c r="E26" s="208"/>
+      <c r="F26" s="209"/>
+      <c r="G26" s="210"/>
+      <c r="H26" s="208"/>
+      <c r="I26" s="209"/>
+      <c r="J26" s="209"/>
+      <c r="K26" s="209"/>
+      <c r="L26" s="211"/>
+      <c r="M26" s="208"/>
+      <c r="N26" s="209"/>
+      <c r="O26" s="209"/>
+      <c r="P26" s="209"/>
+      <c r="Q26" s="211"/>
+      <c r="R26" s="208"/>
+      <c r="S26" s="206"/>
+      <c r="T26" s="206"/>
+      <c r="U26" s="212"/>
+      <c r="V26" s="206"/>
+      <c r="W26" s="216"/>
+      <c r="X26" s="218"/>
+      <c r="Y26" s="206"/>
+      <c r="Z26" s="214"/>
+      <c r="AA26" s="215"/>
+      <c r="AB26" s="216"/>
+      <c r="AC26" s="208"/>
+      <c r="AD26" s="209"/>
+      <c r="AE26" s="209"/>
+      <c r="AF26" s="217"/>
+      <c r="AG26" s="7"/>
+    </row>
+    <row r="27" spans="1:47" ht="15" customHeight="1">
+      <c r="A27" s="204" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="138"/>
-      <c r="C27" s="139"/>
-      <c r="D27" s="140"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="142"/>
-      <c r="G27" s="143"/>
-      <c r="H27" s="141"/>
-      <c r="I27" s="142"/>
-      <c r="J27" s="142"/>
-      <c r="K27" s="142"/>
-      <c r="L27" s="144"/>
-      <c r="M27" s="141"/>
-      <c r="N27" s="142"/>
-      <c r="O27" s="142"/>
-      <c r="P27" s="142"/>
-      <c r="Q27" s="144"/>
-      <c r="R27" s="141"/>
-      <c r="S27" s="139"/>
-      <c r="T27" s="139"/>
-      <c r="U27" s="145"/>
-      <c r="V27" s="139"/>
-      <c r="W27" s="146"/>
-      <c r="X27" s="141"/>
-      <c r="Y27" s="139"/>
-      <c r="Z27" s="147"/>
-      <c r="AA27" s="166"/>
-      <c r="AB27" s="146"/>
-      <c r="AC27" s="141"/>
-      <c r="AD27" s="142"/>
-      <c r="AE27" s="142"/>
-      <c r="AF27" s="148"/>
-    </row>
-    <row r="28" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="137" t="s">
+      <c r="B27" s="205"/>
+      <c r="C27" s="206"/>
+      <c r="D27" s="207"/>
+      <c r="E27" s="208"/>
+      <c r="F27" s="209"/>
+      <c r="G27" s="210"/>
+      <c r="H27" s="208"/>
+      <c r="I27" s="209"/>
+      <c r="J27" s="209"/>
+      <c r="K27" s="209"/>
+      <c r="L27" s="211"/>
+      <c r="M27" s="208"/>
+      <c r="N27" s="209"/>
+      <c r="O27" s="209"/>
+      <c r="P27" s="209"/>
+      <c r="Q27" s="211"/>
+      <c r="R27" s="208"/>
+      <c r="S27" s="206"/>
+      <c r="T27" s="206"/>
+      <c r="U27" s="212"/>
+      <c r="V27" s="206"/>
+      <c r="W27" s="216"/>
+      <c r="X27" s="208"/>
+      <c r="Y27" s="219"/>
+      <c r="Z27" s="214"/>
+      <c r="AA27" s="215"/>
+      <c r="AB27" s="216"/>
+      <c r="AC27" s="208"/>
+      <c r="AD27" s="209"/>
+      <c r="AE27" s="209"/>
+      <c r="AF27" s="217"/>
+      <c r="AG27" s="7"/>
+    </row>
+    <row r="28" spans="1:47" ht="15" customHeight="1">
+      <c r="A28" s="204" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="138"/>
-      <c r="C28" s="139"/>
-      <c r="D28" s="140"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="143"/>
-      <c r="H28" s="141"/>
-      <c r="I28" s="142"/>
-      <c r="J28" s="142"/>
-      <c r="K28" s="142"/>
-      <c r="L28" s="144"/>
-      <c r="M28" s="141"/>
-      <c r="N28" s="142"/>
-      <c r="O28" s="142"/>
-      <c r="P28" s="142"/>
-      <c r="Q28" s="144"/>
-      <c r="R28" s="141"/>
-      <c r="S28" s="139"/>
-      <c r="T28" s="139"/>
-      <c r="U28" s="145"/>
-      <c r="V28" s="139"/>
-      <c r="W28" s="146"/>
-      <c r="X28" s="141"/>
-      <c r="Y28" s="139"/>
-      <c r="Z28" s="147"/>
-      <c r="AA28" s="166"/>
-      <c r="AB28" s="146"/>
-      <c r="AC28" s="141"/>
-      <c r="AD28" s="142"/>
-      <c r="AE28" s="142"/>
-      <c r="AF28" s="148"/>
-    </row>
-    <row r="29" spans="1:47" s="162" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="180" t="s">
+      <c r="B28" s="205"/>
+      <c r="C28" s="206"/>
+      <c r="D28" s="207"/>
+      <c r="E28" s="208"/>
+      <c r="F28" s="209"/>
+      <c r="G28" s="210"/>
+      <c r="H28" s="208"/>
+      <c r="I28" s="209"/>
+      <c r="J28" s="209"/>
+      <c r="K28" s="209"/>
+      <c r="L28" s="211"/>
+      <c r="M28" s="208"/>
+      <c r="N28" s="209"/>
+      <c r="O28" s="209"/>
+      <c r="P28" s="209"/>
+      <c r="Q28" s="211"/>
+      <c r="R28" s="208"/>
+      <c r="S28" s="206"/>
+      <c r="T28" s="206"/>
+      <c r="U28" s="212"/>
+      <c r="V28" s="206"/>
+      <c r="W28" s="216"/>
+      <c r="X28" s="208"/>
+      <c r="Y28" s="206"/>
+      <c r="Z28" s="220"/>
+      <c r="AA28" s="215"/>
+      <c r="AB28" s="216"/>
+      <c r="AC28" s="208"/>
+      <c r="AD28" s="209"/>
+      <c r="AE28" s="209"/>
+      <c r="AF28" s="217"/>
+      <c r="AG28" s="7"/>
+    </row>
+    <row r="29" spans="1:47" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A29" s="172" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="181" t="s">
+      <c r="B29" s="173" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="182"/>
-      <c r="D29" s="183"/>
-      <c r="E29" s="184"/>
-      <c r="F29" s="185"/>
-      <c r="G29" s="186"/>
-      <c r="H29" s="184"/>
-      <c r="I29" s="185"/>
-      <c r="J29" s="185"/>
-      <c r="K29" s="185"/>
-      <c r="L29" s="187"/>
-      <c r="M29" s="184"/>
-      <c r="N29" s="185"/>
-      <c r="O29" s="185"/>
-      <c r="P29" s="185"/>
-      <c r="Q29" s="187"/>
-      <c r="R29" s="184"/>
-      <c r="S29" s="182"/>
-      <c r="T29" s="182"/>
-      <c r="U29" s="188"/>
-      <c r="V29" s="182"/>
-      <c r="W29" s="189"/>
-      <c r="X29" s="184"/>
-      <c r="Y29" s="182"/>
-      <c r="Z29" s="190"/>
-      <c r="AA29" s="191"/>
-      <c r="AB29" s="189"/>
-      <c r="AC29" s="184"/>
-      <c r="AD29" s="185"/>
-      <c r="AE29" s="185"/>
-      <c r="AF29" s="192"/>
-    </row>
-    <row r="30" spans="1:47" s="162" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="193" t="s">
+      <c r="C29" s="88"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="91"/>
+      <c r="L29" s="93"/>
+      <c r="M29" s="90"/>
+      <c r="N29" s="91"/>
+      <c r="O29" s="91"/>
+      <c r="P29" s="91"/>
+      <c r="Q29" s="93"/>
+      <c r="R29" s="90"/>
+      <c r="S29" s="88"/>
+      <c r="T29" s="88"/>
+      <c r="U29" s="94"/>
+      <c r="V29" s="88"/>
+      <c r="W29" s="95"/>
+      <c r="X29" s="90"/>
+      <c r="Y29" s="96"/>
+      <c r="Z29" s="97"/>
+      <c r="AA29" s="98"/>
+      <c r="AB29" s="95"/>
+      <c r="AC29" s="90"/>
+      <c r="AD29" s="91"/>
+      <c r="AE29" s="91"/>
+      <c r="AF29" s="99"/>
+      <c r="AG29" s="87"/>
+    </row>
+    <row r="30" spans="1:47" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A30" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="194"/>
-      <c r="C30" s="195"/>
-      <c r="D30" s="196"/>
-      <c r="E30" s="197"/>
-      <c r="F30" s="198"/>
-      <c r="G30" s="199"/>
-      <c r="H30" s="197"/>
-      <c r="I30" s="198"/>
-      <c r="J30" s="198"/>
-      <c r="K30" s="198"/>
-      <c r="L30" s="200"/>
-      <c r="M30" s="197"/>
-      <c r="N30" s="198"/>
-      <c r="O30" s="198"/>
-      <c r="P30" s="198"/>
-      <c r="Q30" s="200"/>
-      <c r="R30" s="197"/>
-      <c r="S30" s="195"/>
-      <c r="T30" s="195"/>
-      <c r="U30" s="201"/>
-      <c r="V30" s="195"/>
-      <c r="W30" s="202"/>
-      <c r="X30" s="197"/>
-      <c r="Y30" s="195"/>
-      <c r="Z30" s="203"/>
-      <c r="AA30" s="204"/>
-      <c r="AB30" s="202"/>
-      <c r="AC30" s="197"/>
-      <c r="AD30" s="198"/>
-      <c r="AE30" s="198"/>
-      <c r="AF30" s="205"/>
-    </row>
-    <row r="31" spans="1:47" s="162" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="193" t="s">
+      <c r="B30" s="24"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="72"/>
+      <c r="Z30" s="80"/>
+      <c r="AA30" s="100"/>
+      <c r="AB30" s="35"/>
+      <c r="AC30" s="30"/>
+      <c r="AD30" s="28"/>
+      <c r="AE30" s="28"/>
+      <c r="AF30" s="34"/>
+      <c r="AG30" s="87"/>
+    </row>
+    <row r="31" spans="1:47" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A31" s="221" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="194"/>
-      <c r="C31" s="195"/>
-      <c r="D31" s="196"/>
-      <c r="E31" s="197"/>
-      <c r="F31" s="198"/>
-      <c r="G31" s="199"/>
-      <c r="H31" s="197"/>
-      <c r="I31" s="198"/>
-      <c r="J31" s="198"/>
-      <c r="K31" s="198"/>
-      <c r="L31" s="200"/>
-      <c r="M31" s="197"/>
-      <c r="N31" s="198"/>
-      <c r="O31" s="198"/>
-      <c r="P31" s="198"/>
-      <c r="Q31" s="200"/>
-      <c r="R31" s="197"/>
-      <c r="S31" s="195"/>
-      <c r="T31" s="195"/>
-      <c r="U31" s="201"/>
-      <c r="V31" s="195"/>
-      <c r="W31" s="202"/>
-      <c r="X31" s="197"/>
-      <c r="Y31" s="195"/>
-      <c r="Z31" s="203"/>
-      <c r="AA31" s="204"/>
-      <c r="AB31" s="202"/>
-      <c r="AC31" s="197"/>
-      <c r="AD31" s="198"/>
-      <c r="AE31" s="198"/>
-      <c r="AF31" s="205"/>
-    </row>
-    <row r="32" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="206" t="s">
+      <c r="B31" s="222"/>
+      <c r="C31" s="223"/>
+      <c r="D31" s="224"/>
+      <c r="E31" s="225"/>
+      <c r="F31" s="226"/>
+      <c r="G31" s="227"/>
+      <c r="H31" s="225"/>
+      <c r="I31" s="226"/>
+      <c r="J31" s="226"/>
+      <c r="K31" s="226"/>
+      <c r="L31" s="228"/>
+      <c r="M31" s="225"/>
+      <c r="N31" s="226"/>
+      <c r="O31" s="226"/>
+      <c r="P31" s="226"/>
+      <c r="Q31" s="228"/>
+      <c r="R31" s="225"/>
+      <c r="S31" s="223"/>
+      <c r="T31" s="223"/>
+      <c r="U31" s="229"/>
+      <c r="V31" s="223"/>
+      <c r="W31" s="230"/>
+      <c r="X31" s="225"/>
+      <c r="Y31" s="223"/>
+      <c r="Z31" s="220"/>
+      <c r="AA31" s="231"/>
+      <c r="AB31" s="230"/>
+      <c r="AC31" s="225"/>
+      <c r="AD31" s="226"/>
+      <c r="AE31" s="226"/>
+      <c r="AF31" s="232"/>
+      <c r="AG31" s="87"/>
+    </row>
+    <row r="32" spans="1:47" ht="15" customHeight="1">
+      <c r="A32" s="233" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="194"/>
-      <c r="C32" s="195"/>
-      <c r="D32" s="196"/>
-      <c r="E32" s="197"/>
-      <c r="F32" s="198"/>
-      <c r="G32" s="199"/>
-      <c r="H32" s="197"/>
-      <c r="I32" s="198"/>
-      <c r="J32" s="198"/>
-      <c r="K32" s="198"/>
-      <c r="L32" s="200"/>
-      <c r="M32" s="197"/>
-      <c r="N32" s="198"/>
-      <c r="O32" s="198"/>
-      <c r="P32" s="198"/>
-      <c r="Q32" s="200"/>
-      <c r="R32" s="197"/>
-      <c r="S32" s="195"/>
-      <c r="T32" s="195"/>
-      <c r="U32" s="201"/>
-      <c r="V32" s="195"/>
-      <c r="W32" s="202"/>
-      <c r="X32" s="197"/>
-      <c r="Y32" s="195"/>
-      <c r="Z32" s="203"/>
-      <c r="AA32" s="207"/>
-      <c r="AB32" s="202"/>
-      <c r="AC32" s="197"/>
-      <c r="AD32" s="198"/>
-      <c r="AE32" s="198"/>
-      <c r="AF32" s="205"/>
-    </row>
-    <row r="33" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="55" t="s">
+      <c r="B32" s="222"/>
+      <c r="C32" s="223"/>
+      <c r="D32" s="224"/>
+      <c r="E32" s="225"/>
+      <c r="F32" s="226"/>
+      <c r="G32" s="227"/>
+      <c r="H32" s="225"/>
+      <c r="I32" s="226"/>
+      <c r="J32" s="226"/>
+      <c r="K32" s="226"/>
+      <c r="L32" s="228"/>
+      <c r="M32" s="225"/>
+      <c r="N32" s="226"/>
+      <c r="O32" s="226"/>
+      <c r="P32" s="226"/>
+      <c r="Q32" s="228"/>
+      <c r="R32" s="225"/>
+      <c r="S32" s="223"/>
+      <c r="T32" s="223"/>
+      <c r="U32" s="229"/>
+      <c r="V32" s="223"/>
+      <c r="W32" s="230"/>
+      <c r="X32" s="225"/>
+      <c r="Y32" s="223"/>
+      <c r="Z32" s="234"/>
+      <c r="AA32" s="235"/>
+      <c r="AB32" s="230"/>
+      <c r="AC32" s="225"/>
+      <c r="AD32" s="226"/>
+      <c r="AE32" s="226"/>
+      <c r="AF32" s="232"/>
+      <c r="AG32" s="7"/>
+    </row>
+    <row r="33" spans="1:33" ht="15" customHeight="1">
+      <c r="A33" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="18"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="70"/>
-      <c r="Y33" s="72"/>
-      <c r="Z33" s="32"/>
-      <c r="AA33" s="167"/>
-      <c r="AB33" s="65"/>
-      <c r="AC33" s="29"/>
-      <c r="AD33" s="28"/>
-      <c r="AE33" s="15"/>
-      <c r="AF33" s="20"/>
-    </row>
-    <row r="34" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="56" t="s">
+      <c r="C33" s="101"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="104"/>
+      <c r="J33" s="104"/>
+      <c r="K33" s="104"/>
+      <c r="L33" s="107"/>
+      <c r="M33" s="106"/>
+      <c r="N33" s="104"/>
+      <c r="O33" s="104"/>
+      <c r="P33" s="104"/>
+      <c r="Q33" s="107"/>
+      <c r="R33" s="106"/>
+      <c r="S33" s="108"/>
+      <c r="T33" s="109"/>
+      <c r="U33" s="104"/>
+      <c r="V33" s="107"/>
+      <c r="W33" s="106"/>
+      <c r="X33" s="110"/>
+      <c r="Y33" s="111"/>
+      <c r="Z33" s="112"/>
+      <c r="AA33" s="107"/>
+      <c r="AB33" s="113"/>
+      <c r="AC33" s="114"/>
+      <c r="AD33" s="115"/>
+      <c r="AE33" s="103"/>
+      <c r="AF33" s="116"/>
+      <c r="AG33" s="7"/>
+    </row>
+    <row r="34" spans="1:33" ht="15" customHeight="1">
+      <c r="A34" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="27"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="24"/>
-      <c r="V34" s="26"/>
-      <c r="W34" s="25"/>
-      <c r="X34" s="21"/>
-      <c r="Y34" s="73"/>
-      <c r="Z34" s="23"/>
-      <c r="AA34" s="168"/>
-      <c r="AB34" s="66"/>
-      <c r="AC34" s="35"/>
-      <c r="AD34" s="23"/>
-      <c r="AE34" s="23"/>
-      <c r="AF34" s="57"/>
-    </row>
-    <row r="35" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="56" t="s">
+      <c r="B34" s="118"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="121"/>
+      <c r="F34" s="122"/>
+      <c r="G34" s="123"/>
+      <c r="H34" s="124"/>
+      <c r="I34" s="122"/>
+      <c r="J34" s="122"/>
+      <c r="K34" s="122"/>
+      <c r="L34" s="125"/>
+      <c r="M34" s="124"/>
+      <c r="N34" s="122"/>
+      <c r="O34" s="122"/>
+      <c r="P34" s="122"/>
+      <c r="Q34" s="125"/>
+      <c r="R34" s="124"/>
+      <c r="S34" s="126"/>
+      <c r="T34" s="127"/>
+      <c r="U34" s="122"/>
+      <c r="V34" s="125"/>
+      <c r="W34" s="124"/>
+      <c r="X34" s="119"/>
+      <c r="Y34" s="128"/>
+      <c r="Z34" s="121"/>
+      <c r="AA34" s="125"/>
+      <c r="AB34" s="129"/>
+      <c r="AC34" s="130"/>
+      <c r="AD34" s="121"/>
+      <c r="AE34" s="121"/>
+      <c r="AF34" s="131"/>
+      <c r="AG34" s="7"/>
+    </row>
+    <row r="35" spans="1:33" ht="15" customHeight="1">
+      <c r="A35" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="25"/>
-      <c r="S35" s="27"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="24"/>
-      <c r="V35" s="26"/>
-      <c r="W35" s="25"/>
-      <c r="X35" s="21"/>
-      <c r="Y35" s="73"/>
-      <c r="Z35" s="23"/>
-      <c r="AA35" s="168"/>
-      <c r="AB35" s="67"/>
-      <c r="AC35" s="25"/>
-      <c r="AD35" s="36"/>
-      <c r="AE35" s="23"/>
-      <c r="AF35" s="57"/>
-    </row>
-    <row r="36" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="58" t="s">
+      <c r="B35" s="132"/>
+      <c r="C35" s="119"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="121"/>
+      <c r="F35" s="122"/>
+      <c r="G35" s="123"/>
+      <c r="H35" s="124"/>
+      <c r="I35" s="122"/>
+      <c r="J35" s="122"/>
+      <c r="K35" s="122"/>
+      <c r="L35" s="125"/>
+      <c r="M35" s="124"/>
+      <c r="N35" s="122"/>
+      <c r="O35" s="122"/>
+      <c r="P35" s="122"/>
+      <c r="Q35" s="125"/>
+      <c r="R35" s="124"/>
+      <c r="S35" s="126"/>
+      <c r="T35" s="127"/>
+      <c r="U35" s="122"/>
+      <c r="V35" s="125"/>
+      <c r="W35" s="124"/>
+      <c r="X35" s="119"/>
+      <c r="Y35" s="128"/>
+      <c r="Z35" s="121"/>
+      <c r="AA35" s="125"/>
+      <c r="AB35" s="133"/>
+      <c r="AC35" s="124"/>
+      <c r="AD35" s="134"/>
+      <c r="AE35" s="121"/>
+      <c r="AF35" s="131"/>
+      <c r="AG35" s="7"/>
+    </row>
+    <row r="36" spans="1:33" ht="15" customHeight="1">
+      <c r="A36" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="16"/>
-      <c r="V36" s="18"/>
-      <c r="W36" s="17"/>
-      <c r="X36" s="70"/>
-      <c r="Y36" s="72"/>
-      <c r="Z36" s="30"/>
-      <c r="AA36" s="167"/>
-      <c r="AB36" s="68"/>
-      <c r="AC36" s="31"/>
-      <c r="AD36" s="30"/>
-      <c r="AE36" s="33"/>
-      <c r="AF36" s="34"/>
-    </row>
-    <row r="37" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="56" t="s">
+      <c r="C36" s="101"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="106"/>
+      <c r="I36" s="104"/>
+      <c r="J36" s="104"/>
+      <c r="K36" s="104"/>
+      <c r="L36" s="107"/>
+      <c r="M36" s="106"/>
+      <c r="N36" s="104"/>
+      <c r="O36" s="104"/>
+      <c r="P36" s="104"/>
+      <c r="Q36" s="107"/>
+      <c r="R36" s="106"/>
+      <c r="S36" s="108"/>
+      <c r="T36" s="109"/>
+      <c r="U36" s="104"/>
+      <c r="V36" s="107"/>
+      <c r="W36" s="106"/>
+      <c r="X36" s="110"/>
+      <c r="Y36" s="111"/>
+      <c r="Z36" s="112"/>
+      <c r="AA36" s="107"/>
+      <c r="AB36" s="135"/>
+      <c r="AC36" s="106"/>
+      <c r="AD36" s="112"/>
+      <c r="AE36" s="136"/>
+      <c r="AF36" s="137"/>
+      <c r="AG36" s="7"/>
+    </row>
+    <row r="37" spans="1:33" ht="15" customHeight="1">
+      <c r="A37" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="27"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="24"/>
-      <c r="V37" s="26"/>
-      <c r="W37" s="25"/>
-      <c r="X37" s="21"/>
-      <c r="Y37" s="73"/>
-      <c r="Z37" s="23"/>
-      <c r="AA37" s="168"/>
-      <c r="AB37" s="67"/>
-      <c r="AC37" s="25"/>
-      <c r="AD37" s="23"/>
-      <c r="AE37" s="36"/>
-      <c r="AF37" s="57"/>
-    </row>
-    <row r="38" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="56" t="s">
+      <c r="B37" s="118"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="121"/>
+      <c r="F37" s="122"/>
+      <c r="G37" s="123"/>
+      <c r="H37" s="124"/>
+      <c r="I37" s="122"/>
+      <c r="J37" s="122"/>
+      <c r="K37" s="122"/>
+      <c r="L37" s="125"/>
+      <c r="M37" s="124"/>
+      <c r="N37" s="122"/>
+      <c r="O37" s="122"/>
+      <c r="P37" s="122"/>
+      <c r="Q37" s="125"/>
+      <c r="R37" s="124"/>
+      <c r="S37" s="126"/>
+      <c r="T37" s="127"/>
+      <c r="U37" s="122"/>
+      <c r="V37" s="125"/>
+      <c r="W37" s="124"/>
+      <c r="X37" s="119"/>
+      <c r="Y37" s="128"/>
+      <c r="Z37" s="121"/>
+      <c r="AA37" s="125"/>
+      <c r="AB37" s="133"/>
+      <c r="AC37" s="124"/>
+      <c r="AD37" s="121"/>
+      <c r="AE37" s="134"/>
+      <c r="AF37" s="131"/>
+      <c r="AG37" s="7"/>
+    </row>
+    <row r="38" spans="1:33" ht="15" customHeight="1">
+      <c r="A38" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="26"/>
-      <c r="R38" s="25"/>
-      <c r="S38" s="27"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="24"/>
-      <c r="V38" s="26"/>
-      <c r="W38" s="25"/>
-      <c r="X38" s="21"/>
-      <c r="Y38" s="73"/>
-      <c r="Z38" s="23"/>
-      <c r="AA38" s="168"/>
-      <c r="AB38" s="67"/>
-      <c r="AC38" s="25"/>
-      <c r="AD38" s="23"/>
-      <c r="AE38" s="23"/>
-      <c r="AF38" s="59"/>
-    </row>
-    <row r="39" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="60" t="s">
+      <c r="B38" s="118"/>
+      <c r="C38" s="119"/>
+      <c r="D38" s="120"/>
+      <c r="E38" s="121"/>
+      <c r="F38" s="122"/>
+      <c r="G38" s="123"/>
+      <c r="H38" s="124"/>
+      <c r="I38" s="122"/>
+      <c r="J38" s="122"/>
+      <c r="K38" s="122"/>
+      <c r="L38" s="125"/>
+      <c r="M38" s="124"/>
+      <c r="N38" s="122"/>
+      <c r="O38" s="122"/>
+      <c r="P38" s="122"/>
+      <c r="Q38" s="125"/>
+      <c r="R38" s="124"/>
+      <c r="S38" s="126"/>
+      <c r="T38" s="127"/>
+      <c r="U38" s="122"/>
+      <c r="V38" s="125"/>
+      <c r="W38" s="124"/>
+      <c r="X38" s="119"/>
+      <c r="Y38" s="128"/>
+      <c r="Z38" s="121"/>
+      <c r="AA38" s="125"/>
+      <c r="AB38" s="133"/>
+      <c r="AC38" s="124"/>
+      <c r="AD38" s="121"/>
+      <c r="AE38" s="121"/>
+      <c r="AF38" s="138"/>
+      <c r="AG38" s="7"/>
+    </row>
+    <row r="39" spans="1:33" ht="15" customHeight="1">
+      <c r="A39" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="42"/>
-      <c r="N39" s="38"/>
-      <c r="O39" s="38"/>
-      <c r="P39" s="38"/>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="43"/>
-      <c r="S39" s="38"/>
-      <c r="T39" s="38"/>
-      <c r="U39" s="38"/>
-      <c r="V39" s="44"/>
-      <c r="W39" s="42"/>
-      <c r="X39" s="45"/>
-      <c r="Y39" s="74"/>
-      <c r="Z39" s="71"/>
-      <c r="AA39" s="169"/>
-      <c r="AB39" s="69"/>
-      <c r="AC39" s="42"/>
-      <c r="AD39" s="38"/>
-      <c r="AE39" s="38"/>
-      <c r="AF39" s="40"/>
-    </row>
-    <row r="40" spans="1:32" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="61"/>
-      <c r="B40" s="54" t="s">
+      <c r="B39" s="140"/>
+      <c r="C39" s="141"/>
+      <c r="D39" s="142"/>
+      <c r="E39" s="141"/>
+      <c r="F39" s="141"/>
+      <c r="G39" s="143"/>
+      <c r="H39" s="144"/>
+      <c r="I39" s="141"/>
+      <c r="J39" s="141"/>
+      <c r="K39" s="141"/>
+      <c r="L39" s="145"/>
+      <c r="M39" s="144"/>
+      <c r="N39" s="141"/>
+      <c r="O39" s="141"/>
+      <c r="P39" s="141"/>
+      <c r="Q39" s="146"/>
+      <c r="R39" s="147"/>
+      <c r="S39" s="141"/>
+      <c r="T39" s="141"/>
+      <c r="U39" s="141"/>
+      <c r="V39" s="145"/>
+      <c r="W39" s="144"/>
+      <c r="X39" s="146"/>
+      <c r="Y39" s="148"/>
+      <c r="Z39" s="149"/>
+      <c r="AA39" s="145"/>
+      <c r="AB39" s="150"/>
+      <c r="AC39" s="144"/>
+      <c r="AD39" s="141"/>
+      <c r="AE39" s="141"/>
+      <c r="AF39" s="151"/>
+      <c r="AG39" s="7"/>
+    </row>
+    <row r="40" spans="1:33" ht="15" customHeight="1" thickBot="1">
+      <c r="A40" s="152"/>
+      <c r="B40" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="46"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="51"/>
-      <c r="O40" s="46"/>
-      <c r="P40" s="46"/>
-      <c r="Q40" s="46"/>
-      <c r="R40" s="48"/>
-      <c r="S40" s="49"/>
-      <c r="T40" s="46"/>
-      <c r="U40" s="46"/>
-      <c r="V40" s="46"/>
-      <c r="W40" s="50"/>
-      <c r="X40" s="51"/>
-      <c r="Y40" s="48"/>
-      <c r="Z40" s="52"/>
-      <c r="AA40" s="46"/>
-      <c r="AB40" s="50"/>
-      <c r="AC40" s="51"/>
-      <c r="AD40" s="46"/>
-      <c r="AE40" s="46"/>
-      <c r="AF40" s="53"/>
-    </row>
-    <row r="41" spans="1:32" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="C40" s="154"/>
+      <c r="D40" s="155"/>
+      <c r="E40" s="154"/>
+      <c r="F40" s="154"/>
+      <c r="G40" s="154"/>
+      <c r="H40" s="156"/>
+      <c r="I40" s="157"/>
+      <c r="J40" s="154"/>
+      <c r="K40" s="154"/>
+      <c r="L40" s="154"/>
+      <c r="M40" s="158"/>
+      <c r="N40" s="159"/>
+      <c r="O40" s="154"/>
+      <c r="P40" s="154"/>
+      <c r="Q40" s="154"/>
+      <c r="R40" s="156"/>
+      <c r="S40" s="157"/>
+      <c r="T40" s="154"/>
+      <c r="U40" s="154"/>
+      <c r="V40" s="154"/>
+      <c r="W40" s="158"/>
+      <c r="X40" s="159"/>
+      <c r="Y40" s="156"/>
+      <c r="Z40" s="160"/>
+      <c r="AA40" s="154"/>
+      <c r="AB40" s="158"/>
+      <c r="AC40" s="159"/>
+      <c r="AD40" s="154"/>
+      <c r="AE40" s="154"/>
+      <c r="AF40" s="161"/>
+      <c r="AG40" s="7"/>
+    </row>
+    <row r="41" spans="1:33" ht="15" customHeight="1" thickTop="1">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:33" ht="15" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:33" ht="15" customHeight="1">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:33" ht="15" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:33" ht="15" customHeight="1">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:33" ht="15" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
     </row>
-    <row r="47" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:33" ht="15" customHeight="1">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:33" ht="15" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:32" ht="15" customHeight="1">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:32" ht="15" customHeight="1">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:32" ht="15" customHeight="1">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:32" ht="15" customHeight="1">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:32" ht="15" customHeight="1">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -4599,7 +4828,7 @@
       <c r="AD53" s="4"/>
       <c r="AE53" s="4"/>
     </row>
-    <row r="54" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:32" ht="13.5" customHeight="1">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -4631,7 +4860,7 @@
       <c r="AD54" s="4"/>
       <c r="AE54" s="4"/>
     </row>
-    <row r="55" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:32" ht="13.5" customHeight="1">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -4664,7 +4893,7 @@
       <c r="AE55" s="4"/>
       <c r="AF55" s="4"/>
     </row>
-    <row r="56" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:32" ht="13.5" customHeight="1">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -4697,7 +4926,7 @@
       <c r="AE56" s="4"/>
       <c r="AF56" s="4"/>
     </row>
-    <row r="57" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:32" ht="13.5" customHeight="1">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -4730,7 +4959,7 @@
       <c r="AE57" s="4"/>
       <c r="AF57" s="4"/>
     </row>
-    <row r="58" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:32" ht="13.5" customHeight="1">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -4763,7 +4992,7 @@
       <c r="AE58" s="4"/>
       <c r="AF58" s="4"/>
     </row>
-    <row r="59" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:32" ht="13.5" customHeight="1">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -4796,72 +5025,72 @@
       <c r="AE59" s="4"/>
       <c r="AF59" s="4"/>
     </row>
-    <row r="60" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:32" ht="13.5" customHeight="1">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="AF60" s="4"/>
     </row>
-    <row r="61" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:32" ht="13.5" customHeight="1">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="AF61" s="4"/>
     </row>
-    <row r="62" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:32" ht="13.5" customHeight="1">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
     </row>
-    <row r="63" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:32" ht="13.5" customHeight="1">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:32" ht="13.5" customHeight="1">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:32">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:32">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:32">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:32">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:32">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:32">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:32">
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -4893,7 +5122,7 @@
       <c r="AE71" s="4"/>
       <c r="AF71" s="4"/>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:32">
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -4925,7 +5154,7 @@
       <c r="AE72" s="4"/>
       <c r="AF72" s="4"/>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:32">
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -4957,511 +5186,511 @@
       <c r="AE73" s="4"/>
       <c r="AF73" s="4"/>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:32">
       <c r="C74" s="3"/>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:32">
       <c r="C75" s="3"/>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:32">
       <c r="C76" s="3"/>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:32">
       <c r="C77" s="3"/>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:32">
       <c r="C78" s="3"/>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:32">
       <c r="C79" s="3"/>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:32">
       <c r="C80" s="3"/>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="81" spans="3:3">
       <c r="C81" s="3"/>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="82" spans="3:3">
       <c r="C82" s="3"/>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="83" spans="3:3">
       <c r="C83" s="3"/>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="84" spans="3:3">
       <c r="C84" s="3"/>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="85" spans="3:3">
       <c r="C85" s="3"/>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="86" spans="3:3">
       <c r="C86" s="3"/>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="87" spans="3:3">
       <c r="C87" s="3"/>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="88" spans="3:3">
       <c r="C88" s="3"/>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="89" spans="3:3">
       <c r="C89" s="3"/>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="90" spans="3:3">
       <c r="C90" s="3"/>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="91" spans="3:3">
       <c r="C91" s="3"/>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="92" spans="3:3">
       <c r="C92" s="3"/>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="93" spans="3:3">
       <c r="C93" s="3"/>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="94" spans="3:3">
       <c r="C94" s="3"/>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="95" spans="3:3">
       <c r="C95" s="3"/>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="96" spans="3:3">
       <c r="C96" s="3"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="97" spans="3:3">
       <c r="C97" s="3"/>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="98" spans="3:3">
       <c r="C98" s="3"/>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="99" spans="3:3">
       <c r="C99" s="3"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="100" spans="3:3">
       <c r="C100" s="3"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="101" spans="3:3">
       <c r="C101" s="3"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="102" spans="3:3">
       <c r="C102" s="3"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="103" spans="3:3">
       <c r="C103" s="3"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="104" spans="3:3">
       <c r="C104" s="3"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="105" spans="3:3">
       <c r="C105" s="3"/>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="106" spans="3:3">
       <c r="C106" s="3"/>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="107" spans="3:3">
       <c r="C107" s="3"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="108" spans="3:3">
       <c r="C108" s="3"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="109" spans="3:3">
       <c r="C109" s="3"/>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="110" spans="3:3">
       <c r="C110" s="3"/>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="111" spans="3:3">
       <c r="C111" s="3"/>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="112" spans="3:3">
       <c r="C112" s="3"/>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="113" spans="3:3">
       <c r="C113" s="3"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="114" spans="3:3">
       <c r="C114" s="3"/>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="115" spans="3:3">
       <c r="C115" s="3"/>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="116" spans="3:3">
       <c r="C116" s="3"/>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="117" spans="3:3">
       <c r="C117" s="3"/>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="118" spans="3:3">
       <c r="C118" s="3"/>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="119" spans="3:3">
       <c r="C119" s="3"/>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="120" spans="3:3">
       <c r="C120" s="3"/>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="121" spans="3:3">
       <c r="C121" s="3"/>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="122" spans="3:3">
       <c r="C122" s="3"/>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="123" spans="3:3">
       <c r="C123" s="3"/>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="124" spans="3:3">
       <c r="C124" s="3"/>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="125" spans="3:3">
       <c r="C125" s="3"/>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="126" spans="3:3">
       <c r="C126" s="3"/>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="127" spans="3:3">
       <c r="C127" s="3"/>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="128" spans="3:3">
       <c r="C128" s="3"/>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="129" spans="3:3">
       <c r="C129" s="3"/>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="130" spans="3:3">
       <c r="C130" s="3"/>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="131" spans="3:3">
       <c r="C131" s="3"/>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="132" spans="3:3">
       <c r="C132" s="3"/>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="133" spans="3:3">
       <c r="C133" s="3"/>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="134" spans="3:3">
       <c r="C134" s="3"/>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="135" spans="3:3">
       <c r="C135" s="3"/>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="136" spans="3:3">
       <c r="C136" s="3"/>
     </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="137" spans="3:3">
       <c r="C137" s="3"/>
     </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="138" spans="3:3">
       <c r="C138" s="3"/>
     </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="139" spans="3:3">
       <c r="C139" s="3"/>
     </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="140" spans="3:3">
       <c r="C140" s="3"/>
     </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="141" spans="3:3">
       <c r="C141" s="3"/>
     </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="142" spans="3:3">
       <c r="C142" s="3"/>
     </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="143" spans="3:3">
       <c r="C143" s="3"/>
     </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="144" spans="3:3">
       <c r="C144" s="3"/>
     </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="145" spans="3:3">
       <c r="C145" s="3"/>
     </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="146" spans="3:3">
       <c r="C146" s="3"/>
     </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="147" spans="3:3">
       <c r="C147" s="3"/>
     </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="148" spans="3:3">
       <c r="C148" s="3"/>
     </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="149" spans="3:3">
       <c r="C149" s="3"/>
     </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="150" spans="3:3">
       <c r="C150" s="3"/>
     </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="151" spans="3:3">
       <c r="C151" s="3"/>
     </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="152" spans="3:3">
       <c r="C152" s="3"/>
     </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="153" spans="3:3">
       <c r="C153" s="3"/>
     </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="154" spans="3:3">
       <c r="C154" s="3"/>
     </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="155" spans="3:3">
       <c r="C155" s="3"/>
     </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="156" spans="3:3">
       <c r="C156" s="3"/>
     </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="157" spans="3:3">
       <c r="C157" s="3"/>
     </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="158" spans="3:3">
       <c r="C158" s="3"/>
     </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="159" spans="3:3">
       <c r="C159" s="3"/>
     </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="160" spans="3:3">
       <c r="C160" s="3"/>
     </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="161" spans="3:3">
       <c r="C161" s="3"/>
     </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="162" spans="3:3">
       <c r="C162" s="3"/>
     </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="163" spans="3:3">
       <c r="C163" s="3"/>
     </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="164" spans="3:3">
       <c r="C164" s="3"/>
     </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="165" spans="3:3">
       <c r="C165" s="3"/>
     </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="166" spans="3:3">
       <c r="C166" s="3"/>
     </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="167" spans="3:3">
       <c r="C167" s="3"/>
     </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="168" spans="3:3">
       <c r="C168" s="3"/>
     </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="169" spans="3:3">
       <c r="C169" s="3"/>
     </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="170" spans="3:3">
       <c r="C170" s="3"/>
     </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="171" spans="3:3">
       <c r="C171" s="3"/>
     </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="172" spans="3:3">
       <c r="C172" s="3"/>
     </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="173" spans="3:3">
       <c r="C173" s="3"/>
     </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="174" spans="3:3">
       <c r="C174" s="3"/>
     </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="175" spans="3:3">
       <c r="C175" s="3"/>
     </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="176" spans="3:3">
       <c r="C176" s="3"/>
     </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="177" spans="3:3">
       <c r="C177" s="3"/>
     </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="178" spans="3:3">
       <c r="C178" s="3"/>
     </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="179" spans="3:3">
       <c r="C179" s="3"/>
     </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="180" spans="3:3">
       <c r="C180" s="3"/>
     </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="181" spans="3:3">
       <c r="C181" s="3"/>
     </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="182" spans="3:3">
       <c r="C182" s="3"/>
     </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="183" spans="3:3">
       <c r="C183" s="3"/>
     </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="184" spans="3:3">
       <c r="C184" s="3"/>
     </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="185" spans="3:3">
       <c r="C185" s="3"/>
     </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="186" spans="3:3">
       <c r="C186" s="3"/>
     </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="187" spans="3:3">
       <c r="C187" s="3"/>
     </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="188" spans="3:3">
       <c r="C188" s="3"/>
     </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="189" spans="3:3">
       <c r="C189" s="3"/>
     </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="190" spans="3:3">
       <c r="C190" s="3"/>
     </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="191" spans="3:3">
       <c r="C191" s="3"/>
     </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="192" spans="3:3">
       <c r="C192" s="3"/>
     </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="193" spans="3:3">
       <c r="C193" s="3"/>
     </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="194" spans="3:3">
       <c r="C194" s="3"/>
     </row>
-    <row r="195" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="195" spans="3:3">
       <c r="C195" s="3"/>
     </row>
-    <row r="196" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="196" spans="3:3">
       <c r="C196" s="3"/>
     </row>
-    <row r="197" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="197" spans="3:3">
       <c r="C197" s="3"/>
     </row>
-    <row r="198" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="198" spans="3:3">
       <c r="C198" s="3"/>
     </row>
-    <row r="199" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="199" spans="3:3">
       <c r="C199" s="3"/>
     </row>
-    <row r="200" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="200" spans="3:3">
       <c r="C200" s="3"/>
     </row>
-    <row r="201" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="201" spans="3:3">
       <c r="C201" s="3"/>
     </row>
-    <row r="202" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="202" spans="3:3">
       <c r="C202" s="3"/>
     </row>
-    <row r="203" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="203" spans="3:3">
       <c r="C203" s="3"/>
     </row>
-    <row r="204" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="204" spans="3:3">
       <c r="C204" s="3"/>
     </row>
-    <row r="205" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="205" spans="3:3">
       <c r="C205" s="3"/>
     </row>
-    <row r="206" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="206" spans="3:3">
       <c r="C206" s="3"/>
     </row>
-    <row r="207" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="207" spans="3:3">
       <c r="C207" s="3"/>
     </row>
-    <row r="208" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="208" spans="3:3">
       <c r="C208" s="3"/>
     </row>
-    <row r="209" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="209" spans="3:3">
       <c r="C209" s="3"/>
     </row>
-    <row r="210" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="210" spans="3:3">
       <c r="C210" s="3"/>
     </row>
-    <row r="211" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="211" spans="3:3">
       <c r="C211" s="3"/>
     </row>
-    <row r="212" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="212" spans="3:3">
       <c r="C212" s="3"/>
     </row>
-    <row r="213" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="213" spans="3:3">
       <c r="C213" s="3"/>
     </row>
-    <row r="214" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="214" spans="3:3">
       <c r="C214" s="3"/>
     </row>
-    <row r="215" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="215" spans="3:3">
       <c r="C215" s="3"/>
     </row>
-    <row r="216" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="216" spans="3:3">
       <c r="C216" s="3"/>
     </row>
-    <row r="217" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="217" spans="3:3">
       <c r="C217" s="3"/>
     </row>
-    <row r="218" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="218" spans="3:3">
       <c r="C218" s="3"/>
     </row>
-    <row r="219" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="219" spans="3:3">
       <c r="C219" s="3"/>
     </row>
-    <row r="220" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="220" spans="3:3">
       <c r="C220" s="3"/>
     </row>
-    <row r="221" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="221" spans="3:3">
       <c r="C221" s="3"/>
     </row>
-    <row r="222" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="222" spans="3:3">
       <c r="C222" s="3"/>
     </row>
-    <row r="223" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="223" spans="3:3">
       <c r="C223" s="3"/>
     </row>
-    <row r="224" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="224" spans="3:3">
       <c r="C224" s="3"/>
     </row>
-    <row r="225" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="225" spans="3:3">
       <c r="C225" s="3"/>
     </row>
-    <row r="226" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="226" spans="3:3">
       <c r="C226" s="3"/>
     </row>
-    <row r="227" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="227" spans="3:3">
       <c r="C227" s="3"/>
     </row>
-    <row r="228" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="228" spans="3:3">
       <c r="C228" s="3"/>
     </row>
-    <row r="229" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="229" spans="3:3">
       <c r="C229" s="3"/>
     </row>
-    <row r="230" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="230" spans="3:3">
       <c r="C230" s="3"/>
     </row>
-    <row r="231" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="231" spans="3:3">
       <c r="C231" s="3"/>
     </row>
-    <row r="232" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="232" spans="3:3">
       <c r="C232" s="3"/>
     </row>
-    <row r="233" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="233" spans="3:3">
       <c r="C233" s="3"/>
     </row>
-    <row r="234" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="234" spans="3:3">
       <c r="C234" s="3"/>
     </row>
-    <row r="235" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="235" spans="3:3">
       <c r="C235" s="3"/>
     </row>
-    <row r="236" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="236" spans="3:3">
       <c r="C236" s="3"/>
     </row>
-    <row r="237" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="237" spans="3:3">
       <c r="C237" s="3"/>
     </row>
-    <row r="238" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="238" spans="3:3">
       <c r="C238" s="3"/>
     </row>
-    <row r="239" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="239" spans="3:3">
       <c r="C239" s="3"/>
     </row>
-    <row r="240" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="240" spans="3:3">
       <c r="C240" s="3"/>
     </row>
-    <row r="241" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="241" spans="3:3">
       <c r="C241" s="3"/>
     </row>
-    <row r="242" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="242" spans="3:3">
       <c r="C242" s="3"/>
     </row>
   </sheetData>
@@ -5486,7 +5715,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5500,10 +5729,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>